--- a/backend/data_engineering/FormattedAnnualBudget.xlsx
+++ b/backend/data_engineering/FormattedAnnualBudget.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S146"/>
+  <dimension ref="A1:BO146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
@@ -500,7 +500,54 @@
     <col width="16" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
+    <col width="21" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
+    <col width="21" customWidth="1" min="26" max="26"/>
+    <col width="21" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="21" customWidth="1" min="30" max="30"/>
+    <col width="21" customWidth="1" min="31" max="31"/>
+    <col width="21" customWidth="1" min="32" max="32"/>
+    <col width="21" customWidth="1" min="33" max="33"/>
+    <col width="21" customWidth="1" min="34" max="34"/>
+    <col width="21" customWidth="1" min="35" max="35"/>
+    <col width="21" customWidth="1" min="36" max="36"/>
+    <col width="21" customWidth="1" min="37" max="37"/>
+    <col width="21" customWidth="1" min="38" max="38"/>
+    <col width="21" customWidth="1" min="39" max="39"/>
+    <col width="21" customWidth="1" min="40" max="40"/>
+    <col width="21" customWidth="1" min="41" max="41"/>
+    <col width="21" customWidth="1" min="42" max="42"/>
+    <col width="21" customWidth="1" min="43" max="43"/>
+    <col width="21" customWidth="1" min="44" max="44"/>
+    <col width="21" customWidth="1" min="45" max="45"/>
+    <col width="21" customWidth="1" min="46" max="46"/>
+    <col width="21" customWidth="1" min="47" max="47"/>
+    <col width="21" customWidth="1" min="48" max="48"/>
+    <col width="21" customWidth="1" min="49" max="49"/>
+    <col width="21" customWidth="1" min="50" max="50"/>
+    <col width="21" customWidth="1" min="51" max="51"/>
+    <col width="21" customWidth="1" min="52" max="52"/>
+    <col width="21" customWidth="1" min="53" max="53"/>
+    <col width="21" customWidth="1" min="54" max="54"/>
+    <col width="21" customWidth="1" min="55" max="55"/>
+    <col width="21" customWidth="1" min="56" max="56"/>
+    <col width="21" customWidth="1" min="57" max="57"/>
+    <col width="21" customWidth="1" min="58" max="58"/>
+    <col width="21" customWidth="1" min="59" max="59"/>
+    <col width="21" customWidth="1" min="60" max="60"/>
+    <col width="21" customWidth="1" min="61" max="61"/>
+    <col width="21" customWidth="1" min="62" max="62"/>
+    <col width="21" customWidth="1" min="63" max="63"/>
+    <col width="21" customWidth="1" min="64" max="64"/>
+    <col width="21" customWidth="1" min="65" max="65"/>
+    <col width="21" customWidth="1" min="66" max="66"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -599,6 +646,66 @@
           <t>Month</t>
         </is>
       </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="AF1" s="3" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="AJ1" s="3" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="AN1" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="AR1" s="3" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="AV1" s="3" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="AZ1" s="3" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="BD1" s="3" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="BH1" s="3" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="BL1" s="3" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -616,19 +723,19 @@
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Display &amp; VOD</t>
+          <t>Display</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr"/>
       <c r="H2" s="5" t="inlineStr"/>
       <c r="I2" s="5" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>750</v>
+        <v>920</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="L2" s="3" t="inlineStr"/>
       <c r="M2" s="3" t="inlineStr"/>
@@ -642,7 +749,7 @@
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>F73963</t>
+          <t>F73952</t>
         </is>
       </c>
       <c r="S2" s="3" t="inlineStr">
@@ -650,24 +757,261 @@
           <t>June</t>
         </is>
       </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AB2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="AH2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AI2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AJ2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="AK2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="AL2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AM2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AN2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="AO2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="AP2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AQ2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AR2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="AS2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="AT2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AU2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AV2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="AW2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="AX2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="AY2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="AZ2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="BA2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="BB2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="BC2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="BD2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="BE2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="BF2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="BG2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="BH2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="BI2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="BJ2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="BK2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
+      <c r="BL2" s="3" t="inlineStr">
+        <is>
+          <t>NetBillable</t>
+        </is>
+      </c>
+      <c r="BM2" s="3" t="inlineStr">
+        <is>
+          <t>AgencyCommission</t>
+        </is>
+      </c>
+      <c r="BN2" s="3" t="inlineStr">
+        <is>
+          <t>LevyASBOF</t>
+        </is>
+      </c>
+      <c r="BO2" s="3" t="inlineStr">
+        <is>
+          <t>TotalInvoicedToDate</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="4" t="n"/>
       <c r="G3" s="5" t="inlineStr"/>
       <c r="H3" s="5" t="inlineStr"/>
       <c r="I3" s="5" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="3" t="inlineStr"/>
@@ -681,7 +1025,7 @@
       </c>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>F73952</t>
+          <t>F73951</t>
         </is>
       </c>
       <c r="S3" s="3" t="inlineStr">
@@ -691,22 +1035,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="4" t="n"/>
       <c r="G4" s="5" t="inlineStr"/>
       <c r="H4" s="5" t="inlineStr"/>
       <c r="I4" s="5" t="n">
-        <v>19000</v>
+        <v>10200</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>760</v>
+        <v>408</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="L4" s="3" t="inlineStr"/>
       <c r="M4" s="3" t="inlineStr"/>
@@ -720,7 +1061,7 @@
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>F73951</t>
+          <t>F73950</t>
         </is>
       </c>
       <c r="S4" s="3" t="inlineStr">
@@ -730,22 +1071,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="4" t="n"/>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>10200</v>
+        <v>14000</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>408</v>
+        <v>560</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -759,7 +1097,7 @@
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>F73950</t>
+          <t>F73949</t>
         </is>
       </c>
       <c r="S5" s="3" t="inlineStr">
@@ -769,22 +1107,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="4" t="n"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>14000</v>
+        <v>1200</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>560</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="L6" s="3" t="inlineStr"/>
       <c r="M6" s="3" t="inlineStr"/>
@@ -798,7 +1133,7 @@
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
-          <t>F73949</t>
+          <t>F73948</t>
         </is>
       </c>
       <c r="S6" s="3" t="inlineStr">
@@ -808,22 +1143,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="4" t="n"/>
       <c r="G7" s="5" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
       <c r="I7" s="5" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
@@ -837,7 +1169,7 @@
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
-          <t>F73948</t>
+          <t>F73947</t>
         </is>
       </c>
       <c r="S7" s="3" t="inlineStr">
@@ -847,22 +1179,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="4" t="n"/>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="L8" s="3" t="inlineStr"/>
       <c r="M8" s="3" t="inlineStr"/>
@@ -876,7 +1205,7 @@
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t>F73947</t>
+          <t>F73953</t>
         </is>
       </c>
       <c r="S8" s="3" t="inlineStr">
@@ -886,22 +1215,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="4" t="n"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" s="3" t="inlineStr"/>
       <c r="M9" s="3" t="inlineStr"/>
@@ -915,7 +1241,7 @@
       </c>
       <c r="R9" s="3" t="inlineStr">
         <is>
-          <t>F73953</t>
+          <t>F73954</t>
         </is>
       </c>
       <c r="S9" s="3" t="inlineStr">
@@ -925,22 +1251,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="4" t="n"/>
       <c r="G10" s="5" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
       <c r="I10" s="5" t="n">
-        <v>1400</v>
+        <v>14000</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>56</v>
+        <v>560</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="L10" s="3" t="inlineStr"/>
       <c r="M10" s="3" t="inlineStr"/>
@@ -954,7 +1277,7 @@
       </c>
       <c r="R10" s="3" t="inlineStr">
         <is>
-          <t>F73954</t>
+          <t>F73955</t>
         </is>
       </c>
       <c r="S10" s="3" t="inlineStr">
@@ -964,22 +1287,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="4" t="n"/>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>14000</v>
+        <v>1400</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>560</v>
+        <v>56</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="L11" s="3" t="inlineStr"/>
       <c r="M11" s="3" t="inlineStr"/>
@@ -993,7 +1313,7 @@
       </c>
       <c r="R11" s="3" t="inlineStr">
         <is>
-          <t>F73955</t>
+          <t>F73956</t>
         </is>
       </c>
       <c r="S11" s="3" t="inlineStr">
@@ -1003,22 +1323,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="4" t="n"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr"/>
@@ -1032,7 +1349,7 @@
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
-          <t>F73956</t>
+          <t>F73957</t>
         </is>
       </c>
       <c r="S12" s="3" t="inlineStr">
@@ -1042,22 +1359,19 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="4" t="n"/>
       <c r="G13" s="5" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
       <c r="I13" s="5" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3" t="inlineStr"/>
       <c r="M13" s="3" t="inlineStr"/>
@@ -1071,7 +1385,7 @@
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
-          <t>F73957</t>
+          <t>F73958</t>
         </is>
       </c>
       <c r="S13" s="3" t="inlineStr">
@@ -1081,22 +1395,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="4" t="n"/>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>15000</v>
+        <v>390</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>450</v>
+        <v>15.6</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>150</v>
+        <v>3.9</v>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
@@ -1110,7 +1421,7 @@
       </c>
       <c r="R14" s="3" t="inlineStr">
         <is>
-          <t>F73960</t>
+          <t>F73959</t>
         </is>
       </c>
       <c r="S14" s="3" t="inlineStr">
@@ -1120,22 +1431,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="4" t="n"/>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>4000</v>
+        <v>850</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>40</v>
+        <v>8.5</v>
       </c>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
@@ -1149,7 +1457,7 @@
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
-          <t>F73958</t>
+          <t>F73946</t>
         </is>
       </c>
       <c r="S15" s="3" t="inlineStr">
@@ -1159,61 +1467,73 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="n">
-        <v>390</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>F73959</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>June</t>
+      <c r="C16" s="6" t="inlineStr"/>
+      <c r="D16" s="6" t="inlineStr"/>
+      <c r="E16" s="6" t="inlineStr"/>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr"/>
+      <c r="H16" s="6" t="n">
+        <v>1014200</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>232700</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>7890.9</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>2327</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>1024417.9</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>242917.9</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>781500</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr"/>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="4" t="n"/>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
@@ -1227,7 +1547,7 @@
       </c>
       <c r="R17" s="3" t="inlineStr">
         <is>
-          <t>F73961</t>
+          <t>F73963</t>
         </is>
       </c>
       <c r="S17" s="3" t="inlineStr">
@@ -1237,22 +1557,19 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="4" t="n"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
@@ -1266,7 +1583,7 @@
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
-          <t>F73962</t>
+          <t>F73960</t>
         </is>
       </c>
       <c r="S18" s="3" t="inlineStr">
@@ -1276,22 +1593,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="4" t="n"/>
       <c r="G19" s="5" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
       <c r="I19" s="5" t="n">
-        <v>850</v>
+        <v>14000</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>8.5</v>
+        <v>140</v>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
@@ -1305,7 +1619,7 @@
       </c>
       <c r="R19" s="3" t="inlineStr">
         <is>
-          <t>F73946</t>
+          <t>F73961</t>
         </is>
       </c>
       <c r="S19" s="3" t="inlineStr">
@@ -1315,22 +1629,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="4" t="n"/>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>3560</v>
+        <v>30000</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>106.8</v>
+        <v>900</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>35.6</v>
+        <v>300</v>
       </c>
       <c r="L20" s="3" t="inlineStr"/>
       <c r="M20" s="3" t="inlineStr"/>
@@ -1344,7 +1655,7 @@
       </c>
       <c r="R20" s="3" t="inlineStr">
         <is>
-          <t>F73964</t>
+          <t>F73962</t>
         </is>
       </c>
       <c r="S20" s="3" t="inlineStr">
@@ -1354,22 +1665,19 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="4" t="n"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>20000</v>
+        <v>3560</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>600</v>
+        <v>106.8</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>200</v>
+        <v>35.6</v>
       </c>
       <c r="L21" s="3" t="inlineStr"/>
       <c r="M21" s="3" t="inlineStr"/>
@@ -1383,7 +1691,7 @@
       </c>
       <c r="R21" s="3" t="inlineStr">
         <is>
-          <t>F73965</t>
+          <t>F73964</t>
         </is>
       </c>
       <c r="S21" s="3" t="inlineStr">
@@ -1393,22 +1701,19 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="4" t="n"/>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
       <c r="I22" s="5" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3" t="inlineStr"/>
       <c r="M22" s="3" t="inlineStr"/>
@@ -1422,7 +1727,7 @@
       </c>
       <c r="R22" s="3" t="inlineStr">
         <is>
-          <t>F73966</t>
+          <t>F73965</t>
         </is>
       </c>
       <c r="S22" s="3" t="inlineStr">
@@ -1432,22 +1737,19 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="4" t="n"/>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L23" s="3" t="inlineStr"/>
       <c r="M23" s="3" t="inlineStr"/>
@@ -1461,7 +1763,7 @@
       </c>
       <c r="R23" s="3" t="inlineStr">
         <is>
-          <t>F73971</t>
+          <t>F73966</t>
         </is>
       </c>
       <c r="S23" s="3" t="inlineStr">
@@ -1471,22 +1773,19 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="4" t="n"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="L24" s="3" t="inlineStr"/>
       <c r="M24" s="3" t="inlineStr"/>
@@ -1500,7 +1799,7 @@
       </c>
       <c r="R24" s="3" t="inlineStr">
         <is>
-          <t>F73972</t>
+          <t>F73971</t>
         </is>
       </c>
       <c r="S24" s="3" t="inlineStr">
@@ -1510,22 +1809,19 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="4" t="n"/>
       <c r="G25" s="5" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
       <c r="I25" s="5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L25" s="3" t="inlineStr"/>
       <c r="M25" s="3" t="inlineStr"/>
@@ -1539,7 +1835,7 @@
       </c>
       <c r="R25" s="3" t="inlineStr">
         <is>
-          <t>F73973</t>
+          <t>F73972</t>
         </is>
       </c>
       <c r="S25" s="3" t="inlineStr">
@@ -1549,12 +1845,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="4" t="n"/>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="n">
@@ -1578,7 +1871,7 @@
       </c>
       <c r="R26" s="3" t="inlineStr">
         <is>
-          <t>F73970</t>
+          <t>F73973</t>
         </is>
       </c>
       <c r="S26" s="3" t="inlineStr">
@@ -1588,22 +1881,19 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="4" t="n"/>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>540</v>
+        <v>90</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L27" s="3" t="inlineStr"/>
       <c r="M27" s="3" t="inlineStr"/>
@@ -1617,7 +1907,7 @@
       </c>
       <c r="R27" s="3" t="inlineStr">
         <is>
-          <t>F73967</t>
+          <t>F73970</t>
         </is>
       </c>
       <c r="S27" s="3" t="inlineStr">
@@ -1627,22 +1917,19 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="4" t="n"/>
       <c r="G28" s="5" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
       <c r="I28" s="5" t="n">
-        <v>1500</v>
+        <v>18000</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>45</v>
+        <v>540</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="L28" s="3" t="inlineStr"/>
       <c r="M28" s="3" t="inlineStr"/>
@@ -1656,7 +1943,7 @@
       </c>
       <c r="R28" s="3" t="inlineStr">
         <is>
-          <t>F73968</t>
+          <t>F73967</t>
         </is>
       </c>
       <c r="S28" s="3" t="inlineStr">
@@ -1666,22 +1953,19 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="4" t="n"/>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="L29" s="3" t="inlineStr"/>
       <c r="M29" s="3" t="inlineStr"/>
@@ -1695,68 +1979,52 @@
       </c>
       <c r="R29" s="3" t="inlineStr">
         <is>
+          <t>F73968</t>
+        </is>
+      </c>
+      <c r="S29" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr"/>
+      <c r="I30" s="5" t="n">
+        <v>250</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
           <t>F73969</t>
         </is>
       </c>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr"/>
-      <c r="H30" s="6" t="n">
-        <v>1014200</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>232700</v>
-      </c>
-      <c r="J30" s="6" t="n">
-        <v>7890.9</v>
-      </c>
-      <c r="K30" s="6" t="n">
-        <v>2327</v>
-      </c>
-      <c r="L30" s="6" t="n">
-        <v>1024417.9</v>
-      </c>
-      <c r="M30" s="6" t="n">
-        <v>242917.9</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>781500</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q30" s="6" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R30" s="6" t="inlineStr"/>
-      <c r="S30" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
+      <c r="S30" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
           <t>Bleu H1</t>
@@ -1767,7 +2035,7 @@
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr"/>
@@ -1803,12 +2071,9 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="4" t="n"/>
       <c r="G32" s="5" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
       <c r="I32" s="5" t="n">
@@ -1842,12 +2107,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="4" t="n"/>
       <c r="G33" s="5" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
       <c r="I33" s="5" t="n">
@@ -1881,12 +2143,9 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="4" t="n"/>
       <c r="G34" s="5" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
       <c r="I34" s="5" t="n">
@@ -1920,12 +2179,9 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="4" t="n"/>
       <c r="G35" s="5" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
       <c r="I35" s="5" t="n">
@@ -1959,12 +2215,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="4" t="n"/>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
       <c r="I36" s="5" t="n">
@@ -1998,12 +2251,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="4" t="n"/>
       <c r="G37" s="5" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
       <c r="I37" s="5" t="n">
@@ -2037,8 +2287,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="6" t="n"/>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
@@ -2103,7 +2351,7 @@
       <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr"/>
@@ -2139,12 +2387,9 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="4" t="n"/>
       <c r="G40" s="5" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
       <c r="I40" s="5" t="n">
@@ -2178,12 +2423,9 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="3" t="n"/>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="4" t="n"/>
       <c r="G41" s="5" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
       <c r="I41" s="5" t="n">
@@ -2217,12 +2459,9 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="4" t="n"/>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
       <c r="I42" s="5" t="n">
@@ -2256,8 +2495,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="6" t="n"/>
       <c r="C43" s="6" t="inlineStr"/>
       <c r="D43" s="6" t="inlineStr"/>
       <c r="E43" s="6" t="inlineStr"/>
@@ -2307,12 +2544,9 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="6" t="n"/>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="inlineStr"/>
-      <c r="F44" s="6" t="n"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="n">
         <v>1201250</v>
@@ -2369,7 +2603,7 @@
       <c r="E45" s="3" t="inlineStr"/>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr"/>
@@ -2405,12 +2639,9 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="3" t="n"/>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="4" t="n"/>
       <c r="G46" s="5" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
       <c r="I46" s="5" t="n">
@@ -2444,12 +2675,9 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="n"/>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="4" t="n"/>
       <c r="G47" s="5" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
       <c r="I47" s="5" t="n">
@@ -2483,12 +2711,9 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="4" t="n"/>
       <c r="G48" s="5" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
       <c r="I48" s="5" t="n">
@@ -2522,12 +2747,9 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="4" t="n"/>
       <c r="G49" s="5" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
       <c r="I49" s="5" t="n">
@@ -2561,12 +2783,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="4" t="n"/>
       <c r="G50" s="5" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
       <c r="I50" s="5" t="n">
@@ -2600,12 +2819,9 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="4" t="n"/>
       <c r="G51" s="5" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
       <c r="I51" s="5" t="n">
@@ -2639,12 +2855,9 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="n"/>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="4" t="n"/>
       <c r="G52" s="5" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
       <c r="I52" s="5" t="n">
@@ -2678,12 +2891,9 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="3" t="n"/>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="4" t="n"/>
       <c r="G53" s="5" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
       <c r="I53" s="5" t="n">
@@ -2717,12 +2927,9 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="3" t="n"/>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="4" t="n"/>
       <c r="G54" s="5" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
       <c r="I54" s="5" t="n">
@@ -2756,12 +2963,9 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="3" t="n"/>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="4" t="n"/>
       <c r="G55" s="5" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
       <c r="I55" s="5" t="n">
@@ -2795,12 +2999,9 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
-      <c r="B56" s="3" t="n"/>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="4" t="n"/>
       <c r="G56" s="5" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
       <c r="I56" s="5" t="n">
@@ -2834,12 +3035,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
-      <c r="B57" s="3" t="n"/>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr"/>
-      <c r="F57" s="4" t="n"/>
       <c r="G57" s="5" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
       <c r="I57" s="5" t="n">
@@ -2873,12 +3071,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="3" t="n"/>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="4" t="n"/>
       <c r="G58" s="5" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
       <c r="I58" s="5" t="n">
@@ -2912,12 +3107,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="3" t="n"/>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="4" t="n"/>
       <c r="G59" s="5" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
       <c r="I59" s="5" t="n">
@@ -2951,12 +3143,9 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="3" t="n"/>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="4" t="n"/>
       <c r="G60" s="5" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
       <c r="I60" s="5" t="n">
@@ -2990,12 +3179,9 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="3" t="n"/>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="4" t="n"/>
       <c r="G61" s="5" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
       <c r="I61" s="5" t="n">
@@ -3029,12 +3215,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="3" t="n"/>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="4" t="n"/>
       <c r="G62" s="5" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
       <c r="I62" s="5" t="n">
@@ -3068,12 +3251,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="3" t="n"/>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="4" t="n"/>
       <c r="G63" s="5" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
       <c r="I63" s="5" t="n">
@@ -3107,12 +3287,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="3" t="n"/>
       <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="4" t="n"/>
       <c r="G64" s="5" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
       <c r="I64" s="5" t="n">
@@ -3146,12 +3323,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="3" t="n"/>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="4" t="n"/>
       <c r="G65" s="5" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
       <c r="I65" s="5" t="n">
@@ -3185,12 +3359,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="3" t="n"/>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr"/>
-      <c r="F66" s="4" t="n"/>
       <c r="G66" s="5" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
       <c r="I66" s="5" t="n">
@@ -3224,12 +3395,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n"/>
-      <c r="B67" s="3" t="n"/>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="inlineStr"/>
-      <c r="F67" s="4" t="n"/>
       <c r="G67" s="5" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
       <c r="I67" s="5" t="n">
@@ -3263,8 +3431,6 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="n"/>
-      <c r="B68" s="6" t="n"/>
       <c r="C68" s="6" t="inlineStr"/>
       <c r="D68" s="6" t="inlineStr"/>
       <c r="E68" s="6" t="inlineStr"/>
@@ -3365,8 +3531,6 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="n"/>
-      <c r="B70" s="6" t="n"/>
       <c r="C70" s="6" t="inlineStr"/>
       <c r="D70" s="6" t="inlineStr"/>
       <c r="E70" s="6" t="inlineStr"/>
@@ -3406,73 +3570,78 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="A71" s="6" t="inlineStr">
         <is>
           <t>PO00062541</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" s="6" t="inlineStr">
         <is>
           <t>Les Beiges</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr"/>
-      <c r="D71" s="3" t="inlineStr"/>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>Display &amp; VOD</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr"/>
-      <c r="H71" s="5" t="inlineStr"/>
-      <c r="I71" s="5" t="n">
-        <v>2355</v>
-      </c>
-      <c r="J71" s="5" t="n">
-        <v>82.42500000000001</v>
-      </c>
-      <c r="K71" s="5" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="L71" s="3" t="inlineStr"/>
-      <c r="M71" s="3" t="inlineStr"/>
-      <c r="N71" s="3" t="inlineStr"/>
-      <c r="O71" s="3" t="inlineStr"/>
-      <c r="P71" s="3" t="inlineStr"/>
-      <c r="Q71" s="3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R71" s="3" t="inlineStr">
-        <is>
-          <t>F73943</t>
-        </is>
-      </c>
-      <c r="S71" s="3" t="inlineStr">
-        <is>
-          <t>June</t>
+      <c r="C71" s="6" t="inlineStr"/>
+      <c r="D71" s="6" t="inlineStr"/>
+      <c r="E71" s="6" t="inlineStr"/>
+      <c r="G71" s="6" t="inlineStr"/>
+      <c r="H71" s="6" t="n">
+        <v>1201250</v>
+      </c>
+      <c r="I71" s="6" t="n">
+        <v>12600</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>1165.625</v>
+      </c>
+      <c r="K71" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="L71" s="6" t="n">
+        <v>1202541.625</v>
+      </c>
+      <c r="M71" s="6" t="n">
+        <v>13891.625</v>
+      </c>
+      <c r="N71" s="6" t="n">
+        <v>1188650</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P71" s="6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q71" s="6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R71" s="6" t="inlineStr"/>
+      <c r="S71" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="3" t="n"/>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr"/>
-      <c r="F72" s="4" t="n"/>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
       <c r="G72" s="5" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr"/>
       <c r="I72" s="5" t="n">
-        <v>3450</v>
+        <v>2355</v>
       </c>
       <c r="J72" s="5" t="n">
-        <v>310</v>
+        <v>82.42500000000001</v>
       </c>
       <c r="K72" s="5" t="n">
-        <v>34.5</v>
+        <v>23.55</v>
       </c>
       <c r="L72" s="3" t="inlineStr"/>
       <c r="M72" s="3" t="inlineStr"/>
@@ -3486,7 +3655,7 @@
       </c>
       <c r="R72" s="3" t="inlineStr">
         <is>
-          <t>F73944</t>
+          <t>F73943</t>
         </is>
       </c>
       <c r="S72" s="3" t="inlineStr">
@@ -3496,22 +3665,19 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="3" t="n"/>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr"/>
-      <c r="F73" s="4" t="n"/>
       <c r="G73" s="5" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr"/>
       <c r="I73" s="5" t="n">
-        <v>3275</v>
+        <v>3450</v>
       </c>
       <c r="J73" s="5" t="n">
-        <v>650</v>
+        <v>310</v>
       </c>
       <c r="K73" s="5" t="n">
-        <v>32.75</v>
+        <v>34.5</v>
       </c>
       <c r="L73" s="3" t="inlineStr"/>
       <c r="M73" s="3" t="inlineStr"/>
@@ -3525,7 +3691,7 @@
       </c>
       <c r="R73" s="3" t="inlineStr">
         <is>
-          <t>F73945</t>
+          <t>F73944</t>
         </is>
       </c>
       <c r="S73" s="3" t="inlineStr">
@@ -3535,22 +3701,19 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="3" t="n"/>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr"/>
-      <c r="F74" s="4" t="n"/>
       <c r="G74" s="5" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr"/>
       <c r="I74" s="5" t="n">
-        <v>1220</v>
+        <v>3275</v>
       </c>
       <c r="J74" s="5" t="n">
-        <v>42.7</v>
+        <v>650</v>
       </c>
       <c r="K74" s="5" t="n">
-        <v>12.2</v>
+        <v>32.75</v>
       </c>
       <c r="L74" s="3" t="inlineStr"/>
       <c r="M74" s="3" t="inlineStr"/>
@@ -3564,32 +3727,29 @@
       </c>
       <c r="R74" s="3" t="inlineStr">
         <is>
-          <t>F73941</t>
+          <t>F73945</t>
         </is>
       </c>
       <c r="S74" s="3" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="3" t="n"/>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr"/>
-      <c r="F75" s="4" t="n"/>
       <c r="G75" s="5" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr"/>
       <c r="I75" s="5" t="n">
-        <v>2300</v>
+        <v>1220</v>
       </c>
       <c r="J75" s="5" t="n">
-        <v>80.50000000000001</v>
+        <v>42.7</v>
       </c>
       <c r="K75" s="5" t="n">
-        <v>23</v>
+        <v>12.2</v>
       </c>
       <c r="L75" s="3" t="inlineStr"/>
       <c r="M75" s="3" t="inlineStr"/>
@@ -3603,68 +3763,52 @@
       </c>
       <c r="R75" s="3" t="inlineStr">
         <is>
+          <t>F73941</t>
+        </is>
+      </c>
+      <c r="S75" s="3" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" s="3" t="inlineStr"/>
+      <c r="D76" s="3" t="inlineStr"/>
+      <c r="E76" s="3" t="inlineStr"/>
+      <c r="G76" s="5" t="inlineStr"/>
+      <c r="H76" s="5" t="inlineStr"/>
+      <c r="I76" s="5" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J76" s="5" t="n">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="L76" s="3" t="inlineStr"/>
+      <c r="M76" s="3" t="inlineStr"/>
+      <c r="N76" s="3" t="inlineStr"/>
+      <c r="O76" s="3" t="inlineStr"/>
+      <c r="P76" s="3" t="inlineStr"/>
+      <c r="Q76" s="3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R76" s="3" t="inlineStr">
+        <is>
           <t>F73942</t>
         </is>
       </c>
-      <c r="S75" s="3" t="inlineStr">
+      <c r="S76" s="3" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="6" t="n"/>
-      <c r="B76" s="6" t="n"/>
-      <c r="C76" s="6" t="inlineStr"/>
-      <c r="D76" s="6" t="inlineStr"/>
-      <c r="E76" s="6" t="inlineStr"/>
-      <c r="F76" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="inlineStr"/>
-      <c r="H76" s="6" t="n">
-        <v>1201250</v>
-      </c>
-      <c r="I76" s="6" t="n">
-        <v>12600</v>
-      </c>
-      <c r="J76" s="6" t="n">
-        <v>1165.625</v>
-      </c>
-      <c r="K76" s="6" t="n">
-        <v>126</v>
-      </c>
-      <c r="L76" s="6" t="n">
-        <v>1202541.625</v>
-      </c>
-      <c r="M76" s="6" t="n">
-        <v>13891.625</v>
-      </c>
-      <c r="N76" s="6" t="n">
-        <v>1188650</v>
-      </c>
-      <c r="O76" s="6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P76" s="6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="Q76" s="6" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R76" s="6" t="inlineStr"/>
-      <c r="S76" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
       <c r="B77" s="3" t="inlineStr">
         <is>
           <t>Les Beiges HERO</t>
@@ -3675,7 +3819,7 @@
       <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Display &amp; VOD</t>
+          <t>Display</t>
         </is>
       </c>
       <c r="G77" s="5" t="inlineStr"/>
@@ -3711,12 +3855,9 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n"/>
-      <c r="B78" s="3" t="n"/>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr"/>
-      <c r="F78" s="4" t="n"/>
       <c r="G78" s="5" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr"/>
       <c r="I78" s="5" t="n">
@@ -3750,12 +3891,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n"/>
-      <c r="B79" s="3" t="n"/>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="inlineStr"/>
-      <c r="F79" s="4" t="n"/>
       <c r="G79" s="5" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr"/>
       <c r="I79" s="5" t="n">
@@ -3789,12 +3927,9 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n"/>
-      <c r="B80" s="3" t="n"/>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr"/>
-      <c r="F80" s="4" t="n"/>
       <c r="G80" s="5" t="inlineStr"/>
       <c r="H80" s="5" t="inlineStr"/>
       <c r="I80" s="5" t="n">
@@ -3828,12 +3963,9 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n"/>
-      <c r="B81" s="3" t="n"/>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr"/>
-      <c r="F81" s="4" t="n"/>
       <c r="G81" s="5" t="inlineStr"/>
       <c r="H81" s="5" t="inlineStr"/>
       <c r="I81" s="5" t="n">
@@ -3867,12 +3999,9 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n"/>
-      <c r="B82" s="3" t="n"/>
       <c r="C82" s="3" t="inlineStr"/>
       <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="3" t="inlineStr"/>
-      <c r="F82" s="4" t="n"/>
       <c r="G82" s="5" t="inlineStr"/>
       <c r="H82" s="5" t="inlineStr"/>
       <c r="I82" s="5" t="n">
@@ -3906,12 +4035,9 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n"/>
-      <c r="B83" s="3" t="n"/>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr"/>
-      <c r="F83" s="4" t="n"/>
       <c r="G83" s="5" t="inlineStr"/>
       <c r="H83" s="5" t="inlineStr"/>
       <c r="I83" s="5" t="n">
@@ -3945,12 +4071,9 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n"/>
-      <c r="B84" s="3" t="n"/>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="inlineStr"/>
-      <c r="F84" s="4" t="n"/>
       <c r="G84" s="5" t="inlineStr"/>
       <c r="H84" s="5" t="inlineStr"/>
       <c r="I84" s="5" t="n">
@@ -3984,12 +4107,9 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n"/>
-      <c r="B85" s="3" t="n"/>
       <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr"/>
-      <c r="F85" s="4" t="n"/>
       <c r="G85" s="5" t="inlineStr"/>
       <c r="H85" s="5" t="inlineStr"/>
       <c r="I85" s="5" t="n">
@@ -4023,12 +4143,9 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="n"/>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr"/>
-      <c r="F86" s="4" t="n"/>
       <c r="G86" s="5" t="inlineStr"/>
       <c r="H86" s="5" t="inlineStr"/>
       <c r="I86" s="5" t="n">
@@ -4062,12 +4179,9 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n"/>
-      <c r="B87" s="3" t="n"/>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr"/>
-      <c r="F87" s="4" t="n"/>
       <c r="G87" s="5" t="inlineStr"/>
       <c r="H87" s="5" t="inlineStr"/>
       <c r="I87" s="5" t="n">
@@ -4101,12 +4215,9 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="n"/>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr"/>
-      <c r="F88" s="4" t="n"/>
       <c r="G88" s="5" t="inlineStr"/>
       <c r="H88" s="5" t="inlineStr"/>
       <c r="I88" s="5" t="n">
@@ -4140,12 +4251,9 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n"/>
-      <c r="B89" s="3" t="n"/>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr"/>
-      <c r="F89" s="4" t="n"/>
       <c r="G89" s="5" t="inlineStr"/>
       <c r="H89" s="5" t="inlineStr"/>
       <c r="I89" s="5" t="n">
@@ -4179,12 +4287,9 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="n"/>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr"/>
-      <c r="F90" s="4" t="n"/>
       <c r="G90" s="5" t="inlineStr"/>
       <c r="H90" s="5" t="inlineStr"/>
       <c r="I90" s="5" t="n">
@@ -4218,12 +4323,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n"/>
-      <c r="B91" s="3" t="n"/>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="3" t="inlineStr"/>
-      <c r="F91" s="4" t="n"/>
       <c r="G91" s="5" t="inlineStr"/>
       <c r="H91" s="5" t="inlineStr"/>
       <c r="I91" s="5" t="n">
@@ -4257,12 +4359,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n"/>
-      <c r="B92" s="3" t="n"/>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="3" t="inlineStr"/>
-      <c r="F92" s="4" t="n"/>
       <c r="G92" s="5" t="inlineStr"/>
       <c r="H92" s="5" t="inlineStr"/>
       <c r="I92" s="5" t="n">
@@ -4296,12 +4395,9 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n"/>
-      <c r="B93" s="3" t="n"/>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr"/>
-      <c r="F93" s="4" t="n"/>
       <c r="G93" s="5" t="inlineStr"/>
       <c r="H93" s="5" t="inlineStr"/>
       <c r="I93" s="5" t="n">
@@ -4335,12 +4431,9 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n"/>
-      <c r="B94" s="3" t="n"/>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="inlineStr"/>
-      <c r="F94" s="4" t="n"/>
       <c r="G94" s="5" t="inlineStr"/>
       <c r="H94" s="5" t="inlineStr"/>
       <c r="I94" s="5" t="n">
@@ -4374,12 +4467,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n"/>
-      <c r="B95" s="3" t="n"/>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr"/>
-      <c r="F95" s="4" t="n"/>
       <c r="G95" s="5" t="inlineStr"/>
       <c r="H95" s="5" t="inlineStr"/>
       <c r="I95" s="5" t="n">
@@ -4413,12 +4503,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n"/>
-      <c r="B96" s="3" t="n"/>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr"/>
-      <c r="F96" s="4" t="n"/>
       <c r="G96" s="5" t="inlineStr"/>
       <c r="H96" s="5" t="inlineStr"/>
       <c r="I96" s="5" t="n">
@@ -4452,12 +4539,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n"/>
-      <c r="B97" s="3" t="n"/>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr"/>
-      <c r="F97" s="4" t="n"/>
       <c r="G97" s="5" t="inlineStr"/>
       <c r="H97" s="5" t="inlineStr"/>
       <c r="I97" s="5" t="n">
@@ -4491,12 +4575,9 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n"/>
-      <c r="B98" s="3" t="n"/>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="3" t="inlineStr"/>
-      <c r="F98" s="4" t="n"/>
       <c r="G98" s="5" t="inlineStr"/>
       <c r="H98" s="5" t="inlineStr"/>
       <c r="I98" s="5" t="n">
@@ -4530,12 +4611,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n"/>
-      <c r="B99" s="3" t="n"/>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr"/>
-      <c r="F99" s="4" t="n"/>
       <c r="G99" s="5" t="inlineStr"/>
       <c r="H99" s="5" t="inlineStr"/>
       <c r="I99" s="5" t="n">
@@ -4569,14 +4647,12 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n"/>
-      <c r="B100" s="3" t="n"/>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="G100" s="5" t="inlineStr"/>
@@ -4612,12 +4688,9 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n"/>
-      <c r="B101" s="3" t="n"/>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="3" t="inlineStr"/>
-      <c r="F101" s="4" t="n"/>
       <c r="G101" s="5" t="inlineStr"/>
       <c r="H101" s="5" t="inlineStr"/>
       <c r="I101" s="5" t="n">
@@ -4651,12 +4724,9 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n"/>
-      <c r="B102" s="3" t="n"/>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr"/>
-      <c r="F102" s="4" t="n"/>
       <c r="G102" s="5" t="inlineStr"/>
       <c r="H102" s="5" t="inlineStr"/>
       <c r="I102" s="5" t="n">
@@ -4690,12 +4760,9 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n"/>
-      <c r="B103" s="3" t="n"/>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr"/>
-      <c r="F103" s="4" t="n"/>
       <c r="G103" s="5" t="inlineStr"/>
       <c r="H103" s="5" t="inlineStr"/>
       <c r="I103" s="5" t="n">
@@ -4729,12 +4796,9 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n"/>
-      <c r="B104" s="3" t="n"/>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr"/>
-      <c r="F104" s="4" t="n"/>
       <c r="G104" s="5" t="inlineStr"/>
       <c r="H104" s="5" t="inlineStr"/>
       <c r="I104" s="5" t="n">
@@ -4768,12 +4832,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n"/>
-      <c r="B105" s="3" t="n"/>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr"/>
-      <c r="F105" s="4" t="n"/>
       <c r="G105" s="5" t="inlineStr"/>
       <c r="H105" s="5" t="inlineStr"/>
       <c r="I105" s="5" t="n">
@@ -4807,12 +4868,9 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n"/>
-      <c r="B106" s="3" t="n"/>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr"/>
-      <c r="F106" s="4" t="n"/>
       <c r="G106" s="5" t="inlineStr"/>
       <c r="H106" s="5" t="inlineStr"/>
       <c r="I106" s="5" t="n">
@@ -4846,12 +4904,9 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n"/>
-      <c r="B107" s="3" t="n"/>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr"/>
-      <c r="F107" s="4" t="n"/>
       <c r="G107" s="5" t="inlineStr"/>
       <c r="H107" s="5" t="inlineStr"/>
       <c r="I107" s="5" t="n">
@@ -4885,8 +4940,6 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="6" t="n"/>
-      <c r="B108" s="6" t="n"/>
       <c r="C108" s="6" t="inlineStr"/>
       <c r="D108" s="6" t="inlineStr"/>
       <c r="E108" s="6" t="inlineStr"/>
@@ -4951,7 +5004,7 @@
       <c r="E109" s="3" t="inlineStr"/>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="G109" s="5" t="inlineStr"/>
@@ -4987,12 +5040,9 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n"/>
-      <c r="B110" s="3" t="n"/>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr"/>
-      <c r="F110" s="4" t="n"/>
       <c r="G110" s="5" t="inlineStr"/>
       <c r="H110" s="5" t="inlineStr"/>
       <c r="I110" s="5" t="n">
@@ -5026,12 +5076,9 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n"/>
-      <c r="B111" s="3" t="n"/>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr"/>
-      <c r="F111" s="4" t="n"/>
       <c r="G111" s="5" t="inlineStr"/>
       <c r="H111" s="5" t="inlineStr"/>
       <c r="I111" s="5" t="n">
@@ -5065,12 +5112,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n"/>
-      <c r="B112" s="3" t="n"/>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="inlineStr"/>
-      <c r="F112" s="4" t="n"/>
       <c r="G112" s="5" t="inlineStr"/>
       <c r="H112" s="5" t="inlineStr"/>
       <c r="I112" s="5" t="n">
@@ -5104,12 +5148,9 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n"/>
-      <c r="B113" s="3" t="n"/>
       <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr"/>
-      <c r="F113" s="4" t="n"/>
       <c r="G113" s="5" t="inlineStr"/>
       <c r="H113" s="5" t="inlineStr"/>
       <c r="I113" s="5" t="n">
@@ -5143,12 +5184,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n"/>
-      <c r="B114" s="3" t="n"/>
       <c r="C114" s="3" t="inlineStr"/>
       <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="inlineStr"/>
-      <c r="F114" s="4" t="n"/>
       <c r="G114" s="5" t="inlineStr"/>
       <c r="H114" s="5" t="inlineStr"/>
       <c r="I114" s="5" t="n">
@@ -5182,12 +5220,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n"/>
-      <c r="B115" s="3" t="n"/>
       <c r="C115" s="3" t="inlineStr"/>
       <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="inlineStr"/>
-      <c r="F115" s="4" t="n"/>
       <c r="G115" s="5" t="inlineStr"/>
       <c r="H115" s="5" t="inlineStr"/>
       <c r="I115" s="5" t="n">
@@ -5221,12 +5256,9 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n"/>
-      <c r="B116" s="3" t="n"/>
       <c r="C116" s="3" t="inlineStr"/>
       <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="inlineStr"/>
-      <c r="F116" s="4" t="n"/>
       <c r="G116" s="5" t="inlineStr"/>
       <c r="H116" s="5" t="inlineStr"/>
       <c r="I116" s="5" t="n">
@@ -5260,12 +5292,9 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n"/>
-      <c r="B117" s="3" t="n"/>
       <c r="C117" s="3" t="inlineStr"/>
       <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="3" t="inlineStr"/>
-      <c r="F117" s="4" t="n"/>
       <c r="G117" s="5" t="inlineStr"/>
       <c r="H117" s="5" t="inlineStr"/>
       <c r="I117" s="5" t="n">
@@ -5299,12 +5328,9 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n"/>
-      <c r="B118" s="3" t="n"/>
       <c r="C118" s="3" t="inlineStr"/>
       <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="3" t="inlineStr"/>
-      <c r="F118" s="4" t="n"/>
       <c r="G118" s="5" t="inlineStr"/>
       <c r="H118" s="5" t="inlineStr"/>
       <c r="I118" s="5" t="n">
@@ -5338,12 +5364,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n"/>
-      <c r="B119" s="3" t="n"/>
       <c r="C119" s="3" t="inlineStr"/>
       <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="inlineStr"/>
-      <c r="F119" s="4" t="n"/>
       <c r="G119" s="5" t="inlineStr"/>
       <c r="H119" s="5" t="inlineStr"/>
       <c r="I119" s="5" t="n">
@@ -5377,8 +5400,6 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="n"/>
-      <c r="B120" s="6" t="n"/>
       <c r="C120" s="6" t="inlineStr"/>
       <c r="D120" s="6" t="inlineStr"/>
       <c r="E120" s="6" t="inlineStr"/>
@@ -5479,12 +5500,9 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n"/>
-      <c r="B122" s="3" t="n"/>
       <c r="C122" s="3" t="inlineStr"/>
       <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="inlineStr"/>
-      <c r="F122" s="4" t="n"/>
       <c r="G122" s="5" t="inlineStr"/>
       <c r="H122" s="5" t="inlineStr"/>
       <c r="I122" s="5" t="n">
@@ -5518,12 +5536,9 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n"/>
-      <c r="B123" s="3" t="n"/>
       <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="inlineStr"/>
-      <c r="F123" s="4" t="n"/>
       <c r="G123" s="5" t="inlineStr"/>
       <c r="H123" s="5" t="inlineStr"/>
       <c r="I123" s="5" t="n">
@@ -5557,12 +5572,9 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n"/>
-      <c r="B124" s="3" t="n"/>
       <c r="C124" s="3" t="inlineStr"/>
       <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="3" t="inlineStr"/>
-      <c r="F124" s="4" t="n"/>
       <c r="G124" s="5" t="inlineStr"/>
       <c r="H124" s="5" t="inlineStr"/>
       <c r="I124" s="5" t="n">
@@ -5596,12 +5608,9 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n"/>
-      <c r="B125" s="3" t="n"/>
       <c r="C125" s="3" t="inlineStr"/>
       <c r="D125" s="3" t="inlineStr"/>
       <c r="E125" s="3" t="inlineStr"/>
-      <c r="F125" s="4" t="n"/>
       <c r="G125" s="5" t="inlineStr"/>
       <c r="H125" s="5" t="inlineStr"/>
       <c r="I125" s="5" t="n">
@@ -5635,14 +5644,12 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n"/>
-      <c r="B126" s="3" t="n"/>
       <c r="C126" s="3" t="inlineStr"/>
       <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="G126" s="5" t="inlineStr"/>
@@ -5678,12 +5685,9 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n"/>
-      <c r="B127" s="3" t="n"/>
       <c r="C127" s="3" t="inlineStr"/>
       <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="inlineStr"/>
-      <c r="F127" s="4" t="n"/>
       <c r="G127" s="5" t="inlineStr"/>
       <c r="H127" s="5" t="inlineStr"/>
       <c r="I127" s="5" t="n">
@@ -5717,12 +5721,9 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n"/>
-      <c r="B128" s="3" t="n"/>
       <c r="C128" s="3" t="inlineStr"/>
       <c r="D128" s="3" t="inlineStr"/>
       <c r="E128" s="3" t="inlineStr"/>
-      <c r="F128" s="4" t="n"/>
       <c r="G128" s="5" t="inlineStr"/>
       <c r="H128" s="5" t="inlineStr"/>
       <c r="I128" s="5" t="n">
@@ -5756,12 +5757,9 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n"/>
-      <c r="B129" s="3" t="n"/>
       <c r="C129" s="3" t="inlineStr"/>
       <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="3" t="inlineStr"/>
-      <c r="F129" s="4" t="n"/>
       <c r="G129" s="5" t="inlineStr"/>
       <c r="H129" s="5" t="inlineStr"/>
       <c r="I129" s="5" t="n">
@@ -5795,12 +5793,9 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n"/>
-      <c r="B130" s="3" t="n"/>
       <c r="C130" s="3" t="inlineStr"/>
       <c r="D130" s="3" t="inlineStr"/>
       <c r="E130" s="3" t="inlineStr"/>
-      <c r="F130" s="4" t="n"/>
       <c r="G130" s="5" t="inlineStr"/>
       <c r="H130" s="5" t="inlineStr"/>
       <c r="I130" s="5" t="n">
@@ -5834,12 +5829,9 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n"/>
-      <c r="B131" s="3" t="n"/>
       <c r="C131" s="3" t="inlineStr"/>
       <c r="D131" s="3" t="inlineStr"/>
       <c r="E131" s="3" t="inlineStr"/>
-      <c r="F131" s="4" t="n"/>
       <c r="G131" s="5" t="inlineStr"/>
       <c r="H131" s="5" t="inlineStr"/>
       <c r="I131" s="5" t="n">
@@ -5873,12 +5865,9 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n"/>
-      <c r="B132" s="3" t="n"/>
       <c r="C132" s="3" t="inlineStr"/>
       <c r="D132" s="3" t="inlineStr"/>
       <c r="E132" s="3" t="inlineStr"/>
-      <c r="F132" s="4" t="n"/>
       <c r="G132" s="5" t="inlineStr"/>
       <c r="H132" s="5" t="inlineStr"/>
       <c r="I132" s="5" t="n">
@@ -5912,12 +5901,9 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n"/>
-      <c r="B133" s="3" t="n"/>
       <c r="C133" s="3" t="inlineStr"/>
       <c r="D133" s="3" t="inlineStr"/>
       <c r="E133" s="3" t="inlineStr"/>
-      <c r="F133" s="4" t="n"/>
       <c r="G133" s="5" t="inlineStr"/>
       <c r="H133" s="5" t="inlineStr"/>
       <c r="I133" s="5" t="n">
@@ -5951,12 +5937,9 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n"/>
-      <c r="B134" s="3" t="n"/>
       <c r="C134" s="3" t="inlineStr"/>
       <c r="D134" s="3" t="inlineStr"/>
       <c r="E134" s="3" t="inlineStr"/>
-      <c r="F134" s="4" t="n"/>
       <c r="G134" s="5" t="inlineStr"/>
       <c r="H134" s="5" t="inlineStr"/>
       <c r="I134" s="5" t="n">
@@ -5990,12 +5973,9 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n"/>
-      <c r="B135" s="3" t="n"/>
       <c r="C135" s="3" t="inlineStr"/>
       <c r="D135" s="3" t="inlineStr"/>
       <c r="E135" s="3" t="inlineStr"/>
-      <c r="F135" s="4" t="n"/>
       <c r="G135" s="5" t="inlineStr"/>
       <c r="H135" s="5" t="inlineStr"/>
       <c r="I135" s="5" t="n">
@@ -6029,12 +6009,9 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n"/>
-      <c r="B136" s="3" t="n"/>
       <c r="C136" s="3" t="inlineStr"/>
       <c r="D136" s="3" t="inlineStr"/>
       <c r="E136" s="3" t="inlineStr"/>
-      <c r="F136" s="4" t="n"/>
       <c r="G136" s="5" t="inlineStr"/>
       <c r="H136" s="5" t="inlineStr"/>
       <c r="I136" s="5" t="n">
@@ -6068,12 +6045,9 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n"/>
-      <c r="B137" s="3" t="n"/>
       <c r="C137" s="3" t="inlineStr"/>
       <c r="D137" s="3" t="inlineStr"/>
       <c r="E137" s="3" t="inlineStr"/>
-      <c r="F137" s="4" t="n"/>
       <c r="G137" s="5" t="inlineStr"/>
       <c r="H137" s="5" t="inlineStr"/>
       <c r="I137" s="5" t="n">
@@ -6107,12 +6081,9 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n"/>
-      <c r="B138" s="3" t="n"/>
       <c r="C138" s="3" t="inlineStr"/>
       <c r="D138" s="3" t="inlineStr"/>
       <c r="E138" s="3" t="inlineStr"/>
-      <c r="F138" s="4" t="n"/>
       <c r="G138" s="5" t="inlineStr"/>
       <c r="H138" s="5" t="inlineStr"/>
       <c r="I138" s="5" t="n">
@@ -6146,12 +6117,9 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n"/>
-      <c r="B139" s="3" t="n"/>
       <c r="C139" s="3" t="inlineStr"/>
       <c r="D139" s="3" t="inlineStr"/>
       <c r="E139" s="3" t="inlineStr"/>
-      <c r="F139" s="4" t="n"/>
       <c r="G139" s="5" t="inlineStr"/>
       <c r="H139" s="5" t="inlineStr"/>
       <c r="I139" s="5" t="n">
@@ -6185,12 +6153,9 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n"/>
-      <c r="B140" s="3" t="n"/>
       <c r="C140" s="3" t="inlineStr"/>
       <c r="D140" s="3" t="inlineStr"/>
       <c r="E140" s="3" t="inlineStr"/>
-      <c r="F140" s="4" t="n"/>
       <c r="G140" s="5" t="inlineStr"/>
       <c r="H140" s="5" t="inlineStr"/>
       <c r="I140" s="5" t="n">
@@ -6224,8 +6189,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="6" t="n"/>
-      <c r="B141" s="6" t="n"/>
       <c r="C141" s="6" t="inlineStr"/>
       <c r="D141" s="6" t="inlineStr"/>
       <c r="E141" s="6" t="inlineStr"/>
@@ -6275,12 +6238,9 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="n"/>
-      <c r="B142" s="6" t="n"/>
       <c r="C142" s="6" t="inlineStr"/>
       <c r="D142" s="6" t="inlineStr"/>
       <c r="E142" s="6" t="inlineStr"/>
-      <c r="F142" s="6" t="n"/>
       <c r="G142" s="6" t="inlineStr"/>
       <c r="H142" s="6" t="inlineStr"/>
       <c r="I142" s="6" t="n">
@@ -6363,8 +6323,6 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="n"/>
-      <c r="B144" s="6" t="n"/>
       <c r="C144" s="6" t="inlineStr"/>
       <c r="D144" s="6" t="inlineStr"/>
       <c r="E144" s="6" t="inlineStr"/>
@@ -6404,7 +6362,6 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n"/>
       <c r="B145" s="3" t="inlineStr">
         <is>
           <t>REGIONALOPSAPRDEC24</t>
@@ -6451,8 +6408,6 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="n"/>
-      <c r="B146" s="6" t="n"/>
       <c r="C146" s="6" t="inlineStr"/>
       <c r="D146" s="6" t="inlineStr"/>
       <c r="E146" s="6" t="inlineStr"/>
@@ -6492,15 +6447,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="46">
     <mergeCell ref="A45:A68"/>
+    <mergeCell ref="BH1:BK1"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A109:A120"/>
-    <mergeCell ref="F71:F75"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="F77:F99"/>
+    <mergeCell ref="F70:F71"/>
     <mergeCell ref="F121:F125"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="B145:B146"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="F31:F37"/>
     <mergeCell ref="B31:B38"/>
@@ -6509,22 +6469,31 @@
     <mergeCell ref="F109:F119"/>
     <mergeCell ref="B109:B120"/>
     <mergeCell ref="B69:B70"/>
+    <mergeCell ref="AV1:AY1"/>
     <mergeCell ref="B143:B144"/>
-    <mergeCell ref="F2:F29"/>
+    <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="F146"/>
     <mergeCell ref="F126:F140"/>
+    <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="B77:B108"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="F100:F107"/>
     <mergeCell ref="A121:A142"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="F2:F15"/>
     <mergeCell ref="F45:F67"/>
     <mergeCell ref="B45:B68"/>
+    <mergeCell ref="F17:F30"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="A143:A146"/>
     <mergeCell ref="B2:B30"/>
     <mergeCell ref="B121:B142"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="F72:F76"/>
     <mergeCell ref="A71:A108"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6549,7 +6518,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
@@ -6678,7 +6647,7 @@
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Display &amp; VOD</t>
+          <t>Display</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr"/>
@@ -6712,12 +6681,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="4" t="n"/>
       <c r="G3" s="5" t="inlineStr"/>
       <c r="H3" s="5" t="inlineStr"/>
       <c r="I3" s="5" t="inlineStr"/>
@@ -6749,12 +6715,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="4" t="n"/>
       <c r="G4" s="5" t="inlineStr"/>
       <c r="H4" s="5" t="inlineStr"/>
       <c r="I4" s="5" t="inlineStr"/>
@@ -6776,7 +6739,7 @@
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>F74037</t>
+          <t>F74042</t>
         </is>
       </c>
       <c r="S4" s="3" t="inlineStr">
@@ -6786,20 +6749,29 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>PO00060496</t>
+        </is>
+      </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="4" t="n"/>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Retainer Fee</t>
+        </is>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="n">
+        <v>820</v>
+      </c>
       <c r="J5" s="5" t="n">
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
@@ -6813,22 +6785,29 @@
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>F74038</t>
+          <t>F73989</t>
         </is>
       </c>
       <c r="S5" s="3" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>PO00062453</t>
+        </is>
+      </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="4" t="n"/>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
@@ -6845,12 +6824,12 @@
       <c r="P6" s="3" t="inlineStr"/>
       <c r="Q6" s="3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IRE</t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
-          <t>F74039</t>
+          <t>F74027</t>
         </is>
       </c>
       <c r="S6" s="3" t="inlineStr">
@@ -6860,12 +6839,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="4" t="n"/>
       <c r="G7" s="5" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
       <c r="I7" s="5" t="inlineStr"/>
@@ -6882,12 +6858,12 @@
       <c r="P7" s="3" t="inlineStr"/>
       <c r="Q7" s="3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IRE</t>
         </is>
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
-          <t>F74040</t>
+          <t>F74028</t>
         </is>
       </c>
       <c r="S7" s="3" t="inlineStr">
@@ -6897,12 +6873,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="4" t="n"/>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="inlineStr"/>
@@ -6919,12 +6892,12 @@
       <c r="P8" s="3" t="inlineStr"/>
       <c r="Q8" s="3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IRE</t>
         </is>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t>F74041</t>
+          <t>F74029</t>
         </is>
       </c>
       <c r="S8" s="3" t="inlineStr">
@@ -6934,102 +6907,100 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>PO00060496</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>820</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="n">
+        <v>852.8000000000001</v>
+      </c>
+      <c r="N9" s="6" t="inlineStr"/>
+      <c r="O9" s="6" t="inlineStr"/>
+      <c r="P9" s="6" t="inlineStr"/>
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr"/>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>PO00062453</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
+      <c r="E10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
-      <c r="P9" s="3" t="inlineStr"/>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>F74042</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>PO00060496</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>Retainer Fee</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="n">
-        <v>820</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
-      <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr"/>
-      <c r="P10" s="3" t="inlineStr"/>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>F73989</t>
-        </is>
-      </c>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>July</t>
+      <c r="K10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="inlineStr"/>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>IRE</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr"/>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>PO00062453</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
+          <t>PO00062739</t>
+        </is>
+      </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Video</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
@@ -7048,12 +7019,12 @@
       <c r="P11" s="3" t="inlineStr"/>
       <c r="Q11" s="3" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="R11" s="3" t="inlineStr">
         <is>
-          <t>F74027</t>
+          <t>F74037</t>
         </is>
       </c>
       <c r="S11" s="3" t="inlineStr">
@@ -7063,12 +7034,9 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="4" t="n"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
@@ -7085,12 +7053,12 @@
       <c r="P12" s="3" t="inlineStr"/>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
-          <t>F74028</t>
+          <t>F74038</t>
         </is>
       </c>
       <c r="S12" s="3" t="inlineStr">
@@ -7100,12 +7068,9 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="4" t="n"/>
       <c r="G13" s="5" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
       <c r="I13" s="5" t="inlineStr"/>
@@ -7122,12 +7087,12 @@
       <c r="P13" s="3" t="inlineStr"/>
       <c r="Q13" s="3" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
-          <t>F74029</t>
+          <t>F74039</t>
         </is>
       </c>
       <c r="S13" s="3" t="inlineStr">
@@ -7137,88 +7102,70 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>PO00060496</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="n">
-        <v>820</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="n">
-        <v>852.8000000000001</v>
-      </c>
-      <c r="N14" s="6" t="inlineStr"/>
-      <c r="O14" s="6" t="inlineStr"/>
-      <c r="P14" s="6" t="inlineStr"/>
-      <c r="Q14" s="6" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R14" s="6" t="inlineStr"/>
-      <c r="S14" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>F74040</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>PO00062453</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="n">
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="K15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6" t="inlineStr"/>
-      <c r="O15" s="6" t="inlineStr"/>
-      <c r="P15" s="6" t="inlineStr"/>
-      <c r="Q15" s="6" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="R15" s="6" t="inlineStr"/>
-      <c r="S15" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr"/>
+      <c r="P15" s="3" t="inlineStr"/>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>F74041</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
@@ -7274,8 +7221,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="6" t="n"/>
       <c r="C17" s="6" t="inlineStr"/>
       <c r="D17" s="6" t="inlineStr"/>
       <c r="E17" s="6" t="inlineStr"/>
@@ -7330,7 +7275,7 @@
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Display &amp; VOD</t>
+          <t>Display</t>
         </is>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
@@ -7366,12 +7311,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="4" t="n"/>
       <c r="G19" s="5" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
       <c r="I19" s="5" t="n">
@@ -7405,12 +7347,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="4" t="n"/>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
@@ -7444,12 +7383,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="4" t="n"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
@@ -7483,12 +7419,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="4" t="n"/>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
       <c r="I22" s="5" t="n">
@@ -7522,12 +7455,9 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="4" t="n"/>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
@@ -7561,12 +7491,9 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="4" t="n"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
@@ -7600,12 +7527,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="4" t="n"/>
       <c r="G25" s="5" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
       <c r="I25" s="5" t="n">
@@ -7639,12 +7563,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="4" t="n"/>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="n">
@@ -7678,12 +7599,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="4" t="n"/>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
@@ -7717,12 +7635,9 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="4" t="n"/>
       <c r="G28" s="5" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
       <c r="I28" s="5" t="n">
@@ -7756,12 +7671,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="4" t="n"/>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="n">
@@ -7795,12 +7707,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="4" t="n"/>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="n">
@@ -7834,12 +7743,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="4" t="n"/>
       <c r="G31" s="5" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
       <c r="I31" s="5" t="n">
@@ -7873,12 +7779,9 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="4" t="n"/>
       <c r="G32" s="5" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
       <c r="I32" s="5" t="n">
@@ -7912,12 +7815,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="4" t="n"/>
       <c r="G33" s="5" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
       <c r="I33" s="5" t="n">
@@ -7951,12 +7851,9 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="4" t="n"/>
       <c r="G34" s="5" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
       <c r="I34" s="5" t="n">
@@ -7990,12 +7887,9 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="4" t="n"/>
       <c r="G35" s="5" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
       <c r="I35" s="5" t="n">
@@ -8029,12 +7923,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="4" t="n"/>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
       <c r="I36" s="5" t="n">
@@ -8068,12 +7959,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="4" t="n"/>
       <c r="G37" s="5" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
       <c r="I37" s="5" t="n">
@@ -8107,12 +7995,9 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="4" t="n"/>
       <c r="G38" s="5" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
       <c r="I38" s="5" t="n">
@@ -8146,12 +8031,9 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="4" t="n"/>
       <c r="G39" s="5" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
       <c r="I39" s="5" t="n">
@@ -8185,12 +8067,9 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="4" t="n"/>
       <c r="G40" s="5" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
       <c r="I40" s="5" t="n">
@@ -8224,12 +8103,9 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="3" t="n"/>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="4" t="n"/>
       <c r="G41" s="5" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
       <c r="I41" s="5" t="n">
@@ -8263,22 +8139,19 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="4" t="n"/>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
       <c r="I42" s="5" t="n">
-        <v>2345</v>
+        <v>3455</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>82.075</v>
+        <v>120.925</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>23.45</v>
+        <v>34.55</v>
       </c>
       <c r="L42" s="3" t="inlineStr"/>
       <c r="M42" s="3" t="inlineStr"/>
@@ -8292,7 +8165,7 @@
       </c>
       <c r="R42" s="3" t="inlineStr">
         <is>
-          <t>F74043</t>
+          <t>F74046</t>
         </is>
       </c>
       <c r="S42" s="3" t="inlineStr">
@@ -8302,22 +8175,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="4" t="n"/>
       <c r="G43" s="5" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
       <c r="I43" s="5" t="n">
-        <v>2750</v>
+        <v>1070</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>96.25</v>
+        <v>37.45</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>27.5</v>
+        <v>10.7</v>
       </c>
       <c r="L43" s="3" t="inlineStr"/>
       <c r="M43" s="3" t="inlineStr"/>
@@ -8331,7 +8201,7 @@
       </c>
       <c r="R43" s="3" t="inlineStr">
         <is>
-          <t>F74044</t>
+          <t>F74047</t>
         </is>
       </c>
       <c r="S43" s="3" t="inlineStr">
@@ -8341,22 +8211,19 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="3" t="n"/>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="4" t="n"/>
       <c r="G44" s="5" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
       <c r="I44" s="5" t="n">
-        <v>5670</v>
+        <v>5430</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>198.45</v>
+        <v>190.05</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>56.7</v>
+        <v>54.3</v>
       </c>
       <c r="L44" s="3" t="inlineStr"/>
       <c r="M44" s="3" t="inlineStr"/>
@@ -8370,7 +8237,7 @@
       </c>
       <c r="R44" s="3" t="inlineStr">
         <is>
-          <t>F74045</t>
+          <t>F74048</t>
         </is>
       </c>
       <c r="S44" s="3" t="inlineStr">
@@ -8380,22 +8247,19 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="4" t="n"/>
       <c r="G45" s="5" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
       <c r="I45" s="5" t="n">
-        <v>3455</v>
+        <v>2390</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>120.925</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>34.55</v>
+        <v>23.9</v>
       </c>
       <c r="L45" s="3" t="inlineStr"/>
       <c r="M45" s="3" t="inlineStr"/>
@@ -8409,7 +8273,7 @@
       </c>
       <c r="R45" s="3" t="inlineStr">
         <is>
-          <t>F74046</t>
+          <t>F74049</t>
         </is>
       </c>
       <c r="S45" s="3" t="inlineStr">
@@ -8419,22 +8283,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="3" t="n"/>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="4" t="n"/>
       <c r="G46" s="5" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
       <c r="I46" s="5" t="n">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>37.45</v>
+        <v>36.75</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="L46" s="3" t="inlineStr"/>
       <c r="M46" s="3" t="inlineStr"/>
@@ -8448,7 +8309,7 @@
       </c>
       <c r="R46" s="3" t="inlineStr">
         <is>
-          <t>F74047</t>
+          <t>F74051</t>
         </is>
       </c>
       <c r="S46" s="3" t="inlineStr">
@@ -8458,22 +8319,19 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="n"/>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="4" t="n"/>
       <c r="G47" s="5" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
       <c r="I47" s="5" t="n">
-        <v>5430</v>
+        <v>3270</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>190.05</v>
+        <v>114.45</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>54.3</v>
+        <v>32.7</v>
       </c>
       <c r="L47" s="3" t="inlineStr"/>
       <c r="M47" s="3" t="inlineStr"/>
@@ -8487,7 +8345,7 @@
       </c>
       <c r="R47" s="3" t="inlineStr">
         <is>
-          <t>F74048</t>
+          <t>F74052</t>
         </is>
       </c>
       <c r="S47" s="3" t="inlineStr">
@@ -8497,22 +8355,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="4" t="n"/>
       <c r="G48" s="5" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
       <c r="I48" s="5" t="n">
-        <v>2390</v>
+        <v>5600</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>83.65000000000001</v>
+        <v>196</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>23.9</v>
+        <v>56</v>
       </c>
       <c r="L48" s="3" t="inlineStr"/>
       <c r="M48" s="3" t="inlineStr"/>
@@ -8526,7 +8381,7 @@
       </c>
       <c r="R48" s="3" t="inlineStr">
         <is>
-          <t>F74049</t>
+          <t>F74053</t>
         </is>
       </c>
       <c r="S48" s="3" t="inlineStr">
@@ -8536,22 +8391,24 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="4" t="n"/>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>Print</t>
+        </is>
+      </c>
       <c r="G49" s="5" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
       <c r="I49" s="5" t="n">
-        <v>1050</v>
+        <v>8970</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>36.75</v>
+        <v>313.95</v>
       </c>
       <c r="K49" s="5" t="n">
-        <v>10.5</v>
+        <v>89.7</v>
       </c>
       <c r="L49" s="3" t="inlineStr"/>
       <c r="M49" s="3" t="inlineStr"/>
@@ -8565,32 +8422,29 @@
       </c>
       <c r="R49" s="3" t="inlineStr">
         <is>
-          <t>F74051</t>
+          <t>F74069</t>
         </is>
       </c>
       <c r="S49" s="3" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="4" t="n"/>
       <c r="G50" s="5" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
       <c r="I50" s="5" t="n">
-        <v>3270</v>
+        <v>8865</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>114.45</v>
+        <v>310.275</v>
       </c>
       <c r="K50" s="5" t="n">
-        <v>32.7</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="L50" s="3" t="inlineStr"/>
       <c r="M50" s="3" t="inlineStr"/>
@@ -8604,32 +8458,29 @@
       </c>
       <c r="R50" s="3" t="inlineStr">
         <is>
-          <t>F74052</t>
+          <t>F74070</t>
         </is>
       </c>
       <c r="S50" s="3" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="4" t="n"/>
       <c r="G51" s="5" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
       <c r="I51" s="5" t="n">
-        <v>5600</v>
+        <v>6654</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>196</v>
+        <v>232.89</v>
       </c>
       <c r="K51" s="5" t="n">
-        <v>56</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="L51" s="3" t="inlineStr"/>
       <c r="M51" s="3" t="inlineStr"/>
@@ -8643,36 +8494,29 @@
       </c>
       <c r="R51" s="3" t="inlineStr">
         <is>
-          <t>F74053</t>
+          <t>F74071</t>
         </is>
       </c>
       <c r="S51" s="3" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="n"/>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>Print</t>
-        </is>
-      </c>
       <c r="G52" s="5" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
       <c r="I52" s="5" t="n">
-        <v>8970</v>
+        <v>6660</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>313.95</v>
+        <v>233.1</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>89.7</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="L52" s="3" t="inlineStr"/>
       <c r="M52" s="3" t="inlineStr"/>
@@ -8686,7 +8530,7 @@
       </c>
       <c r="R52" s="3" t="inlineStr">
         <is>
-          <t>F74069</t>
+          <t>F74072</t>
         </is>
       </c>
       <c r="S52" s="3" t="inlineStr">
@@ -8696,22 +8540,19 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="3" t="n"/>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="4" t="n"/>
       <c r="G53" s="5" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
       <c r="I53" s="5" t="n">
-        <v>8865</v>
+        <v>7120</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>310.275</v>
+        <v>249.2</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>88.65000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="L53" s="3" t="inlineStr"/>
       <c r="M53" s="3" t="inlineStr"/>
@@ -8725,7 +8566,7 @@
       </c>
       <c r="R53" s="3" t="inlineStr">
         <is>
-          <t>F74070</t>
+          <t>F74073</t>
         </is>
       </c>
       <c r="S53" s="3" t="inlineStr">
@@ -8735,22 +8576,24 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="3" t="n"/>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="4" t="n"/>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
       <c r="G54" s="5" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
       <c r="I54" s="5" t="n">
-        <v>6654</v>
+        <v>4550</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>232.89</v>
+        <v>159.25</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>66.54000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="L54" s="3" t="inlineStr"/>
       <c r="M54" s="3" t="inlineStr"/>
@@ -8764,7 +8607,7 @@
       </c>
       <c r="R54" s="3" t="inlineStr">
         <is>
-          <t>F74071</t>
+          <t>F74065</t>
         </is>
       </c>
       <c r="S54" s="3" t="inlineStr">
@@ -8774,22 +8617,19 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="3" t="n"/>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="4" t="n"/>
       <c r="G55" s="5" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
       <c r="I55" s="5" t="n">
-        <v>6660</v>
+        <v>7345</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>233.1</v>
+        <v>257.075</v>
       </c>
       <c r="K55" s="5" t="n">
-        <v>66.59999999999999</v>
+        <v>73.45</v>
       </c>
       <c r="L55" s="3" t="inlineStr"/>
       <c r="M55" s="3" t="inlineStr"/>
@@ -8803,7 +8643,7 @@
       </c>
       <c r="R55" s="3" t="inlineStr">
         <is>
-          <t>F74072</t>
+          <t>F74066</t>
         </is>
       </c>
       <c r="S55" s="3" t="inlineStr">
@@ -8813,22 +8653,19 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
-      <c r="B56" s="3" t="n"/>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="4" t="n"/>
       <c r="G56" s="5" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
       <c r="I56" s="5" t="n">
-        <v>7120</v>
+        <v>5455</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>249.2</v>
+        <v>190.925</v>
       </c>
       <c r="K56" s="5" t="n">
-        <v>71.2</v>
+        <v>54.55</v>
       </c>
       <c r="L56" s="3" t="inlineStr"/>
       <c r="M56" s="3" t="inlineStr"/>
@@ -8842,7 +8679,7 @@
       </c>
       <c r="R56" s="3" t="inlineStr">
         <is>
-          <t>F74073</t>
+          <t>F74067</t>
         </is>
       </c>
       <c r="S56" s="3" t="inlineStr">
@@ -8852,26 +8689,19 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
-      <c r="B57" s="3" t="n"/>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>Social &amp; PPC</t>
-        </is>
-      </c>
       <c r="G57" s="5" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
       <c r="I57" s="5" t="n">
-        <v>4550</v>
+        <v>4350</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>159.25</v>
+        <v>152.25</v>
       </c>
       <c r="K57" s="5" t="n">
-        <v>45.5</v>
+        <v>43.5</v>
       </c>
       <c r="L57" s="3" t="inlineStr"/>
       <c r="M57" s="3" t="inlineStr"/>
@@ -8885,7 +8715,7 @@
       </c>
       <c r="R57" s="3" t="inlineStr">
         <is>
-          <t>F74065</t>
+          <t>F74068</t>
         </is>
       </c>
       <c r="S57" s="3" t="inlineStr">
@@ -8895,22 +8725,19 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="3" t="n"/>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="4" t="n"/>
       <c r="G58" s="5" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
       <c r="I58" s="5" t="n">
-        <v>7345</v>
+        <v>6770</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>257.075</v>
+        <v>236.95</v>
       </c>
       <c r="K58" s="5" t="n">
-        <v>73.45</v>
+        <v>67.7</v>
       </c>
       <c r="L58" s="3" t="inlineStr"/>
       <c r="M58" s="3" t="inlineStr"/>
@@ -8924,32 +8751,29 @@
       </c>
       <c r="R58" s="3" t="inlineStr">
         <is>
-          <t>F74066</t>
+          <t>F74030</t>
         </is>
       </c>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="3" t="n"/>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="4" t="n"/>
       <c r="G59" s="5" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
       <c r="I59" s="5" t="n">
-        <v>5455</v>
+        <v>1575</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>190.925</v>
+        <v>55.12500000000001</v>
       </c>
       <c r="K59" s="5" t="n">
-        <v>54.55</v>
+        <v>15.75</v>
       </c>
       <c r="L59" s="3" t="inlineStr"/>
       <c r="M59" s="3" t="inlineStr"/>
@@ -8963,32 +8787,29 @@
       </c>
       <c r="R59" s="3" t="inlineStr">
         <is>
-          <t>F74067</t>
+          <t>F74031</t>
         </is>
       </c>
       <c r="S59" s="3" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="3" t="n"/>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="4" t="n"/>
       <c r="G60" s="5" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
       <c r="I60" s="5" t="n">
-        <v>4350</v>
+        <v>6770</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>152.25</v>
+        <v>236.95</v>
       </c>
       <c r="K60" s="5" t="n">
-        <v>43.5</v>
+        <v>67.7</v>
       </c>
       <c r="L60" s="3" t="inlineStr"/>
       <c r="M60" s="3" t="inlineStr"/>
@@ -9002,22 +8823,19 @@
       </c>
       <c r="R60" s="3" t="inlineStr">
         <is>
-          <t>F74068</t>
+          <t>F74032</t>
         </is>
       </c>
       <c r="S60" s="3" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="3" t="n"/>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="4" t="n"/>
       <c r="G61" s="5" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
       <c r="I61" s="5" t="n">
@@ -9041,7 +8859,7 @@
       </c>
       <c r="R61" s="3" t="inlineStr">
         <is>
-          <t>F74030</t>
+          <t>F74033</t>
         </is>
       </c>
       <c r="S61" s="3" t="inlineStr">
@@ -9051,22 +8869,19 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="3" t="n"/>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="4" t="n"/>
       <c r="G62" s="5" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
       <c r="I62" s="5" t="n">
-        <v>1575</v>
+        <v>6770</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>55.12500000000001</v>
+        <v>236.95</v>
       </c>
       <c r="K62" s="5" t="n">
-        <v>15.75</v>
+        <v>67.7</v>
       </c>
       <c r="L62" s="3" t="inlineStr"/>
       <c r="M62" s="3" t="inlineStr"/>
@@ -9080,7 +8895,7 @@
       </c>
       <c r="R62" s="3" t="inlineStr">
         <is>
-          <t>F74031</t>
+          <t>F74034</t>
         </is>
       </c>
       <c r="S62" s="3" t="inlineStr">
@@ -9090,61 +8905,73 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="3" t="n"/>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="4" t="n"/>
-      <c r="G63" s="5" t="inlineStr"/>
-      <c r="H63" s="5" t="inlineStr"/>
-      <c r="I63" s="5" t="n">
-        <v>6770</v>
-      </c>
-      <c r="J63" s="5" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="L63" s="3" t="inlineStr"/>
-      <c r="M63" s="3" t="inlineStr"/>
-      <c r="N63" s="3" t="inlineStr"/>
-      <c r="O63" s="3" t="inlineStr"/>
-      <c r="P63" s="3" t="inlineStr"/>
-      <c r="Q63" s="3" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R63" s="3" t="inlineStr">
-        <is>
-          <t>F74032</t>
-        </is>
-      </c>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>June</t>
+      <c r="C63" s="6" t="inlineStr"/>
+      <c r="D63" s="6" t="inlineStr"/>
+      <c r="E63" s="6" t="inlineStr"/>
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G63" s="6" t="inlineStr"/>
+      <c r="H63" s="6" t="n">
+        <v>3000400</v>
+      </c>
+      <c r="I63" s="6" t="n">
+        <v>225544</v>
+      </c>
+      <c r="J63" s="6" t="n">
+        <v>7894.040000000001</v>
+      </c>
+      <c r="K63" s="6" t="n">
+        <v>2255.44</v>
+      </c>
+      <c r="L63" s="6" t="n">
+        <v>3010549.48</v>
+      </c>
+      <c r="M63" s="6" t="n">
+        <v>235693.48</v>
+      </c>
+      <c r="N63" s="6" t="n">
+        <v>2774856</v>
+      </c>
+      <c r="O63" s="6" t="n">
+        <v>2552000</v>
+      </c>
+      <c r="P63" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q63" s="6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R63" s="6" t="inlineStr"/>
+      <c r="S63" s="6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="3" t="n"/>
       <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="4" t="n"/>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
       <c r="G64" s="5" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
       <c r="I64" s="5" t="n">
-        <v>6770</v>
+        <v>2345</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>236.95</v>
+        <v>82.075</v>
       </c>
       <c r="K64" s="5" t="n">
-        <v>67.7</v>
+        <v>23.45</v>
       </c>
       <c r="L64" s="3" t="inlineStr"/>
       <c r="M64" s="3" t="inlineStr"/>
@@ -9158,7 +8985,7 @@
       </c>
       <c r="R64" s="3" t="inlineStr">
         <is>
-          <t>F74033</t>
+          <t>F74043</t>
         </is>
       </c>
       <c r="S64" s="3" t="inlineStr">
@@ -9168,22 +8995,19 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="3" t="n"/>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="4" t="n"/>
       <c r="G65" s="5" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
       <c r="I65" s="5" t="n">
-        <v>6770</v>
+        <v>2750</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>236.95</v>
+        <v>96.25</v>
       </c>
       <c r="K65" s="5" t="n">
-        <v>67.7</v>
+        <v>27.5</v>
       </c>
       <c r="L65" s="3" t="inlineStr"/>
       <c r="M65" s="3" t="inlineStr"/>
@@ -9197,7 +9021,7 @@
       </c>
       <c r="R65" s="3" t="inlineStr">
         <is>
-          <t>F74034</t>
+          <t>F74044</t>
         </is>
       </c>
       <c r="S65" s="3" t="inlineStr">
@@ -9207,58 +9031,42 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="inlineStr"/>
-      <c r="D66" s="6" t="inlineStr"/>
-      <c r="E66" s="6" t="inlineStr"/>
-      <c r="F66" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="inlineStr"/>
-      <c r="H66" s="6" t="n">
-        <v>3000400</v>
-      </c>
-      <c r="I66" s="6" t="n">
-        <v>225544</v>
-      </c>
-      <c r="J66" s="6" t="n">
-        <v>7894.040000000001</v>
-      </c>
-      <c r="K66" s="6" t="n">
-        <v>2255.44</v>
-      </c>
-      <c r="L66" s="6" t="n">
-        <v>3010549.48</v>
-      </c>
-      <c r="M66" s="6" t="n">
-        <v>235693.48</v>
-      </c>
-      <c r="N66" s="6" t="n">
-        <v>2774856</v>
-      </c>
-      <c r="O66" s="6" t="n">
-        <v>2552000</v>
-      </c>
-      <c r="P66" s="6" t="n">
-        <v>400</v>
-      </c>
-      <c r="Q66" s="6" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="R66" s="6" t="inlineStr"/>
-      <c r="S66" s="6" t="inlineStr">
-        <is>
-          <t>Total</t>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr"/>
+      <c r="E66" s="3" t="inlineStr"/>
+      <c r="G66" s="5" t="inlineStr"/>
+      <c r="H66" s="5" t="inlineStr"/>
+      <c r="I66" s="5" t="n">
+        <v>5670</v>
+      </c>
+      <c r="J66" s="5" t="n">
+        <v>198.45</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="L66" s="3" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr"/>
+      <c r="Q66" s="3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R66" s="3" t="inlineStr">
+        <is>
+          <t>F74045</t>
+        </is>
+      </c>
+      <c r="S66" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n"/>
       <c r="B67" s="3" t="inlineStr">
         <is>
           <t>T3LIGHTBOXLTH20242025</t>
@@ -9303,12 +9111,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n"/>
-      <c r="B68" s="3" t="n"/>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="4" t="n"/>
       <c r="G68" s="5" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
       <c r="I68" s="5" t="inlineStr"/>
@@ -9340,8 +9145,6 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="n"/>
-      <c r="B69" s="6" t="n"/>
       <c r="C69" s="6" t="inlineStr"/>
       <c r="D69" s="6" t="inlineStr"/>
       <c r="E69" s="6" t="inlineStr"/>
@@ -9391,23 +9194,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F18:F48"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="F69"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="F54:F62"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A69"/>
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B18:B66"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="F69"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A18:A69"/>
-    <mergeCell ref="F18:F51"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9432,7 +9238,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
@@ -9597,8 +9403,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="n"/>
       <c r="C3" s="6" t="inlineStr"/>
       <c r="D3" s="6" t="inlineStr"/>
       <c r="E3" s="6" t="inlineStr"/>
@@ -9663,7 +9467,7 @@
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Social &amp; PPC</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr"/>
@@ -9699,12 +9503,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="4" t="n"/>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
@@ -9738,12 +9539,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="4" t="n"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
@@ -9777,12 +9575,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="4" t="n"/>
       <c r="G7" s="5" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
       <c r="I7" s="5" t="n">
@@ -9816,12 +9611,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="4" t="n"/>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
@@ -9855,12 +9647,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="4" t="n"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
@@ -9894,12 +9683,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="4" t="n"/>
       <c r="G10" s="5" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
       <c r="I10" s="5" t="n">
@@ -9933,12 +9719,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="4" t="n"/>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
@@ -9972,8 +9755,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
-      <c r="B12" s="6" t="n"/>
       <c r="C12" s="6" t="inlineStr"/>
       <c r="D12" s="6" t="inlineStr"/>
       <c r="E12" s="6" t="inlineStr"/>
@@ -10074,8 +9855,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
-      <c r="B14" s="6" t="n"/>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
@@ -10130,7 +9909,7 @@
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Display &amp; VOD</t>
+          <t>Display</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
@@ -10166,12 +9945,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="4" t="n"/>
       <c r="G16" s="5" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
       <c r="I16" s="5" t="n">
@@ -10205,12 +9981,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="4" t="n"/>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
@@ -10244,12 +10017,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="4" t="n"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
@@ -10283,12 +10053,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="4" t="n"/>
       <c r="G19" s="5" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
       <c r="I19" s="5" t="n">
@@ -10322,12 +10089,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="4" t="n"/>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
@@ -10361,12 +10125,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="4" t="n"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
@@ -10400,12 +10161,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="4" t="n"/>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
       <c r="I22" s="5" t="n">
@@ -10439,12 +10197,9 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="4" t="n"/>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
@@ -10478,12 +10233,9 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="4" t="n"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
@@ -10517,12 +10269,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="4" t="n"/>
       <c r="G25" s="5" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
       <c r="I25" s="5" t="n">
@@ -10556,12 +10305,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="4" t="n"/>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="n">
@@ -10595,12 +10341,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="4" t="n"/>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
@@ -10634,12 +10377,9 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="4" t="n"/>
       <c r="G28" s="5" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
       <c r="I28" s="5" t="n">
@@ -10673,12 +10413,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="4" t="n"/>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="n">
@@ -10712,12 +10449,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="4" t="n"/>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="n">
@@ -10751,12 +10485,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="4" t="n"/>
       <c r="G31" s="5" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
       <c r="I31" s="5" t="n">
@@ -10790,12 +10521,9 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="4" t="n"/>
       <c r="G32" s="5" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
       <c r="I32" s="5" t="n">
@@ -10829,12 +10557,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="4" t="n"/>
       <c r="G33" s="5" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
       <c r="I33" s="5" t="n">
@@ -10868,12 +10593,9 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="4" t="n"/>
       <c r="G34" s="5" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
       <c r="I34" s="5" t="n">
@@ -10907,12 +10629,9 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="4" t="n"/>
       <c r="G35" s="5" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
       <c r="I35" s="5" t="n">
@@ -10946,12 +10665,9 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="4" t="n"/>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
       <c r="I36" s="5" t="n">
@@ -10985,12 +10701,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="4" t="n"/>
       <c r="G37" s="5" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
       <c r="I37" s="5" t="n">
@@ -11024,12 +10737,9 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="4" t="n"/>
       <c r="G38" s="5" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
       <c r="I38" s="5" t="n">
@@ -11063,12 +10773,9 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="4" t="n"/>
       <c r="G39" s="5" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
       <c r="I39" s="5" t="n">
@@ -11102,8 +10809,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="6" t="n"/>
       <c r="C40" s="6" t="inlineStr"/>
       <c r="D40" s="6" t="inlineStr"/>
       <c r="E40" s="6" t="inlineStr"/>
@@ -11204,8 +10909,6 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="6" t="n"/>
       <c r="C42" s="6" t="inlineStr"/>
       <c r="D42" s="6" t="inlineStr"/>
       <c r="E42" s="6" t="inlineStr"/>
@@ -11246,9 +10949,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>

--- a/backend/data_engineering/FormattedAnnualBudget.xlsx
+++ b/backend/data_engineering/FormattedAnnualBudget.xlsx
@@ -1491,13 +1491,13 @@
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="G25"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="C22:C25"/>
@@ -2560,8 +2560,8 @@
     <mergeCell ref="G9"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="F9"/>
@@ -2583,7 +2583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO147"/>
+  <dimension ref="A1:BO143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8854,10 +8854,18 @@
       <c r="Y75" s="11" t="n"/>
       <c r="Z75" s="11" t="n"/>
       <c r="AA75" s="11" t="n"/>
-      <c r="AB75" s="11" t="n"/>
-      <c r="AC75" s="11" t="n"/>
-      <c r="AD75" s="11" t="n"/>
-      <c r="AE75" s="11" t="n"/>
+      <c r="AB75" s="11" t="n">
+        <v>5520</v>
+      </c>
+      <c r="AC75" s="11" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="AD75" s="11" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="AE75" s="11" t="n">
+        <v>5768.4</v>
+      </c>
       <c r="AF75" s="11" t="n"/>
       <c r="AG75" s="11" t="n">
         <v>66015</v>
@@ -8904,102 +8912,106 @@
       <c r="BO75" s="11" t="n"/>
     </row>
     <row r="76">
-      <c r="E76" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H76" s="11" t="n"/>
-      <c r="I76" s="11" t="n"/>
-      <c r="J76" s="11" t="n"/>
-      <c r="K76" s="11" t="n"/>
-      <c r="L76" s="11" t="n"/>
-      <c r="M76" s="11" t="n"/>
-      <c r="N76" s="11" t="n"/>
-      <c r="O76" s="11" t="n"/>
-      <c r="P76" s="11" t="n"/>
-      <c r="Q76" s="11" t="n"/>
-      <c r="R76" s="11" t="n"/>
-      <c r="S76" s="11" t="n"/>
-      <c r="T76" s="11" t="n"/>
-      <c r="U76" s="11" t="n"/>
-      <c r="V76" s="11" t="n"/>
-      <c r="W76" s="11" t="n"/>
-      <c r="X76" s="11" t="n"/>
-      <c r="Y76" s="11" t="n"/>
-      <c r="Z76" s="11" t="n"/>
-      <c r="AA76" s="11" t="n"/>
-      <c r="AB76" s="11" t="n">
-        <v>5520</v>
-      </c>
-      <c r="AC76" s="11" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="AD76" s="11" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="AE76" s="11" t="n">
-        <v>5768.4</v>
-      </c>
-      <c r="AF76" s="11" t="n"/>
-      <c r="AG76" s="11" t="n"/>
-      <c r="AH76" s="11" t="n"/>
-      <c r="AI76" s="11" t="n"/>
-      <c r="AJ76" s="11" t="n"/>
-      <c r="AK76" s="11" t="n"/>
-      <c r="AL76" s="11" t="n"/>
-      <c r="AM76" s="11" t="n"/>
-      <c r="AN76" s="11" t="n"/>
-      <c r="AO76" s="11" t="n"/>
-      <c r="AP76" s="11" t="n"/>
-      <c r="AQ76" s="11" t="n"/>
-      <c r="AR76" s="11" t="n"/>
-      <c r="AS76" s="11" t="n"/>
-      <c r="AT76" s="11" t="n"/>
-      <c r="AU76" s="11" t="n"/>
-      <c r="AV76" s="11" t="n"/>
-      <c r="AW76" s="11" t="n"/>
-      <c r="AX76" s="11" t="n"/>
-      <c r="AY76" s="11" t="n"/>
-      <c r="AZ76" s="11" t="n"/>
-      <c r="BA76" s="11" t="n"/>
-      <c r="BB76" s="11" t="n"/>
-      <c r="BC76" s="11" t="n"/>
-      <c r="BD76" s="11" t="n"/>
-      <c r="BE76" s="11" t="n"/>
-      <c r="BF76" s="11" t="n"/>
-      <c r="BG76" s="11" t="n"/>
-      <c r="BH76" s="11" t="n"/>
-      <c r="BI76" s="11" t="n"/>
-      <c r="BJ76" s="11" t="n"/>
-      <c r="BK76" s="11" t="n"/>
-      <c r="BL76" s="11" t="n"/>
-      <c r="BM76" s="11" t="n"/>
-      <c r="BN76" s="11" t="n"/>
-      <c r="BO76" s="11" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>PO00062544</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="n"/>
+      <c r="C76" s="5" t="n"/>
+      <c r="D76" s="6" t="n"/>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>C50/07</t>
+        </is>
+      </c>
+      <c r="G76" s="7" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H76" s="8" t="n"/>
+      <c r="I76" s="8" t="n"/>
+      <c r="J76" s="8" t="n"/>
+      <c r="K76" s="9" t="n"/>
+      <c r="L76" s="8" t="n"/>
+      <c r="M76" s="8" t="n"/>
+      <c r="N76" s="8" t="n"/>
+      <c r="O76" s="8" t="n"/>
+      <c r="P76" s="9" t="n"/>
+      <c r="Q76" s="8" t="n"/>
+      <c r="R76" s="8" t="n"/>
+      <c r="S76" s="8" t="n"/>
+      <c r="T76" s="8" t="n"/>
+      <c r="U76" s="9" t="n"/>
+      <c r="V76" s="8" t="n"/>
+      <c r="W76" s="8" t="n"/>
+      <c r="X76" s="8" t="n"/>
+      <c r="Y76" s="8" t="n"/>
+      <c r="Z76" s="9" t="n"/>
+      <c r="AA76" s="8" t="n"/>
+      <c r="AB76" s="8" t="n"/>
+      <c r="AC76" s="8" t="n"/>
+      <c r="AD76" s="8" t="n"/>
+      <c r="AE76" s="9" t="n"/>
+      <c r="AF76" s="8" t="n"/>
+      <c r="AG76" s="8" t="n"/>
+      <c r="AH76" s="8" t="n"/>
+      <c r="AI76" s="8" t="n"/>
+      <c r="AJ76" s="9" t="n"/>
+      <c r="AK76" s="8" t="n"/>
+      <c r="AL76" s="8" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM76" s="8" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="AN76" s="8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO76" s="9" t="n">
+        <v>449.35</v>
+      </c>
+      <c r="AP76" s="8" t="inlineStr">
+        <is>
+          <t>F73901</t>
+        </is>
+      </c>
+      <c r="AQ76" s="8" t="n"/>
+      <c r="AR76" s="8" t="n"/>
+      <c r="AS76" s="8" t="n"/>
+      <c r="AT76" s="9" t="n"/>
+      <c r="AU76" s="8" t="n"/>
+      <c r="AV76" s="8" t="n"/>
+      <c r="AW76" s="8" t="n"/>
+      <c r="AX76" s="8" t="n"/>
+      <c r="AY76" s="9" t="n"/>
+      <c r="AZ76" s="8" t="n"/>
+      <c r="BA76" s="8" t="n"/>
+      <c r="BB76" s="8" t="n"/>
+      <c r="BC76" s="8" t="n"/>
+      <c r="BD76" s="9" t="n"/>
+      <c r="BE76" s="8" t="n"/>
+      <c r="BF76" s="8" t="n"/>
+      <c r="BG76" s="8" t="n"/>
+      <c r="BH76" s="8" t="n"/>
+      <c r="BI76" s="9" t="n"/>
+      <c r="BJ76" s="8" t="n"/>
+      <c r="BK76" s="8" t="n"/>
+      <c r="BL76" s="8" t="n"/>
+      <c r="BM76" s="8" t="n"/>
+      <c r="BN76" s="9" t="n"/>
+      <c r="BO76" s="8" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>PO00062544</t>
-        </is>
-      </c>
-      <c r="B77" s="5" t="n"/>
-      <c r="C77" s="5" t="n"/>
-      <c r="D77" s="6" t="n"/>
       <c r="E77" s="2" t="inlineStr">
         <is>
           <t>UK</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>C50/07</t>
-        </is>
-      </c>
-      <c r="G77" s="7" t="inlineStr">
-        <is>
-          <t>Social</t>
         </is>
       </c>
       <c r="H77" s="8" t="n"/>
@@ -9027,28 +9039,28 @@
       <c r="AD77" s="8" t="n"/>
       <c r="AE77" s="9" t="n"/>
       <c r="AF77" s="8" t="n"/>
-      <c r="AG77" s="8" t="n"/>
-      <c r="AH77" s="8" t="n"/>
-      <c r="AI77" s="8" t="n"/>
-      <c r="AJ77" s="9" t="n"/>
-      <c r="AK77" s="8" t="n"/>
-      <c r="AL77" s="8" t="n">
-        <v>430</v>
-      </c>
-      <c r="AM77" s="8" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="AN77" s="8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO77" s="9" t="n">
-        <v>449.35</v>
-      </c>
-      <c r="AP77" s="8" t="inlineStr">
-        <is>
-          <t>F73901</t>
-        </is>
-      </c>
+      <c r="AG77" s="8" t="n">
+        <v>10900</v>
+      </c>
+      <c r="AH77" s="8" t="n">
+        <v>381.5000000000001</v>
+      </c>
+      <c r="AI77" s="8" t="n">
+        <v>109</v>
+      </c>
+      <c r="AJ77" s="9" t="n">
+        <v>11390.5</v>
+      </c>
+      <c r="AK77" s="8" t="inlineStr">
+        <is>
+          <t>F73899</t>
+        </is>
+      </c>
+      <c r="AL77" s="8" t="n"/>
+      <c r="AM77" s="8" t="n"/>
+      <c r="AN77" s="8" t="n"/>
+      <c r="AO77" s="9" t="n"/>
+      <c r="AP77" s="8" t="n"/>
       <c r="AQ77" s="8" t="n"/>
       <c r="AR77" s="8" t="n"/>
       <c r="AS77" s="8" t="n"/>
@@ -9107,20 +9119,20 @@
       <c r="AE78" s="9" t="n"/>
       <c r="AF78" s="8" t="n"/>
       <c r="AG78" s="8" t="n">
-        <v>10900</v>
+        <v>3360</v>
       </c>
       <c r="AH78" s="8" t="n">
-        <v>381.5000000000001</v>
+        <v>117.6</v>
       </c>
       <c r="AI78" s="8" t="n">
-        <v>109</v>
+        <v>33.6</v>
       </c>
       <c r="AJ78" s="9" t="n">
-        <v>11390.5</v>
+        <v>3511.2</v>
       </c>
       <c r="AK78" s="8" t="inlineStr">
         <is>
-          <t>F73899</t>
+          <t>F73900</t>
         </is>
       </c>
       <c r="AL78" s="8" t="n"/>
@@ -9157,7 +9169,7 @@
     <row r="79">
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IRE</t>
         </is>
       </c>
       <c r="H79" s="8" t="n"/>
@@ -9180,28 +9192,28 @@
       <c r="Y79" s="8" t="n"/>
       <c r="Z79" s="9" t="n"/>
       <c r="AA79" s="8" t="n"/>
-      <c r="AB79" s="8" t="n"/>
-      <c r="AC79" s="8" t="n"/>
-      <c r="AD79" s="8" t="n"/>
-      <c r="AE79" s="9" t="n"/>
-      <c r="AF79" s="8" t="n"/>
-      <c r="AG79" s="8" t="n">
-        <v>3360</v>
-      </c>
-      <c r="AH79" s="8" t="n">
-        <v>117.6</v>
-      </c>
-      <c r="AI79" s="8" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="AJ79" s="9" t="n">
-        <v>3511.2</v>
-      </c>
-      <c r="AK79" s="8" t="inlineStr">
-        <is>
-          <t>F73900</t>
-        </is>
-      </c>
+      <c r="AB79" s="8" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AC79" s="8" t="n">
+        <v>245</v>
+      </c>
+      <c r="AD79" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE79" s="9" t="n">
+        <v>7315</v>
+      </c>
+      <c r="AF79" s="8" t="inlineStr">
+        <is>
+          <t>F73885</t>
+        </is>
+      </c>
+      <c r="AG79" s="8" t="n"/>
+      <c r="AH79" s="8" t="n"/>
+      <c r="AI79" s="8" t="n"/>
+      <c r="AJ79" s="9" t="n"/>
+      <c r="AK79" s="8" t="n"/>
       <c r="AL79" s="8" t="n"/>
       <c r="AM79" s="8" t="n"/>
       <c r="AN79" s="8" t="n"/>
@@ -9234,94 +9246,98 @@
       <c r="BO79" s="8" t="n"/>
     </row>
     <row r="80">
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="H80" s="8" t="n"/>
-      <c r="I80" s="8" t="n"/>
-      <c r="J80" s="8" t="n"/>
-      <c r="K80" s="9" t="n"/>
-      <c r="L80" s="8" t="n"/>
-      <c r="M80" s="8" t="n"/>
-      <c r="N80" s="8" t="n"/>
-      <c r="O80" s="8" t="n"/>
-      <c r="P80" s="9" t="n"/>
-      <c r="Q80" s="8" t="n"/>
-      <c r="R80" s="8" t="n"/>
-      <c r="S80" s="8" t="n"/>
-      <c r="T80" s="8" t="n"/>
-      <c r="U80" s="9" t="n"/>
-      <c r="V80" s="8" t="n"/>
-      <c r="W80" s="8" t="n"/>
-      <c r="X80" s="8" t="n"/>
-      <c r="Y80" s="8" t="n"/>
-      <c r="Z80" s="9" t="n"/>
-      <c r="AA80" s="8" t="n"/>
-      <c r="AB80" s="8" t="n">
-        <v>7000</v>
-      </c>
-      <c r="AC80" s="8" t="n">
-        <v>245</v>
-      </c>
-      <c r="AD80" s="8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE80" s="9" t="n">
-        <v>7315</v>
-      </c>
-      <c r="AF80" s="8" t="inlineStr">
-        <is>
-          <t>F73885</t>
-        </is>
-      </c>
-      <c r="AG80" s="8" t="n"/>
-      <c r="AH80" s="8" t="n"/>
-      <c r="AI80" s="8" t="n"/>
-      <c r="AJ80" s="9" t="n"/>
-      <c r="AK80" s="8" t="n"/>
-      <c r="AL80" s="8" t="n"/>
-      <c r="AM80" s="8" t="n"/>
-      <c r="AN80" s="8" t="n"/>
-      <c r="AO80" s="9" t="n"/>
-      <c r="AP80" s="8" t="n"/>
-      <c r="AQ80" s="8" t="n"/>
-      <c r="AR80" s="8" t="n"/>
-      <c r="AS80" s="8" t="n"/>
-      <c r="AT80" s="9" t="n"/>
-      <c r="AU80" s="8" t="n"/>
-      <c r="AV80" s="8" t="n"/>
-      <c r="AW80" s="8" t="n"/>
-      <c r="AX80" s="8" t="n"/>
-      <c r="AY80" s="9" t="n"/>
-      <c r="AZ80" s="8" t="n"/>
-      <c r="BA80" s="8" t="n"/>
-      <c r="BB80" s="8" t="n"/>
-      <c r="BC80" s="8" t="n"/>
-      <c r="BD80" s="9" t="n"/>
-      <c r="BE80" s="8" t="n"/>
-      <c r="BF80" s="8" t="n"/>
-      <c r="BG80" s="8" t="n"/>
-      <c r="BH80" s="8" t="n"/>
-      <c r="BI80" s="9" t="n"/>
-      <c r="BJ80" s="8" t="n"/>
-      <c r="BK80" s="8" t="n"/>
-      <c r="BL80" s="8" t="n"/>
-      <c r="BM80" s="8" t="n"/>
-      <c r="BN80" s="9" t="n"/>
-      <c r="BO80" s="8" t="n"/>
+      <c r="E80" s="11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F80" s="11" t="n"/>
+      <c r="G80" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H80" s="11" t="n"/>
+      <c r="I80" s="11" t="n"/>
+      <c r="J80" s="11" t="n"/>
+      <c r="K80" s="11" t="n"/>
+      <c r="L80" s="11" t="n"/>
+      <c r="M80" s="11" t="n"/>
+      <c r="N80" s="11" t="n"/>
+      <c r="O80" s="11" t="n"/>
+      <c r="P80" s="11" t="n"/>
+      <c r="Q80" s="11" t="n"/>
+      <c r="R80" s="11" t="n"/>
+      <c r="S80" s="11" t="n"/>
+      <c r="T80" s="11" t="n"/>
+      <c r="U80" s="11" t="n"/>
+      <c r="V80" s="11" t="n"/>
+      <c r="W80" s="11" t="n"/>
+      <c r="X80" s="11" t="n"/>
+      <c r="Y80" s="11" t="n"/>
+      <c r="Z80" s="11" t="n"/>
+      <c r="AA80" s="11" t="n"/>
+      <c r="AB80" s="11" t="n"/>
+      <c r="AC80" s="11" t="n"/>
+      <c r="AD80" s="11" t="n"/>
+      <c r="AE80" s="11" t="n"/>
+      <c r="AF80" s="11" t="n"/>
+      <c r="AG80" s="11" t="n">
+        <v>14260</v>
+      </c>
+      <c r="AH80" s="11" t="n">
+        <v>499.1</v>
+      </c>
+      <c r="AI80" s="11" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="AJ80" s="11" t="n">
+        <v>14901.7</v>
+      </c>
+      <c r="AK80" s="11" t="n"/>
+      <c r="AL80" s="11" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM80" s="11" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="AN80" s="11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO80" s="11" t="n">
+        <v>449.35</v>
+      </c>
+      <c r="AP80" s="11" t="n"/>
+      <c r="AQ80" s="11" t="n"/>
+      <c r="AR80" s="11" t="n"/>
+      <c r="AS80" s="11" t="n"/>
+      <c r="AT80" s="11" t="n"/>
+      <c r="AU80" s="11" t="n"/>
+      <c r="AV80" s="11" t="n"/>
+      <c r="AW80" s="11" t="n"/>
+      <c r="AX80" s="11" t="n"/>
+      <c r="AY80" s="11" t="n"/>
+      <c r="AZ80" s="11" t="n"/>
+      <c r="BA80" s="11" t="n"/>
+      <c r="BB80" s="11" t="n"/>
+      <c r="BC80" s="11" t="n"/>
+      <c r="BD80" s="11" t="n"/>
+      <c r="BE80" s="11" t="n"/>
+      <c r="BF80" s="11" t="n"/>
+      <c r="BG80" s="11" t="n"/>
+      <c r="BH80" s="11" t="n"/>
+      <c r="BI80" s="11" t="n"/>
+      <c r="BJ80" s="11" t="n"/>
+      <c r="BK80" s="11" t="n"/>
+      <c r="BL80" s="11" t="n"/>
+      <c r="BM80" s="11" t="n"/>
+      <c r="BN80" s="11" t="n"/>
+      <c r="BO80" s="11" t="n"/>
     </row>
     <row r="81">
       <c r="E81" s="11" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F81" s="11" t="n"/>
-      <c r="G81" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>IRE</t>
         </is>
       </c>
       <c r="H81" s="11" t="n"/>
@@ -9344,28 +9360,28 @@
       <c r="Y81" s="11" t="n"/>
       <c r="Z81" s="11" t="n"/>
       <c r="AA81" s="11" t="n"/>
-      <c r="AB81" s="11" t="n"/>
-      <c r="AC81" s="11" t="n"/>
-      <c r="AD81" s="11" t="n"/>
-      <c r="AE81" s="11" t="n"/>
+      <c r="AB81" s="11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AC81" s="11" t="n">
+        <v>245</v>
+      </c>
+      <c r="AD81" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE81" s="11" t="n">
+        <v>7315</v>
+      </c>
       <c r="AF81" s="11" t="n"/>
       <c r="AG81" s="11" t="n"/>
       <c r="AH81" s="11" t="n"/>
       <c r="AI81" s="11" t="n"/>
       <c r="AJ81" s="11" t="n"/>
       <c r="AK81" s="11" t="n"/>
-      <c r="AL81" s="11" t="n">
-        <v>430</v>
-      </c>
-      <c r="AM81" s="11" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="AN81" s="11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO81" s="11" t="n">
-        <v>449.35</v>
-      </c>
+      <c r="AL81" s="11" t="n"/>
+      <c r="AM81" s="11" t="n"/>
+      <c r="AN81" s="11" t="n"/>
+      <c r="AO81" s="11" t="n"/>
       <c r="AP81" s="11" t="n"/>
       <c r="AQ81" s="11" t="n"/>
       <c r="AR81" s="11" t="n"/>
@@ -9394,177 +9410,185 @@
       <c r="BO81" s="11" t="n"/>
     </row>
     <row r="82">
-      <c r="E82" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H82" s="11" t="n"/>
-      <c r="I82" s="11" t="n"/>
-      <c r="J82" s="11" t="n"/>
-      <c r="K82" s="11" t="n"/>
-      <c r="L82" s="11" t="n"/>
-      <c r="M82" s="11" t="n"/>
-      <c r="N82" s="11" t="n"/>
-      <c r="O82" s="11" t="n"/>
-      <c r="P82" s="11" t="n"/>
-      <c r="Q82" s="11" t="n"/>
-      <c r="R82" s="11" t="n"/>
-      <c r="S82" s="11" t="n"/>
-      <c r="T82" s="11" t="n"/>
-      <c r="U82" s="11" t="n"/>
-      <c r="V82" s="11" t="n"/>
-      <c r="W82" s="11" t="n"/>
-      <c r="X82" s="11" t="n"/>
-      <c r="Y82" s="11" t="n"/>
-      <c r="Z82" s="11" t="n"/>
-      <c r="AA82" s="11" t="n"/>
-      <c r="AB82" s="11" t="n"/>
-      <c r="AC82" s="11" t="n"/>
-      <c r="AD82" s="11" t="n"/>
-      <c r="AE82" s="11" t="n"/>
-      <c r="AF82" s="11" t="n"/>
-      <c r="AG82" s="11" t="n">
-        <v>14260</v>
-      </c>
-      <c r="AH82" s="11" t="n">
-        <v>499.1</v>
-      </c>
-      <c r="AI82" s="11" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="AJ82" s="11" t="n">
-        <v>14901.7</v>
-      </c>
-      <c r="AK82" s="11" t="n"/>
-      <c r="AL82" s="11" t="n"/>
-      <c r="AM82" s="11" t="n"/>
-      <c r="AN82" s="11" t="n"/>
-      <c r="AO82" s="11" t="n"/>
-      <c r="AP82" s="11" t="n"/>
-      <c r="AQ82" s="11" t="n"/>
-      <c r="AR82" s="11" t="n"/>
-      <c r="AS82" s="11" t="n"/>
-      <c r="AT82" s="11" t="n"/>
-      <c r="AU82" s="11" t="n"/>
-      <c r="AV82" s="11" t="n"/>
-      <c r="AW82" s="11" t="n"/>
-      <c r="AX82" s="11" t="n"/>
-      <c r="AY82" s="11" t="n"/>
-      <c r="AZ82" s="11" t="n"/>
-      <c r="BA82" s="11" t="n"/>
-      <c r="BB82" s="11" t="n"/>
-      <c r="BC82" s="11" t="n"/>
-      <c r="BD82" s="11" t="n"/>
-      <c r="BE82" s="11" t="n"/>
-      <c r="BF82" s="11" t="n"/>
-      <c r="BG82" s="11" t="n"/>
-      <c r="BH82" s="11" t="n"/>
-      <c r="BI82" s="11" t="n"/>
-      <c r="BJ82" s="11" t="n"/>
-      <c r="BK82" s="11" t="n"/>
-      <c r="BL82" s="11" t="n"/>
-      <c r="BM82" s="11" t="n"/>
-      <c r="BN82" s="11" t="n"/>
-      <c r="BO82" s="11" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>PO00062721</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="n"/>
+      <c r="C82" s="5" t="n"/>
+      <c r="D82" s="6" t="n"/>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>CHANELUKPPC2024</t>
+        </is>
+      </c>
+      <c r="G82" s="7" t="inlineStr">
+        <is>
+          <t>PPC</t>
+        </is>
+      </c>
+      <c r="H82" s="8" t="n"/>
+      <c r="I82" s="8" t="n"/>
+      <c r="J82" s="8" t="n"/>
+      <c r="K82" s="9" t="n"/>
+      <c r="L82" s="8" t="n"/>
+      <c r="M82" s="8" t="n"/>
+      <c r="N82" s="8" t="n"/>
+      <c r="O82" s="8" t="n"/>
+      <c r="P82" s="9" t="n"/>
+      <c r="Q82" s="8" t="n"/>
+      <c r="R82" s="8" t="n"/>
+      <c r="S82" s="8" t="n"/>
+      <c r="T82" s="8" t="n"/>
+      <c r="U82" s="9" t="n"/>
+      <c r="V82" s="8" t="n"/>
+      <c r="W82" s="8" t="n"/>
+      <c r="X82" s="8" t="n"/>
+      <c r="Y82" s="8" t="n"/>
+      <c r="Z82" s="9" t="n"/>
+      <c r="AA82" s="8" t="n"/>
+      <c r="AB82" s="8" t="n"/>
+      <c r="AC82" s="8" t="n"/>
+      <c r="AD82" s="8" t="n"/>
+      <c r="AE82" s="9" t="n"/>
+      <c r="AF82" s="8" t="n"/>
+      <c r="AG82" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH82" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI82" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ82" s="9" t="n">
+        <v>1045</v>
+      </c>
+      <c r="AK82" s="8" t="inlineStr">
+        <is>
+          <t>F74093</t>
+        </is>
+      </c>
+      <c r="AL82" s="8" t="n"/>
+      <c r="AM82" s="8" t="n"/>
+      <c r="AN82" s="8" t="n"/>
+      <c r="AO82" s="9" t="n"/>
+      <c r="AP82" s="8" t="n"/>
+      <c r="AQ82" s="8" t="n"/>
+      <c r="AR82" s="8" t="n"/>
+      <c r="AS82" s="8" t="n"/>
+      <c r="AT82" s="9" t="n"/>
+      <c r="AU82" s="8" t="n"/>
+      <c r="AV82" s="8" t="n"/>
+      <c r="AW82" s="8" t="n"/>
+      <c r="AX82" s="8" t="n"/>
+      <c r="AY82" s="9" t="n"/>
+      <c r="AZ82" s="8" t="n"/>
+      <c r="BA82" s="8" t="n"/>
+      <c r="BB82" s="8" t="n"/>
+      <c r="BC82" s="8" t="n"/>
+      <c r="BD82" s="9" t="n"/>
+      <c r="BE82" s="8" t="n"/>
+      <c r="BF82" s="8" t="n"/>
+      <c r="BG82" s="8" t="n"/>
+      <c r="BH82" s="8" t="n"/>
+      <c r="BI82" s="9" t="n"/>
+      <c r="BJ82" s="8" t="n"/>
+      <c r="BK82" s="8" t="n"/>
+      <c r="BL82" s="8" t="n"/>
+      <c r="BM82" s="8" t="n"/>
+      <c r="BN82" s="9" t="n"/>
+      <c r="BO82" s="8" t="n"/>
     </row>
     <row r="83">
-      <c r="E83" s="11" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="H83" s="11" t="n"/>
-      <c r="I83" s="11" t="n"/>
-      <c r="J83" s="11" t="n"/>
-      <c r="K83" s="11" t="n"/>
-      <c r="L83" s="11" t="n"/>
-      <c r="M83" s="11" t="n"/>
-      <c r="N83" s="11" t="n"/>
-      <c r="O83" s="11" t="n"/>
-      <c r="P83" s="11" t="n"/>
-      <c r="Q83" s="11" t="n"/>
-      <c r="R83" s="11" t="n"/>
-      <c r="S83" s="11" t="n"/>
-      <c r="T83" s="11" t="n"/>
-      <c r="U83" s="11" t="n"/>
-      <c r="V83" s="11" t="n"/>
-      <c r="W83" s="11" t="n"/>
-      <c r="X83" s="11" t="n"/>
-      <c r="Y83" s="11" t="n"/>
-      <c r="Z83" s="11" t="n"/>
-      <c r="AA83" s="11" t="n"/>
-      <c r="AB83" s="11" t="n">
-        <v>7000</v>
-      </c>
-      <c r="AC83" s="11" t="n">
-        <v>245</v>
-      </c>
-      <c r="AD83" s="11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE83" s="11" t="n">
-        <v>7315</v>
-      </c>
-      <c r="AF83" s="11" t="n"/>
-      <c r="AG83" s="11" t="n"/>
-      <c r="AH83" s="11" t="n"/>
-      <c r="AI83" s="11" t="n"/>
-      <c r="AJ83" s="11" t="n"/>
-      <c r="AK83" s="11" t="n"/>
-      <c r="AL83" s="11" t="n"/>
-      <c r="AM83" s="11" t="n"/>
-      <c r="AN83" s="11" t="n"/>
-      <c r="AO83" s="11" t="n"/>
-      <c r="AP83" s="11" t="n"/>
-      <c r="AQ83" s="11" t="n"/>
-      <c r="AR83" s="11" t="n"/>
-      <c r="AS83" s="11" t="n"/>
-      <c r="AT83" s="11" t="n"/>
-      <c r="AU83" s="11" t="n"/>
-      <c r="AV83" s="11" t="n"/>
-      <c r="AW83" s="11" t="n"/>
-      <c r="AX83" s="11" t="n"/>
-      <c r="AY83" s="11" t="n"/>
-      <c r="AZ83" s="11" t="n"/>
-      <c r="BA83" s="11" t="n"/>
-      <c r="BB83" s="11" t="n"/>
-      <c r="BC83" s="11" t="n"/>
-      <c r="BD83" s="11" t="n"/>
-      <c r="BE83" s="11" t="n"/>
-      <c r="BF83" s="11" t="n"/>
-      <c r="BG83" s="11" t="n"/>
-      <c r="BH83" s="11" t="n"/>
-      <c r="BI83" s="11" t="n"/>
-      <c r="BJ83" s="11" t="n"/>
-      <c r="BK83" s="11" t="n"/>
-      <c r="BL83" s="11" t="n"/>
-      <c r="BM83" s="11" t="n"/>
-      <c r="BN83" s="11" t="n"/>
-      <c r="BO83" s="11" t="n"/>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="H83" s="8" t="n"/>
+      <c r="I83" s="8" t="n"/>
+      <c r="J83" s="8" t="n"/>
+      <c r="K83" s="9" t="n"/>
+      <c r="L83" s="8" t="n"/>
+      <c r="M83" s="8" t="n"/>
+      <c r="N83" s="8" t="n"/>
+      <c r="O83" s="8" t="n"/>
+      <c r="P83" s="9" t="n"/>
+      <c r="Q83" s="8" t="n"/>
+      <c r="R83" s="8" t="n"/>
+      <c r="S83" s="8" t="n"/>
+      <c r="T83" s="8" t="n"/>
+      <c r="U83" s="9" t="n"/>
+      <c r="V83" s="8" t="n"/>
+      <c r="W83" s="8" t="n"/>
+      <c r="X83" s="8" t="n"/>
+      <c r="Y83" s="8" t="n"/>
+      <c r="Z83" s="9" t="n"/>
+      <c r="AA83" s="8" t="n"/>
+      <c r="AB83" s="8" t="n"/>
+      <c r="AC83" s="8" t="n"/>
+      <c r="AD83" s="8" t="n"/>
+      <c r="AE83" s="9" t="n"/>
+      <c r="AF83" s="8" t="n"/>
+      <c r="AG83" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH83" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI83" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ83" s="9" t="n">
+        <v>1045</v>
+      </c>
+      <c r="AK83" s="8" t="inlineStr">
+        <is>
+          <t>F74095</t>
+        </is>
+      </c>
+      <c r="AL83" s="8" t="n"/>
+      <c r="AM83" s="8" t="n"/>
+      <c r="AN83" s="8" t="n"/>
+      <c r="AO83" s="9" t="n"/>
+      <c r="AP83" s="8" t="n"/>
+      <c r="AQ83" s="8" t="n"/>
+      <c r="AR83" s="8" t="n"/>
+      <c r="AS83" s="8" t="n"/>
+      <c r="AT83" s="9" t="n"/>
+      <c r="AU83" s="8" t="n"/>
+      <c r="AV83" s="8" t="n"/>
+      <c r="AW83" s="8" t="n"/>
+      <c r="AX83" s="8" t="n"/>
+      <c r="AY83" s="9" t="n"/>
+      <c r="AZ83" s="8" t="n"/>
+      <c r="BA83" s="8" t="n"/>
+      <c r="BB83" s="8" t="n"/>
+      <c r="BC83" s="8" t="n"/>
+      <c r="BD83" s="9" t="n"/>
+      <c r="BE83" s="8" t="n"/>
+      <c r="BF83" s="8" t="n"/>
+      <c r="BG83" s="8" t="n"/>
+      <c r="BH83" s="8" t="n"/>
+      <c r="BI83" s="9" t="n"/>
+      <c r="BJ83" s="8" t="n"/>
+      <c r="BK83" s="8" t="n"/>
+      <c r="BL83" s="8" t="n"/>
+      <c r="BM83" s="8" t="n"/>
+      <c r="BN83" s="9" t="n"/>
+      <c r="BO83" s="8" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>PO00062721</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="n"/>
-      <c r="C84" s="5" t="n"/>
-      <c r="D84" s="6" t="n"/>
       <c r="E84" s="2" t="inlineStr">
         <is>
           <t>UK</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>CHANELUKPPC2024</t>
-        </is>
-      </c>
-      <c r="G84" s="7" t="inlineStr">
-        <is>
-          <t>PPC</t>
         </is>
       </c>
       <c r="H84" s="8" t="n"/>
@@ -9593,20 +9617,20 @@
       <c r="AE84" s="9" t="n"/>
       <c r="AF84" s="8" t="n"/>
       <c r="AG84" s="8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="AH84" s="8" t="n">
-        <v>35</v>
+        <v>87.50000000000001</v>
       </c>
       <c r="AI84" s="8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AJ84" s="9" t="n">
-        <v>1045</v>
+        <v>2612.5</v>
       </c>
       <c r="AK84" s="8" t="inlineStr">
         <is>
-          <t>F74093</t>
+          <t>F74096</t>
         </is>
       </c>
       <c r="AL84" s="8" t="n"/>
@@ -9672,20 +9696,20 @@
       <c r="AE85" s="9" t="n"/>
       <c r="AF85" s="8" t="n"/>
       <c r="AG85" s="8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="AH85" s="8" t="n">
-        <v>35</v>
+        <v>87.50000000000001</v>
       </c>
       <c r="AI85" s="8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AJ85" s="9" t="n">
-        <v>1045</v>
+        <v>2612.5</v>
       </c>
       <c r="AK85" s="8" t="inlineStr">
         <is>
-          <t>F74095</t>
+          <t>F74098</t>
         </is>
       </c>
       <c r="AL85" s="8" t="n"/>
@@ -9751,20 +9775,20 @@
       <c r="AE86" s="9" t="n"/>
       <c r="AF86" s="8" t="n"/>
       <c r="AG86" s="8" t="n">
-        <v>2500</v>
+        <v>4550</v>
       </c>
       <c r="AH86" s="8" t="n">
-        <v>87.50000000000001</v>
+        <v>159.25</v>
       </c>
       <c r="AI86" s="8" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="AJ86" s="9" t="n">
-        <v>2612.5</v>
+        <v>4754.75</v>
       </c>
       <c r="AK86" s="8" t="inlineStr">
         <is>
-          <t>F74096</t>
+          <t>F74099</t>
         </is>
       </c>
       <c r="AL86" s="8" t="n"/>
@@ -9830,20 +9854,20 @@
       <c r="AE87" s="9" t="n"/>
       <c r="AF87" s="8" t="n"/>
       <c r="AG87" s="8" t="n">
-        <v>2500</v>
+        <v>4550</v>
       </c>
       <c r="AH87" s="8" t="n">
-        <v>87.50000000000001</v>
+        <v>159.25</v>
       </c>
       <c r="AI87" s="8" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="AJ87" s="9" t="n">
-        <v>2612.5</v>
+        <v>4754.75</v>
       </c>
       <c r="AK87" s="8" t="inlineStr">
         <is>
-          <t>F74098</t>
+          <t>F74100</t>
         </is>
       </c>
       <c r="AL87" s="8" t="n"/>
@@ -9922,7 +9946,7 @@
       </c>
       <c r="AK88" s="8" t="inlineStr">
         <is>
-          <t>F74099</t>
+          <t>F74101</t>
         </is>
       </c>
       <c r="AL88" s="8" t="n"/>
@@ -9988,20 +10012,20 @@
       <c r="AE89" s="9" t="n"/>
       <c r="AF89" s="8" t="n"/>
       <c r="AG89" s="8" t="n">
-        <v>4550</v>
+        <v>2500</v>
       </c>
       <c r="AH89" s="8" t="n">
-        <v>159.25</v>
+        <v>87.50000000000001</v>
       </c>
       <c r="AI89" s="8" t="n">
-        <v>45.5</v>
+        <v>25</v>
       </c>
       <c r="AJ89" s="9" t="n">
-        <v>4754.75</v>
+        <v>2612.5</v>
       </c>
       <c r="AK89" s="8" t="inlineStr">
         <is>
-          <t>F74100</t>
+          <t>F74110</t>
         </is>
       </c>
       <c r="AL89" s="8" t="n"/>
@@ -10080,7 +10104,7 @@
       </c>
       <c r="AK90" s="8" t="inlineStr">
         <is>
-          <t>F74101</t>
+          <t>F74102</t>
         </is>
       </c>
       <c r="AL90" s="8" t="n"/>
@@ -10146,20 +10170,20 @@
       <c r="AE91" s="9" t="n"/>
       <c r="AF91" s="8" t="n"/>
       <c r="AG91" s="8" t="n">
-        <v>2500</v>
+        <v>4550</v>
       </c>
       <c r="AH91" s="8" t="n">
-        <v>87.50000000000001</v>
+        <v>159.25</v>
       </c>
       <c r="AI91" s="8" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="AJ91" s="9" t="n">
-        <v>2612.5</v>
+        <v>4754.75</v>
       </c>
       <c r="AK91" s="8" t="inlineStr">
         <is>
-          <t>F74110</t>
+          <t>F74103</t>
         </is>
       </c>
       <c r="AL91" s="8" t="n"/>
@@ -10238,7 +10262,7 @@
       </c>
       <c r="AK92" s="8" t="inlineStr">
         <is>
-          <t>F74102</t>
+          <t>F74104</t>
         </is>
       </c>
       <c r="AL92" s="8" t="n"/>
@@ -10304,20 +10328,20 @@
       <c r="AE93" s="9" t="n"/>
       <c r="AF93" s="8" t="n"/>
       <c r="AG93" s="8" t="n">
-        <v>4550</v>
+        <v>2500</v>
       </c>
       <c r="AH93" s="8" t="n">
-        <v>159.25</v>
+        <v>87.50000000000001</v>
       </c>
       <c r="AI93" s="8" t="n">
-        <v>45.5</v>
+        <v>25</v>
       </c>
       <c r="AJ93" s="9" t="n">
-        <v>4754.75</v>
+        <v>2612.5</v>
       </c>
       <c r="AK93" s="8" t="inlineStr">
         <is>
-          <t>F74103</t>
+          <t>F74105</t>
         </is>
       </c>
       <c r="AL93" s="8" t="n"/>
@@ -10383,20 +10407,20 @@
       <c r="AE94" s="9" t="n"/>
       <c r="AF94" s="8" t="n"/>
       <c r="AG94" s="8" t="n">
-        <v>4550</v>
+        <v>2500</v>
       </c>
       <c r="AH94" s="8" t="n">
-        <v>159.25</v>
+        <v>87.50000000000001</v>
       </c>
       <c r="AI94" s="8" t="n">
-        <v>45.5</v>
+        <v>25</v>
       </c>
       <c r="AJ94" s="9" t="n">
-        <v>4754.75</v>
+        <v>2612.5</v>
       </c>
       <c r="AK94" s="8" t="inlineStr">
         <is>
-          <t>F74104</t>
+          <t>F74106</t>
         </is>
       </c>
       <c r="AL94" s="8" t="n"/>
@@ -10475,7 +10499,7 @@
       </c>
       <c r="AK95" s="8" t="inlineStr">
         <is>
-          <t>F74105</t>
+          <t>F74107</t>
         </is>
       </c>
       <c r="AL95" s="8" t="n"/>
@@ -10541,20 +10565,20 @@
       <c r="AE96" s="9" t="n"/>
       <c r="AF96" s="8" t="n"/>
       <c r="AG96" s="8" t="n">
-        <v>2500</v>
+        <v>4550</v>
       </c>
       <c r="AH96" s="8" t="n">
-        <v>87.50000000000001</v>
+        <v>159.25</v>
       </c>
       <c r="AI96" s="8" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="AJ96" s="9" t="n">
-        <v>2612.5</v>
+        <v>4754.75</v>
       </c>
       <c r="AK96" s="8" t="inlineStr">
         <is>
-          <t>F74106</t>
+          <t>F74108</t>
         </is>
       </c>
       <c r="AL96" s="8" t="n"/>
@@ -10620,20 +10644,20 @@
       <c r="AE97" s="9" t="n"/>
       <c r="AF97" s="8" t="n"/>
       <c r="AG97" s="8" t="n">
-        <v>2500</v>
+        <v>4550</v>
       </c>
       <c r="AH97" s="8" t="n">
-        <v>87.50000000000001</v>
+        <v>159.25</v>
       </c>
       <c r="AI97" s="8" t="n">
-        <v>25</v>
+        <v>45.5</v>
       </c>
       <c r="AJ97" s="9" t="n">
-        <v>2612.5</v>
+        <v>4754.75</v>
       </c>
       <c r="AK97" s="8" t="inlineStr">
         <is>
-          <t>F74107</t>
+          <t>F74109</t>
         </is>
       </c>
       <c r="AL97" s="8" t="n"/>
@@ -10699,20 +10723,20 @@
       <c r="AE98" s="9" t="n"/>
       <c r="AF98" s="8" t="n"/>
       <c r="AG98" s="8" t="n">
-        <v>4550</v>
+        <v>1000</v>
       </c>
       <c r="AH98" s="8" t="n">
-        <v>159.25</v>
+        <v>35</v>
       </c>
       <c r="AI98" s="8" t="n">
-        <v>45.5</v>
+        <v>10</v>
       </c>
       <c r="AJ98" s="9" t="n">
-        <v>4754.75</v>
+        <v>1045</v>
       </c>
       <c r="AK98" s="8" t="inlineStr">
         <is>
-          <t>F74108</t>
+          <t>F74097</t>
         </is>
       </c>
       <c r="AL98" s="8" t="n"/>
@@ -10778,20 +10802,20 @@
       <c r="AE99" s="9" t="n"/>
       <c r="AF99" s="8" t="n"/>
       <c r="AG99" s="8" t="n">
-        <v>4550</v>
+        <v>1000</v>
       </c>
       <c r="AH99" s="8" t="n">
-        <v>159.25</v>
+        <v>35</v>
       </c>
       <c r="AI99" s="8" t="n">
-        <v>45.5</v>
+        <v>10</v>
       </c>
       <c r="AJ99" s="9" t="n">
-        <v>4754.75</v>
+        <v>1045</v>
       </c>
       <c r="AK99" s="8" t="inlineStr">
         <is>
-          <t>F74109</t>
+          <t>F74089</t>
         </is>
       </c>
       <c r="AL99" s="8" t="n"/>
@@ -10870,7 +10894,7 @@
       </c>
       <c r="AK100" s="8" t="inlineStr">
         <is>
-          <t>F74097</t>
+          <t>F74094</t>
         </is>
       </c>
       <c r="AL100" s="8" t="n"/>
@@ -10949,7 +10973,7 @@
       </c>
       <c r="AK101" s="8" t="inlineStr">
         <is>
-          <t>F74089</t>
+          <t>F74090</t>
         </is>
       </c>
       <c r="AL101" s="8" t="n"/>
@@ -11015,20 +11039,20 @@
       <c r="AE102" s="9" t="n"/>
       <c r="AF102" s="8" t="n"/>
       <c r="AG102" s="8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="AH102" s="8" t="n">
-        <v>35</v>
+        <v>87.50000000000001</v>
       </c>
       <c r="AI102" s="8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AJ102" s="9" t="n">
-        <v>1045</v>
+        <v>2612.5</v>
       </c>
       <c r="AK102" s="8" t="inlineStr">
         <is>
-          <t>F74094</t>
+          <t>F74111</t>
         </is>
       </c>
       <c r="AL102" s="8" t="n"/>
@@ -11107,7 +11131,7 @@
       </c>
       <c r="AK103" s="8" t="inlineStr">
         <is>
-          <t>F74090</t>
+          <t>F74092</t>
         </is>
       </c>
       <c r="AL103" s="8" t="n"/>
@@ -11173,20 +11197,20 @@
       <c r="AE104" s="9" t="n"/>
       <c r="AF104" s="8" t="n"/>
       <c r="AG104" s="8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="AH104" s="8" t="n">
-        <v>87.50000000000001</v>
+        <v>35</v>
       </c>
       <c r="AI104" s="8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AJ104" s="9" t="n">
-        <v>2612.5</v>
+        <v>1045</v>
       </c>
       <c r="AK104" s="8" t="inlineStr">
         <is>
-          <t>F74111</t>
+          <t>F74091</t>
         </is>
       </c>
       <c r="AL104" s="8" t="n"/>
@@ -11221,88 +11245,108 @@
       <c r="BO104" s="8" t="n"/>
     </row>
     <row r="105">
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H105" s="8" t="n"/>
-      <c r="I105" s="8" t="n"/>
-      <c r="J105" s="8" t="n"/>
-      <c r="K105" s="9" t="n"/>
-      <c r="L105" s="8" t="n"/>
-      <c r="M105" s="8" t="n"/>
-      <c r="N105" s="8" t="n"/>
-      <c r="O105" s="8" t="n"/>
-      <c r="P105" s="9" t="n"/>
-      <c r="Q105" s="8" t="n"/>
-      <c r="R105" s="8" t="n"/>
-      <c r="S105" s="8" t="n"/>
-      <c r="T105" s="8" t="n"/>
-      <c r="U105" s="9" t="n"/>
-      <c r="V105" s="8" t="n"/>
-      <c r="W105" s="8" t="n"/>
-      <c r="X105" s="8" t="n"/>
-      <c r="Y105" s="8" t="n"/>
-      <c r="Z105" s="9" t="n"/>
-      <c r="AA105" s="8" t="n"/>
-      <c r="AB105" s="8" t="n"/>
-      <c r="AC105" s="8" t="n"/>
-      <c r="AD105" s="8" t="n"/>
-      <c r="AE105" s="9" t="n"/>
-      <c r="AF105" s="8" t="n"/>
-      <c r="AG105" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH105" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI105" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ105" s="9" t="n">
-        <v>1045</v>
-      </c>
-      <c r="AK105" s="8" t="inlineStr">
-        <is>
-          <t>F74092</t>
-        </is>
-      </c>
-      <c r="AL105" s="8" t="n"/>
-      <c r="AM105" s="8" t="n"/>
-      <c r="AN105" s="8" t="n"/>
-      <c r="AO105" s="9" t="n"/>
-      <c r="AP105" s="8" t="n"/>
-      <c r="AQ105" s="8" t="n"/>
-      <c r="AR105" s="8" t="n"/>
-      <c r="AS105" s="8" t="n"/>
-      <c r="AT105" s="9" t="n"/>
-      <c r="AU105" s="8" t="n"/>
-      <c r="AV105" s="8" t="n"/>
-      <c r="AW105" s="8" t="n"/>
-      <c r="AX105" s="8" t="n"/>
-      <c r="AY105" s="9" t="n"/>
-      <c r="AZ105" s="8" t="n"/>
-      <c r="BA105" s="8" t="n"/>
-      <c r="BB105" s="8" t="n"/>
-      <c r="BC105" s="8" t="n"/>
-      <c r="BD105" s="9" t="n"/>
-      <c r="BE105" s="8" t="n"/>
-      <c r="BF105" s="8" t="n"/>
-      <c r="BG105" s="8" t="n"/>
-      <c r="BH105" s="8" t="n"/>
-      <c r="BI105" s="9" t="n"/>
-      <c r="BJ105" s="8" t="n"/>
-      <c r="BK105" s="8" t="n"/>
-      <c r="BL105" s="8" t="n"/>
-      <c r="BM105" s="8" t="n"/>
-      <c r="BN105" s="9" t="n"/>
-      <c r="BO105" s="8" t="n"/>
+      <c r="E105" s="11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F105" s="11" t="n"/>
+      <c r="G105" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H105" s="11" t="n"/>
+      <c r="I105" s="11" t="n"/>
+      <c r="J105" s="11" t="n"/>
+      <c r="K105" s="11" t="n"/>
+      <c r="L105" s="11" t="n"/>
+      <c r="M105" s="11" t="n"/>
+      <c r="N105" s="11" t="n"/>
+      <c r="O105" s="11" t="n"/>
+      <c r="P105" s="11" t="n"/>
+      <c r="Q105" s="11" t="n"/>
+      <c r="R105" s="11" t="n"/>
+      <c r="S105" s="11" t="n"/>
+      <c r="T105" s="11" t="n"/>
+      <c r="U105" s="11" t="n"/>
+      <c r="V105" s="11" t="n"/>
+      <c r="W105" s="11" t="n"/>
+      <c r="X105" s="11" t="n"/>
+      <c r="Y105" s="11" t="n"/>
+      <c r="Z105" s="11" t="n"/>
+      <c r="AA105" s="11" t="n"/>
+      <c r="AB105" s="11" t="n"/>
+      <c r="AC105" s="11" t="n"/>
+      <c r="AD105" s="11" t="n"/>
+      <c r="AE105" s="11" t="n"/>
+      <c r="AF105" s="11" t="n"/>
+      <c r="AG105" s="11" t="n">
+        <v>61900</v>
+      </c>
+      <c r="AH105" s="11" t="n">
+        <v>2166.5</v>
+      </c>
+      <c r="AI105" s="11" t="n">
+        <v>619</v>
+      </c>
+      <c r="AJ105" s="11" t="n">
+        <v>64685.5</v>
+      </c>
+      <c r="AK105" s="11" t="n"/>
+      <c r="AL105" s="11" t="n"/>
+      <c r="AM105" s="11" t="n"/>
+      <c r="AN105" s="11" t="n"/>
+      <c r="AO105" s="11" t="n"/>
+      <c r="AP105" s="11" t="n"/>
+      <c r="AQ105" s="11" t="n"/>
+      <c r="AR105" s="11" t="n"/>
+      <c r="AS105" s="11" t="n"/>
+      <c r="AT105" s="11" t="n"/>
+      <c r="AU105" s="11" t="n"/>
+      <c r="AV105" s="11" t="n"/>
+      <c r="AW105" s="11" t="n"/>
+      <c r="AX105" s="11" t="n"/>
+      <c r="AY105" s="11" t="n"/>
+      <c r="AZ105" s="11" t="n"/>
+      <c r="BA105" s="11" t="n"/>
+      <c r="BB105" s="11" t="n"/>
+      <c r="BC105" s="11" t="n"/>
+      <c r="BD105" s="11" t="n"/>
+      <c r="BE105" s="11" t="n"/>
+      <c r="BF105" s="11" t="n"/>
+      <c r="BG105" s="11" t="n"/>
+      <c r="BH105" s="11" t="n"/>
+      <c r="BI105" s="11" t="n"/>
+      <c r="BJ105" s="11" t="n"/>
+      <c r="BK105" s="11" t="n"/>
+      <c r="BL105" s="11" t="n"/>
+      <c r="BM105" s="11" t="n"/>
+      <c r="BN105" s="11" t="n"/>
+      <c r="BO105" s="11" t="n"/>
     </row>
     <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>PO00068664</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="n"/>
+      <c r="C106" s="5" t="n"/>
+      <c r="D106" s="6" t="n"/>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IRE</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>No.5 Leau</t>
+        </is>
+      </c>
+      <c r="G106" s="7" t="inlineStr">
+        <is>
+          <t>OOH</t>
         </is>
       </c>
       <c r="H106" s="8" t="n"/>
@@ -11331,20 +11375,20 @@
       <c r="AE106" s="9" t="n"/>
       <c r="AF106" s="8" t="n"/>
       <c r="AG106" s="8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AH106" s="8" t="n">
-        <v>35</v>
+        <v>4.2</v>
       </c>
       <c r="AI106" s="8" t="n">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="AJ106" s="9" t="n">
-        <v>1045</v>
+        <v>125.4</v>
       </c>
       <c r="AK106" s="8" t="inlineStr">
         <is>
-          <t>F74091</t>
+          <t>F73891</t>
         </is>
       </c>
       <c r="AL106" s="8" t="n"/>
@@ -11379,108 +11423,88 @@
       <c r="BO106" s="8" t="n"/>
     </row>
     <row r="107">
-      <c r="E107" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F107" s="11" t="n"/>
-      <c r="G107" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H107" s="11" t="n"/>
-      <c r="I107" s="11" t="n"/>
-      <c r="J107" s="11" t="n"/>
-      <c r="K107" s="11" t="n"/>
-      <c r="L107" s="11" t="n"/>
-      <c r="M107" s="11" t="n"/>
-      <c r="N107" s="11" t="n"/>
-      <c r="O107" s="11" t="n"/>
-      <c r="P107" s="11" t="n"/>
-      <c r="Q107" s="11" t="n"/>
-      <c r="R107" s="11" t="n"/>
-      <c r="S107" s="11" t="n"/>
-      <c r="T107" s="11" t="n"/>
-      <c r="U107" s="11" t="n"/>
-      <c r="V107" s="11" t="n"/>
-      <c r="W107" s="11" t="n"/>
-      <c r="X107" s="11" t="n"/>
-      <c r="Y107" s="11" t="n"/>
-      <c r="Z107" s="11" t="n"/>
-      <c r="AA107" s="11" t="n"/>
-      <c r="AB107" s="11" t="n"/>
-      <c r="AC107" s="11" t="n"/>
-      <c r="AD107" s="11" t="n"/>
-      <c r="AE107" s="11" t="n"/>
-      <c r="AF107" s="11" t="n"/>
-      <c r="AG107" s="11" t="n">
-        <v>61900</v>
-      </c>
-      <c r="AH107" s="11" t="n">
-        <v>2166.5</v>
-      </c>
-      <c r="AI107" s="11" t="n">
-        <v>619</v>
-      </c>
-      <c r="AJ107" s="11" t="n">
-        <v>64685.5</v>
-      </c>
-      <c r="AK107" s="11" t="n"/>
-      <c r="AL107" s="11" t="n"/>
-      <c r="AM107" s="11" t="n"/>
-      <c r="AN107" s="11" t="n"/>
-      <c r="AO107" s="11" t="n"/>
-      <c r="AP107" s="11" t="n"/>
-      <c r="AQ107" s="11" t="n"/>
-      <c r="AR107" s="11" t="n"/>
-      <c r="AS107" s="11" t="n"/>
-      <c r="AT107" s="11" t="n"/>
-      <c r="AU107" s="11" t="n"/>
-      <c r="AV107" s="11" t="n"/>
-      <c r="AW107" s="11" t="n"/>
-      <c r="AX107" s="11" t="n"/>
-      <c r="AY107" s="11" t="n"/>
-      <c r="AZ107" s="11" t="n"/>
-      <c r="BA107" s="11" t="n"/>
-      <c r="BB107" s="11" t="n"/>
-      <c r="BC107" s="11" t="n"/>
-      <c r="BD107" s="11" t="n"/>
-      <c r="BE107" s="11" t="n"/>
-      <c r="BF107" s="11" t="n"/>
-      <c r="BG107" s="11" t="n"/>
-      <c r="BH107" s="11" t="n"/>
-      <c r="BI107" s="11" t="n"/>
-      <c r="BJ107" s="11" t="n"/>
-      <c r="BK107" s="11" t="n"/>
-      <c r="BL107" s="11" t="n"/>
-      <c r="BM107" s="11" t="n"/>
-      <c r="BN107" s="11" t="n"/>
-      <c r="BO107" s="11" t="n"/>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>IRE</t>
+        </is>
+      </c>
+      <c r="H107" s="8" t="n"/>
+      <c r="I107" s="8" t="n"/>
+      <c r="J107" s="8" t="n"/>
+      <c r="K107" s="9" t="n"/>
+      <c r="L107" s="8" t="n"/>
+      <c r="M107" s="8" t="n"/>
+      <c r="N107" s="8" t="n"/>
+      <c r="O107" s="8" t="n"/>
+      <c r="P107" s="9" t="n"/>
+      <c r="Q107" s="8" t="n"/>
+      <c r="R107" s="8" t="n"/>
+      <c r="S107" s="8" t="n"/>
+      <c r="T107" s="8" t="n"/>
+      <c r="U107" s="9" t="n"/>
+      <c r="V107" s="8" t="n"/>
+      <c r="W107" s="8" t="n"/>
+      <c r="X107" s="8" t="n"/>
+      <c r="Y107" s="8" t="n"/>
+      <c r="Z107" s="9" t="n"/>
+      <c r="AA107" s="8" t="n"/>
+      <c r="AB107" s="8" t="n"/>
+      <c r="AC107" s="8" t="n"/>
+      <c r="AD107" s="8" t="n"/>
+      <c r="AE107" s="9" t="n"/>
+      <c r="AF107" s="8" t="n"/>
+      <c r="AG107" s="8" t="n">
+        <v>2225</v>
+      </c>
+      <c r="AH107" s="8" t="n">
+        <v>77.87500000000001</v>
+      </c>
+      <c r="AI107" s="8" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="AJ107" s="9" t="n">
+        <v>2325.125</v>
+      </c>
+      <c r="AK107" s="8" t="inlineStr">
+        <is>
+          <t>F73890</t>
+        </is>
+      </c>
+      <c r="AL107" s="8" t="n"/>
+      <c r="AM107" s="8" t="n"/>
+      <c r="AN107" s="8" t="n"/>
+      <c r="AO107" s="9" t="n"/>
+      <c r="AP107" s="8" t="n"/>
+      <c r="AQ107" s="8" t="n"/>
+      <c r="AR107" s="8" t="n"/>
+      <c r="AS107" s="8" t="n"/>
+      <c r="AT107" s="9" t="n"/>
+      <c r="AU107" s="8" t="n"/>
+      <c r="AV107" s="8" t="n"/>
+      <c r="AW107" s="8" t="n"/>
+      <c r="AX107" s="8" t="n"/>
+      <c r="AY107" s="9" t="n"/>
+      <c r="AZ107" s="8" t="n"/>
+      <c r="BA107" s="8" t="n"/>
+      <c r="BB107" s="8" t="n"/>
+      <c r="BC107" s="8" t="n"/>
+      <c r="BD107" s="9" t="n"/>
+      <c r="BE107" s="8" t="n"/>
+      <c r="BF107" s="8" t="n"/>
+      <c r="BG107" s="8" t="n"/>
+      <c r="BH107" s="8" t="n"/>
+      <c r="BI107" s="9" t="n"/>
+      <c r="BJ107" s="8" t="n"/>
+      <c r="BK107" s="8" t="n"/>
+      <c r="BL107" s="8" t="n"/>
+      <c r="BM107" s="8" t="n"/>
+      <c r="BN107" s="9" t="n"/>
+      <c r="BO107" s="8" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>PO00068664</t>
-        </is>
-      </c>
-      <c r="B108" s="5" t="n"/>
-      <c r="C108" s="5" t="n"/>
-      <c r="D108" s="6" t="n"/>
       <c r="E108" s="2" t="inlineStr">
         <is>
           <t>IRE</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>No.5 Leau</t>
-        </is>
-      </c>
-      <c r="G108" s="7" t="inlineStr">
-        <is>
-          <t>OOH</t>
         </is>
       </c>
       <c r="H108" s="8" t="n"/>
@@ -11509,20 +11533,20 @@
       <c r="AE108" s="9" t="n"/>
       <c r="AF108" s="8" t="n"/>
       <c r="AG108" s="8" t="n">
-        <v>120</v>
+        <v>2340</v>
       </c>
       <c r="AH108" s="8" t="n">
-        <v>4.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="AI108" s="8" t="n">
-        <v>1.2</v>
+        <v>23.4</v>
       </c>
       <c r="AJ108" s="9" t="n">
-        <v>125.4</v>
+        <v>2445.3</v>
       </c>
       <c r="AK108" s="8" t="inlineStr">
         <is>
-          <t>F73891</t>
+          <t>F73889</t>
         </is>
       </c>
       <c r="AL108" s="8" t="n"/>
@@ -11588,20 +11612,20 @@
       <c r="AE109" s="9" t="n"/>
       <c r="AF109" s="8" t="n"/>
       <c r="AG109" s="8" t="n">
-        <v>2225</v>
+        <v>130</v>
       </c>
       <c r="AH109" s="8" t="n">
-        <v>77.87500000000001</v>
+        <v>4.550000000000001</v>
       </c>
       <c r="AI109" s="8" t="n">
-        <v>22.25</v>
+        <v>1.3</v>
       </c>
       <c r="AJ109" s="9" t="n">
-        <v>2325.125</v>
+        <v>135.85</v>
       </c>
       <c r="AK109" s="8" t="inlineStr">
         <is>
-          <t>F73890</t>
+          <t>F73888</t>
         </is>
       </c>
       <c r="AL109" s="8" t="n"/>
@@ -11667,20 +11691,20 @@
       <c r="AE110" s="9" t="n"/>
       <c r="AF110" s="8" t="n"/>
       <c r="AG110" s="8" t="n">
-        <v>2340</v>
+        <v>3400</v>
       </c>
       <c r="AH110" s="8" t="n">
-        <v>81.90000000000001</v>
+        <v>119</v>
       </c>
       <c r="AI110" s="8" t="n">
-        <v>23.4</v>
+        <v>34</v>
       </c>
       <c r="AJ110" s="9" t="n">
-        <v>2445.3</v>
+        <v>3553</v>
       </c>
       <c r="AK110" s="8" t="inlineStr">
         <is>
-          <t>F73889</t>
+          <t>F73887</t>
         </is>
       </c>
       <c r="AL110" s="8" t="n"/>
@@ -11717,7 +11741,12 @@
     <row r="111">
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G111" s="7" t="inlineStr">
+        <is>
+          <t>Social</t>
         </is>
       </c>
       <c r="H111" s="8" t="n"/>
@@ -11745,28 +11774,28 @@
       <c r="AD111" s="8" t="n"/>
       <c r="AE111" s="9" t="n"/>
       <c r="AF111" s="8" t="n"/>
-      <c r="AG111" s="8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AH111" s="8" t="n">
-        <v>4.550000000000001</v>
-      </c>
-      <c r="AI111" s="8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AJ111" s="9" t="n">
-        <v>135.85</v>
-      </c>
-      <c r="AK111" s="8" t="inlineStr">
-        <is>
-          <t>F73888</t>
-        </is>
-      </c>
-      <c r="AL111" s="8" t="n"/>
-      <c r="AM111" s="8" t="n"/>
-      <c r="AN111" s="8" t="n"/>
-      <c r="AO111" s="9" t="n"/>
-      <c r="AP111" s="8" t="n"/>
+      <c r="AG111" s="8" t="n"/>
+      <c r="AH111" s="8" t="n"/>
+      <c r="AI111" s="8" t="n"/>
+      <c r="AJ111" s="9" t="n"/>
+      <c r="AK111" s="8" t="n"/>
+      <c r="AL111" s="8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AM111" s="8" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN111" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO111" s="9" t="n">
+        <v>5225</v>
+      </c>
+      <c r="AP111" s="8" t="inlineStr">
+        <is>
+          <t>F73915</t>
+        </is>
+      </c>
       <c r="AQ111" s="8" t="n"/>
       <c r="AR111" s="8" t="n"/>
       <c r="AS111" s="8" t="n"/>
@@ -11796,7 +11825,7 @@
     <row r="112">
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="H112" s="8" t="n"/>
@@ -11824,28 +11853,28 @@
       <c r="AD112" s="8" t="n"/>
       <c r="AE112" s="9" t="n"/>
       <c r="AF112" s="8" t="n"/>
-      <c r="AG112" s="8" t="n">
-        <v>3400</v>
-      </c>
-      <c r="AH112" s="8" t="n">
-        <v>119</v>
-      </c>
-      <c r="AI112" s="8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ112" s="9" t="n">
-        <v>3553</v>
-      </c>
-      <c r="AK112" s="8" t="inlineStr">
-        <is>
-          <t>F73887</t>
-        </is>
-      </c>
-      <c r="AL112" s="8" t="n"/>
-      <c r="AM112" s="8" t="n"/>
-      <c r="AN112" s="8" t="n"/>
-      <c r="AO112" s="9" t="n"/>
-      <c r="AP112" s="8" t="n"/>
+      <c r="AG112" s="8" t="n"/>
+      <c r="AH112" s="8" t="n"/>
+      <c r="AI112" s="8" t="n"/>
+      <c r="AJ112" s="9" t="n"/>
+      <c r="AK112" s="8" t="n"/>
+      <c r="AL112" s="8" t="n">
+        <v>4300</v>
+      </c>
+      <c r="AM112" s="8" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="AN112" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO112" s="9" t="n">
+        <v>4493.5</v>
+      </c>
+      <c r="AP112" s="8" t="inlineStr">
+        <is>
+          <t>F73914</t>
+        </is>
+      </c>
       <c r="AQ112" s="8" t="n"/>
       <c r="AR112" s="8" t="n"/>
       <c r="AS112" s="8" t="n"/>
@@ -11876,11 +11905,6 @@
       <c r="E113" s="2" t="inlineStr">
         <is>
           <t>UK</t>
-        </is>
-      </c>
-      <c r="G113" s="7" t="inlineStr">
-        <is>
-          <t>Social</t>
         </is>
       </c>
       <c r="H113" s="8" t="n"/>
@@ -11914,20 +11938,20 @@
       <c r="AJ113" s="9" t="n"/>
       <c r="AK113" s="8" t="n"/>
       <c r="AL113" s="8" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="AM113" s="8" t="n">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="AN113" s="8" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AO113" s="9" t="n">
-        <v>5225</v>
+        <v>3553</v>
       </c>
       <c r="AP113" s="8" t="inlineStr">
         <is>
-          <t>F73915</t>
+          <t>F73913</t>
         </is>
       </c>
       <c r="AQ113" s="8" t="n"/>
@@ -11993,20 +12017,20 @@
       <c r="AJ114" s="9" t="n"/>
       <c r="AK114" s="8" t="n"/>
       <c r="AL114" s="8" t="n">
-        <v>4300</v>
+        <v>230</v>
       </c>
       <c r="AM114" s="8" t="n">
-        <v>150.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AN114" s="8" t="n">
-        <v>43</v>
+        <v>2.3</v>
       </c>
       <c r="AO114" s="9" t="n">
-        <v>4493.5</v>
+        <v>240.35</v>
       </c>
       <c r="AP114" s="8" t="inlineStr">
         <is>
-          <t>F73914</t>
+          <t>F73916</t>
         </is>
       </c>
       <c r="AQ114" s="8" t="n"/>
@@ -12066,28 +12090,28 @@
       <c r="AD115" s="8" t="n"/>
       <c r="AE115" s="9" t="n"/>
       <c r="AF115" s="8" t="n"/>
-      <c r="AG115" s="8" t="n"/>
-      <c r="AH115" s="8" t="n"/>
-      <c r="AI115" s="8" t="n"/>
-      <c r="AJ115" s="9" t="n"/>
-      <c r="AK115" s="8" t="n"/>
-      <c r="AL115" s="8" t="n">
-        <v>3400</v>
-      </c>
-      <c r="AM115" s="8" t="n">
-        <v>119</v>
-      </c>
-      <c r="AN115" s="8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO115" s="9" t="n">
-        <v>3553</v>
-      </c>
-      <c r="AP115" s="8" t="inlineStr">
-        <is>
-          <t>F73913</t>
-        </is>
-      </c>
+      <c r="AG115" s="8" t="n">
+        <v>3220</v>
+      </c>
+      <c r="AH115" s="8" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="AI115" s="8" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AJ115" s="9" t="n">
+        <v>3364.9</v>
+      </c>
+      <c r="AK115" s="8" t="inlineStr">
+        <is>
+          <t>F73912</t>
+        </is>
+      </c>
+      <c r="AL115" s="8" t="n"/>
+      <c r="AM115" s="8" t="n"/>
+      <c r="AN115" s="8" t="n"/>
+      <c r="AO115" s="9" t="n"/>
+      <c r="AP115" s="8" t="n"/>
       <c r="AQ115" s="8" t="n"/>
       <c r="AR115" s="8" t="n"/>
       <c r="AS115" s="8" t="n"/>
@@ -12145,28 +12169,28 @@
       <c r="AD116" s="8" t="n"/>
       <c r="AE116" s="9" t="n"/>
       <c r="AF116" s="8" t="n"/>
-      <c r="AG116" s="8" t="n"/>
-      <c r="AH116" s="8" t="n"/>
-      <c r="AI116" s="8" t="n"/>
-      <c r="AJ116" s="9" t="n"/>
-      <c r="AK116" s="8" t="n"/>
-      <c r="AL116" s="8" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM116" s="8" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AN116" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AO116" s="9" t="n">
-        <v>240.35</v>
-      </c>
-      <c r="AP116" s="8" t="inlineStr">
-        <is>
-          <t>F73916</t>
-        </is>
-      </c>
+      <c r="AG116" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH116" s="8" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="AI116" s="8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AJ116" s="9" t="n">
+        <v>47.02500000000001</v>
+      </c>
+      <c r="AK116" s="8" t="inlineStr">
+        <is>
+          <t>F73911</t>
+        </is>
+      </c>
+      <c r="AL116" s="8" t="n"/>
+      <c r="AM116" s="8" t="n"/>
+      <c r="AN116" s="8" t="n"/>
+      <c r="AO116" s="9" t="n"/>
+      <c r="AP116" s="8" t="n"/>
       <c r="AQ116" s="8" t="n"/>
       <c r="AR116" s="8" t="n"/>
       <c r="AS116" s="8" t="n"/>
@@ -12225,20 +12249,20 @@
       <c r="AE117" s="9" t="n"/>
       <c r="AF117" s="8" t="n"/>
       <c r="AG117" s="8" t="n">
-        <v>3220</v>
+        <v>540</v>
       </c>
       <c r="AH117" s="8" t="n">
-        <v>112.7</v>
+        <v>18.9</v>
       </c>
       <c r="AI117" s="8" t="n">
-        <v>32.2</v>
+        <v>5.4</v>
       </c>
       <c r="AJ117" s="9" t="n">
-        <v>3364.9</v>
+        <v>564.3</v>
       </c>
       <c r="AK117" s="8" t="inlineStr">
         <is>
-          <t>F73912</t>
+          <t>F73910</t>
         </is>
       </c>
       <c r="AL117" s="8" t="n"/>
@@ -12304,20 +12328,20 @@
       <c r="AE118" s="9" t="n"/>
       <c r="AF118" s="8" t="n"/>
       <c r="AG118" s="8" t="n">
-        <v>45</v>
+        <v>2110</v>
       </c>
       <c r="AH118" s="8" t="n">
-        <v>1.575</v>
+        <v>73.85000000000001</v>
       </c>
       <c r="AI118" s="8" t="n">
-        <v>0.45</v>
+        <v>21.1</v>
       </c>
       <c r="AJ118" s="9" t="n">
-        <v>47.02500000000001</v>
+        <v>2204.95</v>
       </c>
       <c r="AK118" s="8" t="inlineStr">
         <is>
-          <t>F73911</t>
+          <t>F73909</t>
         </is>
       </c>
       <c r="AL118" s="8" t="n"/>
@@ -12383,20 +12407,20 @@
       <c r="AE119" s="9" t="n"/>
       <c r="AF119" s="8" t="n"/>
       <c r="AG119" s="8" t="n">
-        <v>540</v>
+        <v>3300</v>
       </c>
       <c r="AH119" s="8" t="n">
-        <v>18.9</v>
+        <v>115.5</v>
       </c>
       <c r="AI119" s="8" t="n">
-        <v>5.4</v>
+        <v>33</v>
       </c>
       <c r="AJ119" s="9" t="n">
-        <v>564.3</v>
+        <v>3448.5</v>
       </c>
       <c r="AK119" s="8" t="inlineStr">
         <is>
-          <t>F73910</t>
+          <t>F73908</t>
         </is>
       </c>
       <c r="AL119" s="8" t="n"/>
@@ -12462,20 +12486,20 @@
       <c r="AE120" s="9" t="n"/>
       <c r="AF120" s="8" t="n"/>
       <c r="AG120" s="8" t="n">
-        <v>2110</v>
+        <v>790</v>
       </c>
       <c r="AH120" s="8" t="n">
-        <v>73.85000000000001</v>
+        <v>27.65</v>
       </c>
       <c r="AI120" s="8" t="n">
-        <v>21.1</v>
+        <v>7.9</v>
       </c>
       <c r="AJ120" s="9" t="n">
-        <v>2204.95</v>
+        <v>825.55</v>
       </c>
       <c r="AK120" s="8" t="inlineStr">
         <is>
-          <t>F73909</t>
+          <t>F73907</t>
         </is>
       </c>
       <c r="AL120" s="8" t="n"/>
@@ -12541,20 +12565,20 @@
       <c r="AE121" s="9" t="n"/>
       <c r="AF121" s="8" t="n"/>
       <c r="AG121" s="8" t="n">
-        <v>3300</v>
+        <v>340</v>
       </c>
       <c r="AH121" s="8" t="n">
-        <v>115.5</v>
+        <v>11.9</v>
       </c>
       <c r="AI121" s="8" t="n">
-        <v>33</v>
+        <v>3.4</v>
       </c>
       <c r="AJ121" s="9" t="n">
-        <v>3448.5</v>
+        <v>355.3</v>
       </c>
       <c r="AK121" s="8" t="inlineStr">
         <is>
-          <t>F73908</t>
+          <t>F73906</t>
         </is>
       </c>
       <c r="AL121" s="8" t="n"/>
@@ -12620,20 +12644,20 @@
       <c r="AE122" s="9" t="n"/>
       <c r="AF122" s="8" t="n"/>
       <c r="AG122" s="8" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="AH122" s="8" t="n">
-        <v>27.65</v>
+        <v>14.7</v>
       </c>
       <c r="AI122" s="8" t="n">
-        <v>7.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ122" s="9" t="n">
-        <v>825.55</v>
+        <v>438.9</v>
       </c>
       <c r="AK122" s="8" t="inlineStr">
         <is>
-          <t>F73907</t>
+          <t>F73905</t>
         </is>
       </c>
       <c r="AL122" s="8" t="n"/>
@@ -12699,20 +12723,20 @@
       <c r="AE123" s="9" t="n"/>
       <c r="AF123" s="8" t="n"/>
       <c r="AG123" s="8" t="n">
-        <v>340</v>
+        <v>1120</v>
       </c>
       <c r="AH123" s="8" t="n">
-        <v>11.9</v>
+        <v>39.2</v>
       </c>
       <c r="AI123" s="8" t="n">
-        <v>3.4</v>
+        <v>11.2</v>
       </c>
       <c r="AJ123" s="9" t="n">
-        <v>355.3</v>
+        <v>1170.4</v>
       </c>
       <c r="AK123" s="8" t="inlineStr">
         <is>
-          <t>F73906</t>
+          <t>F73904</t>
         </is>
       </c>
       <c r="AL123" s="8" t="n"/>
@@ -12778,20 +12802,20 @@
       <c r="AE124" s="9" t="n"/>
       <c r="AF124" s="8" t="n"/>
       <c r="AG124" s="8" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="AH124" s="8" t="n">
-        <v>14.7</v>
+        <v>15.75</v>
       </c>
       <c r="AI124" s="8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AJ124" s="9" t="n">
-        <v>438.9</v>
+        <v>470.25</v>
       </c>
       <c r="AK124" s="8" t="inlineStr">
         <is>
-          <t>F73905</t>
+          <t>F73903</t>
         </is>
       </c>
       <c r="AL124" s="8" t="n"/>
@@ -12857,20 +12881,20 @@
       <c r="AE125" s="9" t="n"/>
       <c r="AF125" s="8" t="n"/>
       <c r="AG125" s="8" t="n">
-        <v>1120</v>
+        <v>540</v>
       </c>
       <c r="AH125" s="8" t="n">
-        <v>39.2</v>
+        <v>18.9</v>
       </c>
       <c r="AI125" s="8" t="n">
-        <v>11.2</v>
+        <v>5.4</v>
       </c>
       <c r="AJ125" s="9" t="n">
-        <v>1170.4</v>
+        <v>564.3</v>
       </c>
       <c r="AK125" s="8" t="inlineStr">
         <is>
-          <t>F73904</t>
+          <t>F73902</t>
         </is>
       </c>
       <c r="AL125" s="8" t="n"/>
@@ -12905,416 +12929,428 @@
       <c r="BO125" s="8" t="n"/>
     </row>
     <row r="126">
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H126" s="8" t="n"/>
-      <c r="I126" s="8" t="n"/>
-      <c r="J126" s="8" t="n"/>
-      <c r="K126" s="9" t="n"/>
-      <c r="L126" s="8" t="n"/>
-      <c r="M126" s="8" t="n"/>
-      <c r="N126" s="8" t="n"/>
-      <c r="O126" s="8" t="n"/>
-      <c r="P126" s="9" t="n"/>
-      <c r="Q126" s="8" t="n"/>
-      <c r="R126" s="8" t="n"/>
-      <c r="S126" s="8" t="n"/>
-      <c r="T126" s="8" t="n"/>
-      <c r="U126" s="9" t="n"/>
-      <c r="V126" s="8" t="n"/>
-      <c r="W126" s="8" t="n"/>
-      <c r="X126" s="8" t="n"/>
-      <c r="Y126" s="8" t="n"/>
-      <c r="Z126" s="9" t="n"/>
-      <c r="AA126" s="8" t="n"/>
-      <c r="AB126" s="8" t="n"/>
-      <c r="AC126" s="8" t="n"/>
-      <c r="AD126" s="8" t="n"/>
-      <c r="AE126" s="9" t="n"/>
-      <c r="AF126" s="8" t="n"/>
-      <c r="AG126" s="8" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH126" s="8" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="AI126" s="8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ126" s="9" t="n">
-        <v>470.25</v>
-      </c>
-      <c r="AK126" s="8" t="inlineStr">
-        <is>
-          <t>F73903</t>
-        </is>
-      </c>
-      <c r="AL126" s="8" t="n"/>
-      <c r="AM126" s="8" t="n"/>
-      <c r="AN126" s="8" t="n"/>
-      <c r="AO126" s="9" t="n"/>
-      <c r="AP126" s="8" t="n"/>
-      <c r="AQ126" s="8" t="n"/>
-      <c r="AR126" s="8" t="n"/>
-      <c r="AS126" s="8" t="n"/>
-      <c r="AT126" s="9" t="n"/>
-      <c r="AU126" s="8" t="n"/>
-      <c r="AV126" s="8" t="n"/>
-      <c r="AW126" s="8" t="n"/>
-      <c r="AX126" s="8" t="n"/>
-      <c r="AY126" s="9" t="n"/>
-      <c r="AZ126" s="8" t="n"/>
-      <c r="BA126" s="8" t="n"/>
-      <c r="BB126" s="8" t="n"/>
-      <c r="BC126" s="8" t="n"/>
-      <c r="BD126" s="9" t="n"/>
-      <c r="BE126" s="8" t="n"/>
-      <c r="BF126" s="8" t="n"/>
-      <c r="BG126" s="8" t="n"/>
-      <c r="BH126" s="8" t="n"/>
-      <c r="BI126" s="9" t="n"/>
-      <c r="BJ126" s="8" t="n"/>
-      <c r="BK126" s="8" t="n"/>
-      <c r="BL126" s="8" t="n"/>
-      <c r="BM126" s="8" t="n"/>
-      <c r="BN126" s="9" t="n"/>
-      <c r="BO126" s="8" t="n"/>
+      <c r="E126" s="11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F126" s="11" t="n"/>
+      <c r="G126" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H126" s="11" t="n"/>
+      <c r="I126" s="11" t="n"/>
+      <c r="J126" s="11" t="n"/>
+      <c r="K126" s="11" t="n"/>
+      <c r="L126" s="11" t="n"/>
+      <c r="M126" s="11" t="n"/>
+      <c r="N126" s="11" t="n"/>
+      <c r="O126" s="11" t="n"/>
+      <c r="P126" s="11" t="n"/>
+      <c r="Q126" s="11" t="n"/>
+      <c r="R126" s="11" t="n"/>
+      <c r="S126" s="11" t="n"/>
+      <c r="T126" s="11" t="n"/>
+      <c r="U126" s="11" t="n"/>
+      <c r="V126" s="11" t="n"/>
+      <c r="W126" s="11" t="n"/>
+      <c r="X126" s="11" t="n"/>
+      <c r="Y126" s="11" t="n"/>
+      <c r="Z126" s="11" t="n"/>
+      <c r="AA126" s="11" t="n"/>
+      <c r="AB126" s="11" t="n"/>
+      <c r="AC126" s="11" t="n"/>
+      <c r="AD126" s="11" t="n"/>
+      <c r="AE126" s="11" t="n"/>
+      <c r="AF126" s="11" t="n"/>
+      <c r="AG126" s="11" t="n">
+        <v>12875</v>
+      </c>
+      <c r="AH126" s="11" t="n">
+        <v>450.625</v>
+      </c>
+      <c r="AI126" s="11" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="AJ126" s="11" t="n">
+        <v>13454.375</v>
+      </c>
+      <c r="AK126" s="11" t="n"/>
+      <c r="AL126" s="11" t="n">
+        <v>12930</v>
+      </c>
+      <c r="AM126" s="11" t="n">
+        <v>452.5500000000001</v>
+      </c>
+      <c r="AN126" s="11" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="AO126" s="11" t="n">
+        <v>13511.85</v>
+      </c>
+      <c r="AP126" s="11" t="n"/>
+      <c r="AQ126" s="11" t="n"/>
+      <c r="AR126" s="11" t="n"/>
+      <c r="AS126" s="11" t="n"/>
+      <c r="AT126" s="11" t="n"/>
+      <c r="AU126" s="11" t="n"/>
+      <c r="AV126" s="11" t="n"/>
+      <c r="AW126" s="11" t="n"/>
+      <c r="AX126" s="11" t="n"/>
+      <c r="AY126" s="11" t="n"/>
+      <c r="AZ126" s="11" t="n"/>
+      <c r="BA126" s="11" t="n"/>
+      <c r="BB126" s="11" t="n"/>
+      <c r="BC126" s="11" t="n"/>
+      <c r="BD126" s="11" t="n"/>
+      <c r="BE126" s="11" t="n"/>
+      <c r="BF126" s="11" t="n"/>
+      <c r="BG126" s="11" t="n"/>
+      <c r="BH126" s="11" t="n"/>
+      <c r="BI126" s="11" t="n"/>
+      <c r="BJ126" s="11" t="n"/>
+      <c r="BK126" s="11" t="n"/>
+      <c r="BL126" s="11" t="n"/>
+      <c r="BM126" s="11" t="n"/>
+      <c r="BN126" s="11" t="n"/>
+      <c r="BO126" s="11" t="n"/>
     </row>
     <row r="127">
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H127" s="8" t="n"/>
-      <c r="I127" s="8" t="n"/>
-      <c r="J127" s="8" t="n"/>
-      <c r="K127" s="9" t="n"/>
-      <c r="L127" s="8" t="n"/>
-      <c r="M127" s="8" t="n"/>
-      <c r="N127" s="8" t="n"/>
-      <c r="O127" s="8" t="n"/>
-      <c r="P127" s="9" t="n"/>
-      <c r="Q127" s="8" t="n"/>
-      <c r="R127" s="8" t="n"/>
-      <c r="S127" s="8" t="n"/>
-      <c r="T127" s="8" t="n"/>
-      <c r="U127" s="9" t="n"/>
-      <c r="V127" s="8" t="n"/>
-      <c r="W127" s="8" t="n"/>
-      <c r="X127" s="8" t="n"/>
-      <c r="Y127" s="8" t="n"/>
-      <c r="Z127" s="9" t="n"/>
-      <c r="AA127" s="8" t="n"/>
-      <c r="AB127" s="8" t="n"/>
-      <c r="AC127" s="8" t="n"/>
-      <c r="AD127" s="8" t="n"/>
-      <c r="AE127" s="9" t="n"/>
-      <c r="AF127" s="8" t="n"/>
-      <c r="AG127" s="8" t="n">
-        <v>540</v>
-      </c>
-      <c r="AH127" s="8" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="AI127" s="8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ127" s="9" t="n">
-        <v>564.3</v>
-      </c>
-      <c r="AK127" s="8" t="inlineStr">
-        <is>
-          <t>F73902</t>
-        </is>
-      </c>
-      <c r="AL127" s="8" t="n"/>
-      <c r="AM127" s="8" t="n"/>
-      <c r="AN127" s="8" t="n"/>
-      <c r="AO127" s="9" t="n"/>
-      <c r="AP127" s="8" t="n"/>
-      <c r="AQ127" s="8" t="n"/>
-      <c r="AR127" s="8" t="n"/>
-      <c r="AS127" s="8" t="n"/>
-      <c r="AT127" s="9" t="n"/>
-      <c r="AU127" s="8" t="n"/>
-      <c r="AV127" s="8" t="n"/>
-      <c r="AW127" s="8" t="n"/>
-      <c r="AX127" s="8" t="n"/>
-      <c r="AY127" s="9" t="n"/>
-      <c r="AZ127" s="8" t="n"/>
-      <c r="BA127" s="8" t="n"/>
-      <c r="BB127" s="8" t="n"/>
-      <c r="BC127" s="8" t="n"/>
-      <c r="BD127" s="9" t="n"/>
-      <c r="BE127" s="8" t="n"/>
-      <c r="BF127" s="8" t="n"/>
-      <c r="BG127" s="8" t="n"/>
-      <c r="BH127" s="8" t="n"/>
-      <c r="BI127" s="9" t="n"/>
-      <c r="BJ127" s="8" t="n"/>
-      <c r="BK127" s="8" t="n"/>
-      <c r="BL127" s="8" t="n"/>
-      <c r="BM127" s="8" t="n"/>
-      <c r="BN127" s="9" t="n"/>
-      <c r="BO127" s="8" t="n"/>
+      <c r="E127" s="11" t="inlineStr">
+        <is>
+          <t>IRE</t>
+        </is>
+      </c>
+      <c r="H127" s="11" t="n"/>
+      <c r="I127" s="11" t="n"/>
+      <c r="J127" s="11" t="n"/>
+      <c r="K127" s="11" t="n"/>
+      <c r="L127" s="11" t="n"/>
+      <c r="M127" s="11" t="n"/>
+      <c r="N127" s="11" t="n"/>
+      <c r="O127" s="11" t="n"/>
+      <c r="P127" s="11" t="n"/>
+      <c r="Q127" s="11" t="n"/>
+      <c r="R127" s="11" t="n"/>
+      <c r="S127" s="11" t="n"/>
+      <c r="T127" s="11" t="n"/>
+      <c r="U127" s="11" t="n"/>
+      <c r="V127" s="11" t="n"/>
+      <c r="W127" s="11" t="n"/>
+      <c r="X127" s="11" t="n"/>
+      <c r="Y127" s="11" t="n"/>
+      <c r="Z127" s="11" t="n"/>
+      <c r="AA127" s="11" t="n"/>
+      <c r="AB127" s="11" t="n"/>
+      <c r="AC127" s="11" t="n"/>
+      <c r="AD127" s="11" t="n"/>
+      <c r="AE127" s="11" t="n"/>
+      <c r="AF127" s="11" t="n"/>
+      <c r="AG127" s="11" t="n">
+        <v>8215</v>
+      </c>
+      <c r="AH127" s="11" t="n">
+        <v>287.525</v>
+      </c>
+      <c r="AI127" s="11" t="n">
+        <v>82.15000000000001</v>
+      </c>
+      <c r="AJ127" s="11" t="n">
+        <v>8584.674999999999</v>
+      </c>
+      <c r="AK127" s="11" t="n"/>
+      <c r="AL127" s="11" t="n"/>
+      <c r="AM127" s="11" t="n"/>
+      <c r="AN127" s="11" t="n"/>
+      <c r="AO127" s="11" t="n"/>
+      <c r="AP127" s="11" t="n"/>
+      <c r="AQ127" s="11" t="n"/>
+      <c r="AR127" s="11" t="n"/>
+      <c r="AS127" s="11" t="n"/>
+      <c r="AT127" s="11" t="n"/>
+      <c r="AU127" s="11" t="n"/>
+      <c r="AV127" s="11" t="n"/>
+      <c r="AW127" s="11" t="n"/>
+      <c r="AX127" s="11" t="n"/>
+      <c r="AY127" s="11" t="n"/>
+      <c r="AZ127" s="11" t="n"/>
+      <c r="BA127" s="11" t="n"/>
+      <c r="BB127" s="11" t="n"/>
+      <c r="BC127" s="11" t="n"/>
+      <c r="BD127" s="11" t="n"/>
+      <c r="BE127" s="11" t="n"/>
+      <c r="BF127" s="11" t="n"/>
+      <c r="BG127" s="11" t="n"/>
+      <c r="BH127" s="11" t="n"/>
+      <c r="BI127" s="11" t="n"/>
+      <c r="BJ127" s="11" t="n"/>
+      <c r="BK127" s="11" t="n"/>
+      <c r="BL127" s="11" t="n"/>
+      <c r="BM127" s="11" t="n"/>
+      <c r="BN127" s="11" t="n"/>
+      <c r="BO127" s="11" t="n"/>
     </row>
     <row r="128">
-      <c r="E128" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F128" s="11" t="n"/>
-      <c r="G128" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H128" s="11" t="n"/>
-      <c r="I128" s="11" t="n"/>
-      <c r="J128" s="11" t="n"/>
-      <c r="K128" s="11" t="n"/>
-      <c r="L128" s="11" t="n"/>
-      <c r="M128" s="11" t="n"/>
-      <c r="N128" s="11" t="n"/>
-      <c r="O128" s="11" t="n"/>
-      <c r="P128" s="11" t="n"/>
-      <c r="Q128" s="11" t="n"/>
-      <c r="R128" s="11" t="n"/>
-      <c r="S128" s="11" t="n"/>
-      <c r="T128" s="11" t="n"/>
-      <c r="U128" s="11" t="n"/>
-      <c r="V128" s="11" t="n"/>
-      <c r="W128" s="11" t="n"/>
-      <c r="X128" s="11" t="n"/>
-      <c r="Y128" s="11" t="n"/>
-      <c r="Z128" s="11" t="n"/>
-      <c r="AA128" s="11" t="n"/>
-      <c r="AB128" s="11" t="n"/>
-      <c r="AC128" s="11" t="n"/>
-      <c r="AD128" s="11" t="n"/>
-      <c r="AE128" s="11" t="n"/>
-      <c r="AF128" s="11" t="n"/>
-      <c r="AG128" s="11" t="n"/>
-      <c r="AH128" s="11" t="n"/>
-      <c r="AI128" s="11" t="n"/>
-      <c r="AJ128" s="11" t="n"/>
-      <c r="AK128" s="11" t="n"/>
-      <c r="AL128" s="11" t="n">
-        <v>12930</v>
-      </c>
-      <c r="AM128" s="11" t="n">
-        <v>452.5500000000001</v>
-      </c>
-      <c r="AN128" s="11" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="AO128" s="11" t="n">
-        <v>13511.85</v>
-      </c>
-      <c r="AP128" s="11" t="n"/>
-      <c r="AQ128" s="11" t="n"/>
-      <c r="AR128" s="11" t="n"/>
-      <c r="AS128" s="11" t="n"/>
-      <c r="AT128" s="11" t="n"/>
-      <c r="AU128" s="11" t="n"/>
-      <c r="AV128" s="11" t="n"/>
-      <c r="AW128" s="11" t="n"/>
-      <c r="AX128" s="11" t="n"/>
-      <c r="AY128" s="11" t="n"/>
-      <c r="AZ128" s="11" t="n"/>
-      <c r="BA128" s="11" t="n"/>
-      <c r="BB128" s="11" t="n"/>
-      <c r="BC128" s="11" t="n"/>
-      <c r="BD128" s="11" t="n"/>
-      <c r="BE128" s="11" t="n"/>
-      <c r="BF128" s="11" t="n"/>
-      <c r="BG128" s="11" t="n"/>
-      <c r="BH128" s="11" t="n"/>
-      <c r="BI128" s="11" t="n"/>
-      <c r="BJ128" s="11" t="n"/>
-      <c r="BK128" s="11" t="n"/>
-      <c r="BL128" s="11" t="n"/>
-      <c r="BM128" s="11" t="n"/>
-      <c r="BN128" s="11" t="n"/>
-      <c r="BO128" s="11" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>PO00074720</t>
+        </is>
+      </c>
+      <c r="B128" s="5" t="n"/>
+      <c r="C128" s="5" t="n"/>
+      <c r="D128" s="6" t="n"/>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>IRE</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>N1 H2</t>
+        </is>
+      </c>
+      <c r="G128" s="7" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H128" s="8" t="n"/>
+      <c r="I128" s="8" t="n"/>
+      <c r="J128" s="8" t="n"/>
+      <c r="K128" s="9" t="n"/>
+      <c r="L128" s="8" t="n"/>
+      <c r="M128" s="8" t="n"/>
+      <c r="N128" s="8" t="n"/>
+      <c r="O128" s="8" t="n"/>
+      <c r="P128" s="9" t="n"/>
+      <c r="Q128" s="8" t="n"/>
+      <c r="R128" s="8" t="n"/>
+      <c r="S128" s="8" t="n"/>
+      <c r="T128" s="8" t="n"/>
+      <c r="U128" s="9" t="n"/>
+      <c r="V128" s="8" t="n"/>
+      <c r="W128" s="8" t="n"/>
+      <c r="X128" s="8" t="n"/>
+      <c r="Y128" s="8" t="n"/>
+      <c r="Z128" s="9" t="n"/>
+      <c r="AA128" s="8" t="n"/>
+      <c r="AB128" s="8" t="n"/>
+      <c r="AC128" s="8" t="n"/>
+      <c r="AD128" s="8" t="n"/>
+      <c r="AE128" s="9" t="n"/>
+      <c r="AF128" s="8" t="n"/>
+      <c r="AG128" s="8" t="n"/>
+      <c r="AH128" s="8" t="n"/>
+      <c r="AI128" s="8" t="n"/>
+      <c r="AJ128" s="9" t="n"/>
+      <c r="AK128" s="8" t="n"/>
+      <c r="AL128" s="8" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AM128" s="8" t="n">
+        <v>66</v>
+      </c>
+      <c r="AN128" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO128" s="9" t="n">
+        <v>2288</v>
+      </c>
+      <c r="AP128" s="8" t="inlineStr">
+        <is>
+          <t>F73979</t>
+        </is>
+      </c>
+      <c r="AQ128" s="8" t="n"/>
+      <c r="AR128" s="8" t="n"/>
+      <c r="AS128" s="8" t="n"/>
+      <c r="AT128" s="9" t="n"/>
+      <c r="AU128" s="8" t="n"/>
+      <c r="AV128" s="8" t="n"/>
+      <c r="AW128" s="8" t="n"/>
+      <c r="AX128" s="8" t="n"/>
+      <c r="AY128" s="9" t="n"/>
+      <c r="AZ128" s="8" t="n"/>
+      <c r="BA128" s="8" t="n"/>
+      <c r="BB128" s="8" t="n"/>
+      <c r="BC128" s="8" t="n"/>
+      <c r="BD128" s="9" t="n"/>
+      <c r="BE128" s="8" t="n"/>
+      <c r="BF128" s="8" t="n"/>
+      <c r="BG128" s="8" t="n"/>
+      <c r="BH128" s="8" t="n"/>
+      <c r="BI128" s="9" t="n"/>
+      <c r="BJ128" s="8" t="n"/>
+      <c r="BK128" s="8" t="n"/>
+      <c r="BL128" s="8" t="n"/>
+      <c r="BM128" s="8" t="n"/>
+      <c r="BN128" s="9" t="n"/>
+      <c r="BO128" s="8" t="n"/>
     </row>
     <row r="129">
-      <c r="E129" s="11" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
         <is>
           <t>IRE</t>
         </is>
       </c>
-      <c r="H129" s="11" t="n"/>
-      <c r="I129" s="11" t="n"/>
-      <c r="J129" s="11" t="n"/>
-      <c r="K129" s="11" t="n"/>
-      <c r="L129" s="11" t="n"/>
-      <c r="M129" s="11" t="n"/>
-      <c r="N129" s="11" t="n"/>
-      <c r="O129" s="11" t="n"/>
-      <c r="P129" s="11" t="n"/>
-      <c r="Q129" s="11" t="n"/>
-      <c r="R129" s="11" t="n"/>
-      <c r="S129" s="11" t="n"/>
-      <c r="T129" s="11" t="n"/>
-      <c r="U129" s="11" t="n"/>
-      <c r="V129" s="11" t="n"/>
-      <c r="W129" s="11" t="n"/>
-      <c r="X129" s="11" t="n"/>
-      <c r="Y129" s="11" t="n"/>
-      <c r="Z129" s="11" t="n"/>
-      <c r="AA129" s="11" t="n"/>
-      <c r="AB129" s="11" t="n"/>
-      <c r="AC129" s="11" t="n"/>
-      <c r="AD129" s="11" t="n"/>
-      <c r="AE129" s="11" t="n"/>
-      <c r="AF129" s="11" t="n"/>
-      <c r="AG129" s="11" t="n">
-        <v>8215</v>
-      </c>
-      <c r="AH129" s="11" t="n">
-        <v>287.525</v>
-      </c>
-      <c r="AI129" s="11" t="n">
-        <v>82.15000000000001</v>
-      </c>
-      <c r="AJ129" s="11" t="n">
-        <v>8584.674999999999</v>
-      </c>
-      <c r="AK129" s="11" t="n"/>
-      <c r="AL129" s="11" t="n"/>
-      <c r="AM129" s="11" t="n"/>
-      <c r="AN129" s="11" t="n"/>
-      <c r="AO129" s="11" t="n"/>
-      <c r="AP129" s="11" t="n"/>
-      <c r="AQ129" s="11" t="n"/>
-      <c r="AR129" s="11" t="n"/>
-      <c r="AS129" s="11" t="n"/>
-      <c r="AT129" s="11" t="n"/>
-      <c r="AU129" s="11" t="n"/>
-      <c r="AV129" s="11" t="n"/>
-      <c r="AW129" s="11" t="n"/>
-      <c r="AX129" s="11" t="n"/>
-      <c r="AY129" s="11" t="n"/>
-      <c r="AZ129" s="11" t="n"/>
-      <c r="BA129" s="11" t="n"/>
-      <c r="BB129" s="11" t="n"/>
-      <c r="BC129" s="11" t="n"/>
-      <c r="BD129" s="11" t="n"/>
-      <c r="BE129" s="11" t="n"/>
-      <c r="BF129" s="11" t="n"/>
-      <c r="BG129" s="11" t="n"/>
-      <c r="BH129" s="11" t="n"/>
-      <c r="BI129" s="11" t="n"/>
-      <c r="BJ129" s="11" t="n"/>
-      <c r="BK129" s="11" t="n"/>
-      <c r="BL129" s="11" t="n"/>
-      <c r="BM129" s="11" t="n"/>
-      <c r="BN129" s="11" t="n"/>
-      <c r="BO129" s="11" t="n"/>
+      <c r="H129" s="8" t="n"/>
+      <c r="I129" s="8" t="n"/>
+      <c r="J129" s="8" t="n"/>
+      <c r="K129" s="9" t="n"/>
+      <c r="L129" s="8" t="n"/>
+      <c r="M129" s="8" t="n"/>
+      <c r="N129" s="8" t="n"/>
+      <c r="O129" s="8" t="n"/>
+      <c r="P129" s="9" t="n"/>
+      <c r="Q129" s="8" t="n"/>
+      <c r="R129" s="8" t="n"/>
+      <c r="S129" s="8" t="n"/>
+      <c r="T129" s="8" t="n"/>
+      <c r="U129" s="9" t="n"/>
+      <c r="V129" s="8" t="n"/>
+      <c r="W129" s="8" t="n"/>
+      <c r="X129" s="8" t="n"/>
+      <c r="Y129" s="8" t="n"/>
+      <c r="Z129" s="9" t="n"/>
+      <c r="AA129" s="8" t="n"/>
+      <c r="AB129" s="8" t="n"/>
+      <c r="AC129" s="8" t="n"/>
+      <c r="AD129" s="8" t="n"/>
+      <c r="AE129" s="9" t="n"/>
+      <c r="AF129" s="8" t="n"/>
+      <c r="AG129" s="8" t="n"/>
+      <c r="AH129" s="8" t="n"/>
+      <c r="AI129" s="8" t="n"/>
+      <c r="AJ129" s="9" t="n"/>
+      <c r="AK129" s="8" t="n"/>
+      <c r="AL129" s="8" t="n">
+        <v>1020</v>
+      </c>
+      <c r="AM129" s="8" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AN129" s="8" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AO129" s="9" t="n">
+        <v>1060.8</v>
+      </c>
+      <c r="AP129" s="8" t="inlineStr">
+        <is>
+          <t>F73986</t>
+        </is>
+      </c>
+      <c r="AQ129" s="8" t="n"/>
+      <c r="AR129" s="8" t="n"/>
+      <c r="AS129" s="8" t="n"/>
+      <c r="AT129" s="9" t="n"/>
+      <c r="AU129" s="8" t="n"/>
+      <c r="AV129" s="8" t="n"/>
+      <c r="AW129" s="8" t="n"/>
+      <c r="AX129" s="8" t="n"/>
+      <c r="AY129" s="9" t="n"/>
+      <c r="AZ129" s="8" t="n"/>
+      <c r="BA129" s="8" t="n"/>
+      <c r="BB129" s="8" t="n"/>
+      <c r="BC129" s="8" t="n"/>
+      <c r="BD129" s="9" t="n"/>
+      <c r="BE129" s="8" t="n"/>
+      <c r="BF129" s="8" t="n"/>
+      <c r="BG129" s="8" t="n"/>
+      <c r="BH129" s="8" t="n"/>
+      <c r="BI129" s="9" t="n"/>
+      <c r="BJ129" s="8" t="n"/>
+      <c r="BK129" s="8" t="n"/>
+      <c r="BL129" s="8" t="n"/>
+      <c r="BM129" s="8" t="n"/>
+      <c r="BN129" s="9" t="n"/>
+      <c r="BO129" s="8" t="n"/>
     </row>
     <row r="130">
-      <c r="E130" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H130" s="11" t="n"/>
-      <c r="I130" s="11" t="n"/>
-      <c r="J130" s="11" t="n"/>
-      <c r="K130" s="11" t="n"/>
-      <c r="L130" s="11" t="n"/>
-      <c r="M130" s="11" t="n"/>
-      <c r="N130" s="11" t="n"/>
-      <c r="O130" s="11" t="n"/>
-      <c r="P130" s="11" t="n"/>
-      <c r="Q130" s="11" t="n"/>
-      <c r="R130" s="11" t="n"/>
-      <c r="S130" s="11" t="n"/>
-      <c r="T130" s="11" t="n"/>
-      <c r="U130" s="11" t="n"/>
-      <c r="V130" s="11" t="n"/>
-      <c r="W130" s="11" t="n"/>
-      <c r="X130" s="11" t="n"/>
-      <c r="Y130" s="11" t="n"/>
-      <c r="Z130" s="11" t="n"/>
-      <c r="AA130" s="11" t="n"/>
-      <c r="AB130" s="11" t="n"/>
-      <c r="AC130" s="11" t="n"/>
-      <c r="AD130" s="11" t="n"/>
-      <c r="AE130" s="11" t="n"/>
-      <c r="AF130" s="11" t="n"/>
-      <c r="AG130" s="11" t="n">
-        <v>12875</v>
-      </c>
-      <c r="AH130" s="11" t="n">
-        <v>450.625</v>
-      </c>
-      <c r="AI130" s="11" t="n">
-        <v>128.75</v>
-      </c>
-      <c r="AJ130" s="11" t="n">
-        <v>13454.375</v>
-      </c>
-      <c r="AK130" s="11" t="n"/>
-      <c r="AL130" s="11" t="n"/>
-      <c r="AM130" s="11" t="n"/>
-      <c r="AN130" s="11" t="n"/>
-      <c r="AO130" s="11" t="n"/>
-      <c r="AP130" s="11" t="n"/>
-      <c r="AQ130" s="11" t="n"/>
-      <c r="AR130" s="11" t="n"/>
-      <c r="AS130" s="11" t="n"/>
-      <c r="AT130" s="11" t="n"/>
-      <c r="AU130" s="11" t="n"/>
-      <c r="AV130" s="11" t="n"/>
-      <c r="AW130" s="11" t="n"/>
-      <c r="AX130" s="11" t="n"/>
-      <c r="AY130" s="11" t="n"/>
-      <c r="AZ130" s="11" t="n"/>
-      <c r="BA130" s="11" t="n"/>
-      <c r="BB130" s="11" t="n"/>
-      <c r="BC130" s="11" t="n"/>
-      <c r="BD130" s="11" t="n"/>
-      <c r="BE130" s="11" t="n"/>
-      <c r="BF130" s="11" t="n"/>
-      <c r="BG130" s="11" t="n"/>
-      <c r="BH130" s="11" t="n"/>
-      <c r="BI130" s="11" t="n"/>
-      <c r="BJ130" s="11" t="n"/>
-      <c r="BK130" s="11" t="n"/>
-      <c r="BL130" s="11" t="n"/>
-      <c r="BM130" s="11" t="n"/>
-      <c r="BN130" s="11" t="n"/>
-      <c r="BO130" s="11" t="n"/>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>IRE</t>
+        </is>
+      </c>
+      <c r="H130" s="8" t="n"/>
+      <c r="I130" s="8" t="n"/>
+      <c r="J130" s="8" t="n"/>
+      <c r="K130" s="9" t="n"/>
+      <c r="L130" s="8" t="n"/>
+      <c r="M130" s="8" t="n"/>
+      <c r="N130" s="8" t="n"/>
+      <c r="O130" s="8" t="n"/>
+      <c r="P130" s="9" t="n"/>
+      <c r="Q130" s="8" t="n"/>
+      <c r="R130" s="8" t="n"/>
+      <c r="S130" s="8" t="n"/>
+      <c r="T130" s="8" t="n"/>
+      <c r="U130" s="9" t="n"/>
+      <c r="V130" s="8" t="n"/>
+      <c r="W130" s="8" t="n"/>
+      <c r="X130" s="8" t="n"/>
+      <c r="Y130" s="8" t="n"/>
+      <c r="Z130" s="9" t="n"/>
+      <c r="AA130" s="8" t="n"/>
+      <c r="AB130" s="8" t="n"/>
+      <c r="AC130" s="8" t="n"/>
+      <c r="AD130" s="8" t="n"/>
+      <c r="AE130" s="9" t="n"/>
+      <c r="AF130" s="8" t="n"/>
+      <c r="AG130" s="8" t="n"/>
+      <c r="AH130" s="8" t="n"/>
+      <c r="AI130" s="8" t="n"/>
+      <c r="AJ130" s="9" t="n"/>
+      <c r="AK130" s="8" t="n"/>
+      <c r="AL130" s="8" t="n">
+        <v>670</v>
+      </c>
+      <c r="AM130" s="8" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AN130" s="8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO130" s="9" t="n">
+        <v>696.8000000000001</v>
+      </c>
+      <c r="AP130" s="8" t="inlineStr">
+        <is>
+          <t>F73981</t>
+        </is>
+      </c>
+      <c r="AQ130" s="8" t="n"/>
+      <c r="AR130" s="8" t="n"/>
+      <c r="AS130" s="8" t="n"/>
+      <c r="AT130" s="9" t="n"/>
+      <c r="AU130" s="8" t="n"/>
+      <c r="AV130" s="8" t="n"/>
+      <c r="AW130" s="8" t="n"/>
+      <c r="AX130" s="8" t="n"/>
+      <c r="AY130" s="9" t="n"/>
+      <c r="AZ130" s="8" t="n"/>
+      <c r="BA130" s="8" t="n"/>
+      <c r="BB130" s="8" t="n"/>
+      <c r="BC130" s="8" t="n"/>
+      <c r="BD130" s="9" t="n"/>
+      <c r="BE130" s="8" t="n"/>
+      <c r="BF130" s="8" t="n"/>
+      <c r="BG130" s="8" t="n"/>
+      <c r="BH130" s="8" t="n"/>
+      <c r="BI130" s="9" t="n"/>
+      <c r="BJ130" s="8" t="n"/>
+      <c r="BK130" s="8" t="n"/>
+      <c r="BL130" s="8" t="n"/>
+      <c r="BM130" s="8" t="n"/>
+      <c r="BN130" s="9" t="n"/>
+      <c r="BO130" s="8" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>PO00074720</t>
-        </is>
-      </c>
-      <c r="B131" s="5" t="n"/>
-      <c r="C131" s="5" t="n"/>
-      <c r="D131" s="6" t="n"/>
       <c r="E131" s="2" t="inlineStr">
         <is>
           <t>IRE</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>N1 H2</t>
-        </is>
-      </c>
-      <c r="G131" s="7" t="inlineStr">
-        <is>
-          <t>Social</t>
         </is>
       </c>
       <c r="H131" s="8" t="n"/>
@@ -13348,20 +13384,20 @@
       <c r="AJ131" s="9" t="n"/>
       <c r="AK131" s="8" t="n"/>
       <c r="AL131" s="8" t="n">
-        <v>2200</v>
+        <v>870</v>
       </c>
       <c r="AM131" s="8" t="n">
-        <v>66</v>
+        <v>26.1</v>
       </c>
       <c r="AN131" s="8" t="n">
-        <v>22</v>
+        <v>8.700000000000001</v>
       </c>
       <c r="AO131" s="9" t="n">
-        <v>2288</v>
+        <v>904.8</v>
       </c>
       <c r="AP131" s="8" t="inlineStr">
         <is>
-          <t>F73979</t>
+          <t>F73982</t>
         </is>
       </c>
       <c r="AQ131" s="8" t="n"/>
@@ -13427,20 +13463,20 @@
       <c r="AJ132" s="9" t="n"/>
       <c r="AK132" s="8" t="n"/>
       <c r="AL132" s="8" t="n">
-        <v>1020</v>
+        <v>3340</v>
       </c>
       <c r="AM132" s="8" t="n">
-        <v>30.6</v>
+        <v>100.2</v>
       </c>
       <c r="AN132" s="8" t="n">
-        <v>10.2</v>
+        <v>33.4</v>
       </c>
       <c r="AO132" s="9" t="n">
-        <v>1060.8</v>
+        <v>3473.6</v>
       </c>
       <c r="AP132" s="8" t="inlineStr">
         <is>
-          <t>F73986</t>
+          <t>F73983</t>
         </is>
       </c>
       <c r="AQ132" s="8" t="n"/>
@@ -13506,20 +13542,20 @@
       <c r="AJ133" s="9" t="n"/>
       <c r="AK133" s="8" t="n"/>
       <c r="AL133" s="8" t="n">
-        <v>670</v>
+        <v>230</v>
       </c>
       <c r="AM133" s="8" t="n">
-        <v>20.1</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="AN133" s="8" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="AO133" s="9" t="n">
-        <v>696.8000000000001</v>
+        <v>239.2</v>
       </c>
       <c r="AP133" s="8" t="inlineStr">
         <is>
-          <t>F73981</t>
+          <t>F73984</t>
         </is>
       </c>
       <c r="AQ133" s="8" t="n"/>
@@ -13585,20 +13621,20 @@
       <c r="AJ134" s="9" t="n"/>
       <c r="AK134" s="8" t="n"/>
       <c r="AL134" s="8" t="n">
-        <v>870</v>
+        <v>1220</v>
       </c>
       <c r="AM134" s="8" t="n">
-        <v>26.1</v>
+        <v>36.6</v>
       </c>
       <c r="AN134" s="8" t="n">
-        <v>8.700000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="AO134" s="9" t="n">
-        <v>904.8</v>
+        <v>1268.8</v>
       </c>
       <c r="AP134" s="8" t="inlineStr">
         <is>
-          <t>F73982</t>
+          <t>F73985</t>
         </is>
       </c>
       <c r="AQ134" s="8" t="n"/>
@@ -13664,20 +13700,20 @@
       <c r="AJ135" s="9" t="n"/>
       <c r="AK135" s="8" t="n"/>
       <c r="AL135" s="8" t="n">
-        <v>3340</v>
+        <v>5800</v>
       </c>
       <c r="AM135" s="8" t="n">
-        <v>100.2</v>
+        <v>174</v>
       </c>
       <c r="AN135" s="8" t="n">
-        <v>33.4</v>
+        <v>58</v>
       </c>
       <c r="AO135" s="9" t="n">
-        <v>3473.6</v>
+        <v>6032</v>
       </c>
       <c r="AP135" s="8" t="inlineStr">
         <is>
-          <t>F73983</t>
+          <t>F73980</t>
         </is>
       </c>
       <c r="AQ135" s="8" t="n"/>
@@ -13737,28 +13773,28 @@
       <c r="AD136" s="8" t="n"/>
       <c r="AE136" s="9" t="n"/>
       <c r="AF136" s="8" t="n"/>
-      <c r="AG136" s="8" t="n"/>
-      <c r="AH136" s="8" t="n"/>
-      <c r="AI136" s="8" t="n"/>
-      <c r="AJ136" s="9" t="n"/>
-      <c r="AK136" s="8" t="n"/>
-      <c r="AL136" s="8" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM136" s="8" t="n">
-        <v>6.899999999999999</v>
-      </c>
-      <c r="AN136" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AO136" s="9" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="AP136" s="8" t="inlineStr">
-        <is>
-          <t>F73984</t>
-        </is>
-      </c>
+      <c r="AG136" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH136" s="8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AI136" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AJ136" s="9" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="AK136" s="8" t="inlineStr">
+        <is>
+          <t>F73975</t>
+        </is>
+      </c>
+      <c r="AL136" s="8" t="n"/>
+      <c r="AM136" s="8" t="n"/>
+      <c r="AN136" s="8" t="n"/>
+      <c r="AO136" s="9" t="n"/>
+      <c r="AP136" s="8" t="n"/>
       <c r="AQ136" s="8" t="n"/>
       <c r="AR136" s="8" t="n"/>
       <c r="AS136" s="8" t="n"/>
@@ -13816,28 +13852,28 @@
       <c r="AD137" s="8" t="n"/>
       <c r="AE137" s="9" t="n"/>
       <c r="AF137" s="8" t="n"/>
-      <c r="AG137" s="8" t="n"/>
-      <c r="AH137" s="8" t="n"/>
-      <c r="AI137" s="8" t="n"/>
-      <c r="AJ137" s="9" t="n"/>
-      <c r="AK137" s="8" t="n"/>
-      <c r="AL137" s="8" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AM137" s="8" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="AN137" s="8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AO137" s="9" t="n">
-        <v>1268.8</v>
-      </c>
-      <c r="AP137" s="8" t="inlineStr">
-        <is>
-          <t>F73985</t>
-        </is>
-      </c>
+      <c r="AG137" s="8" t="n">
+        <v>2210</v>
+      </c>
+      <c r="AH137" s="8" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="AI137" s="8" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AJ137" s="9" t="n">
+        <v>2298.4</v>
+      </c>
+      <c r="AK137" s="8" t="inlineStr">
+        <is>
+          <t>F73976</t>
+        </is>
+      </c>
+      <c r="AL137" s="8" t="n"/>
+      <c r="AM137" s="8" t="n"/>
+      <c r="AN137" s="8" t="n"/>
+      <c r="AO137" s="9" t="n"/>
+      <c r="AP137" s="8" t="n"/>
       <c r="AQ137" s="8" t="n"/>
       <c r="AR137" s="8" t="n"/>
       <c r="AS137" s="8" t="n"/>
@@ -13895,28 +13931,28 @@
       <c r="AD138" s="8" t="n"/>
       <c r="AE138" s="9" t="n"/>
       <c r="AF138" s="8" t="n"/>
-      <c r="AG138" s="8" t="n"/>
-      <c r="AH138" s="8" t="n"/>
-      <c r="AI138" s="8" t="n"/>
-      <c r="AJ138" s="9" t="n"/>
-      <c r="AK138" s="8" t="n"/>
-      <c r="AL138" s="8" t="n">
-        <v>5800</v>
-      </c>
-      <c r="AM138" s="8" t="n">
-        <v>174</v>
-      </c>
-      <c r="AN138" s="8" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO138" s="9" t="n">
-        <v>6032</v>
-      </c>
-      <c r="AP138" s="8" t="inlineStr">
-        <is>
-          <t>F73980</t>
-        </is>
-      </c>
+      <c r="AG138" s="8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AH138" s="8" t="n">
+        <v>69</v>
+      </c>
+      <c r="AI138" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ138" s="9" t="n">
+        <v>2392</v>
+      </c>
+      <c r="AK138" s="8" t="inlineStr">
+        <is>
+          <t>F73977</t>
+        </is>
+      </c>
+      <c r="AL138" s="8" t="n"/>
+      <c r="AM138" s="8" t="n"/>
+      <c r="AN138" s="8" t="n"/>
+      <c r="AO138" s="9" t="n"/>
+      <c r="AP138" s="8" t="n"/>
       <c r="AQ138" s="8" t="n"/>
       <c r="AR138" s="8" t="n"/>
       <c r="AS138" s="8" t="n"/>
@@ -13944,88 +13980,116 @@
       <c r="BO138" s="8" t="n"/>
     </row>
     <row r="139">
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" s="11" t="inlineStr">
         <is>
           <t>IRE</t>
         </is>
       </c>
-      <c r="H139" s="8" t="n"/>
-      <c r="I139" s="8" t="n"/>
-      <c r="J139" s="8" t="n"/>
-      <c r="K139" s="9" t="n"/>
-      <c r="L139" s="8" t="n"/>
-      <c r="M139" s="8" t="n"/>
-      <c r="N139" s="8" t="n"/>
-      <c r="O139" s="8" t="n"/>
-      <c r="P139" s="9" t="n"/>
-      <c r="Q139" s="8" t="n"/>
-      <c r="R139" s="8" t="n"/>
-      <c r="S139" s="8" t="n"/>
-      <c r="T139" s="8" t="n"/>
-      <c r="U139" s="9" t="n"/>
-      <c r="V139" s="8" t="n"/>
-      <c r="W139" s="8" t="n"/>
-      <c r="X139" s="8" t="n"/>
-      <c r="Y139" s="8" t="n"/>
-      <c r="Z139" s="9" t="n"/>
-      <c r="AA139" s="8" t="n"/>
-      <c r="AB139" s="8" t="n"/>
-      <c r="AC139" s="8" t="n"/>
-      <c r="AD139" s="8" t="n"/>
-      <c r="AE139" s="9" t="n"/>
-      <c r="AF139" s="8" t="n"/>
-      <c r="AG139" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH139" s="8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AI139" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AJ139" s="9" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="AK139" s="8" t="inlineStr">
-        <is>
-          <t>F73975</t>
-        </is>
-      </c>
-      <c r="AL139" s="8" t="n"/>
-      <c r="AM139" s="8" t="n"/>
-      <c r="AN139" s="8" t="n"/>
-      <c r="AO139" s="9" t="n"/>
-      <c r="AP139" s="8" t="n"/>
-      <c r="AQ139" s="8" t="n"/>
-      <c r="AR139" s="8" t="n"/>
-      <c r="AS139" s="8" t="n"/>
-      <c r="AT139" s="9" t="n"/>
-      <c r="AU139" s="8" t="n"/>
-      <c r="AV139" s="8" t="n"/>
-      <c r="AW139" s="8" t="n"/>
-      <c r="AX139" s="8" t="n"/>
-      <c r="AY139" s="9" t="n"/>
-      <c r="AZ139" s="8" t="n"/>
-      <c r="BA139" s="8" t="n"/>
-      <c r="BB139" s="8" t="n"/>
-      <c r="BC139" s="8" t="n"/>
-      <c r="BD139" s="9" t="n"/>
-      <c r="BE139" s="8" t="n"/>
-      <c r="BF139" s="8" t="n"/>
-      <c r="BG139" s="8" t="n"/>
-      <c r="BH139" s="8" t="n"/>
-      <c r="BI139" s="9" t="n"/>
-      <c r="BJ139" s="8" t="n"/>
-      <c r="BK139" s="8" t="n"/>
-      <c r="BL139" s="8" t="n"/>
-      <c r="BM139" s="8" t="n"/>
-      <c r="BN139" s="9" t="n"/>
-      <c r="BO139" s="8" t="n"/>
+      <c r="F139" s="11" t="n"/>
+      <c r="G139" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H139" s="11" t="n"/>
+      <c r="I139" s="11" t="n"/>
+      <c r="J139" s="11" t="n"/>
+      <c r="K139" s="11" t="n"/>
+      <c r="L139" s="11" t="n"/>
+      <c r="M139" s="11" t="n"/>
+      <c r="N139" s="11" t="n"/>
+      <c r="O139" s="11" t="n"/>
+      <c r="P139" s="11" t="n"/>
+      <c r="Q139" s="11" t="n"/>
+      <c r="R139" s="11" t="n"/>
+      <c r="S139" s="11" t="n"/>
+      <c r="T139" s="11" t="n"/>
+      <c r="U139" s="11" t="n"/>
+      <c r="V139" s="11" t="n"/>
+      <c r="W139" s="11" t="n"/>
+      <c r="X139" s="11" t="n"/>
+      <c r="Y139" s="11" t="n"/>
+      <c r="Z139" s="11" t="n"/>
+      <c r="AA139" s="11" t="n"/>
+      <c r="AB139" s="11" t="n"/>
+      <c r="AC139" s="11" t="n"/>
+      <c r="AD139" s="11" t="n"/>
+      <c r="AE139" s="11" t="n"/>
+      <c r="AF139" s="11" t="n"/>
+      <c r="AG139" s="11" t="n">
+        <v>4630</v>
+      </c>
+      <c r="AH139" s="11" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="AI139" s="11" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AJ139" s="11" t="n">
+        <v>4815.200000000001</v>
+      </c>
+      <c r="AK139" s="11" t="n"/>
+      <c r="AL139" s="11" t="n">
+        <v>15350</v>
+      </c>
+      <c r="AM139" s="11" t="n">
+        <v>460.5</v>
+      </c>
+      <c r="AN139" s="11" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="AO139" s="11" t="n">
+        <v>15964</v>
+      </c>
+      <c r="AP139" s="11" t="n"/>
+      <c r="AQ139" s="11" t="n"/>
+      <c r="AR139" s="11" t="n"/>
+      <c r="AS139" s="11" t="n"/>
+      <c r="AT139" s="11" t="n"/>
+      <c r="AU139" s="11" t="n"/>
+      <c r="AV139" s="11" t="n"/>
+      <c r="AW139" s="11" t="n"/>
+      <c r="AX139" s="11" t="n"/>
+      <c r="AY139" s="11" t="n"/>
+      <c r="AZ139" s="11" t="n"/>
+      <c r="BA139" s="11" t="n"/>
+      <c r="BB139" s="11" t="n"/>
+      <c r="BC139" s="11" t="n"/>
+      <c r="BD139" s="11" t="n"/>
+      <c r="BE139" s="11" t="n"/>
+      <c r="BF139" s="11" t="n"/>
+      <c r="BG139" s="11" t="n"/>
+      <c r="BH139" s="11" t="n"/>
+      <c r="BI139" s="11" t="n"/>
+      <c r="BJ139" s="11" t="n"/>
+      <c r="BK139" s="11" t="n"/>
+      <c r="BL139" s="11" t="n"/>
+      <c r="BM139" s="11" t="n"/>
+      <c r="BN139" s="11" t="n"/>
+      <c r="BO139" s="11" t="n"/>
     </row>
     <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>PO00060496</t>
+        </is>
+      </c>
+      <c r="B140" s="5" t="n"/>
+      <c r="C140" s="5" t="n"/>
+      <c r="D140" s="6" t="n"/>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>F&amp;BAPRDEC24FEE</t>
+        </is>
+      </c>
+      <c r="G140" s="7" t="inlineStr">
+        <is>
+          <t>Retainer Fee</t>
         </is>
       </c>
       <c r="H140" s="8" t="n"/>
@@ -14053,28 +14117,28 @@
       <c r="AD140" s="8" t="n"/>
       <c r="AE140" s="9" t="n"/>
       <c r="AF140" s="8" t="n"/>
-      <c r="AG140" s="8" t="n">
-        <v>2210</v>
-      </c>
-      <c r="AH140" s="8" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="AI140" s="8" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AJ140" s="9" t="n">
-        <v>2298.4</v>
-      </c>
-      <c r="AK140" s="8" t="inlineStr">
-        <is>
-          <t>F73976</t>
-        </is>
-      </c>
-      <c r="AL140" s="8" t="n"/>
-      <c r="AM140" s="8" t="n"/>
-      <c r="AN140" s="8" t="n"/>
-      <c r="AO140" s="9" t="n"/>
-      <c r="AP140" s="8" t="n"/>
+      <c r="AG140" s="8" t="n"/>
+      <c r="AH140" s="8" t="n"/>
+      <c r="AI140" s="8" t="n"/>
+      <c r="AJ140" s="9" t="n"/>
+      <c r="AK140" s="8" t="n"/>
+      <c r="AL140" s="8" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AM140" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AN140" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO140" s="9" t="n">
+        <v>2496</v>
+      </c>
+      <c r="AP140" s="8" t="inlineStr">
+        <is>
+          <t>F73974</t>
+        </is>
+      </c>
       <c r="AQ140" s="8" t="n"/>
       <c r="AR140" s="8" t="n"/>
       <c r="AS140" s="8" t="n"/>
@@ -14104,7 +14168,12 @@
     <row r="141">
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>REGIONALI&amp;AFEEAPRDEC</t>
         </is>
       </c>
       <c r="H141" s="8" t="n"/>
@@ -14132,28 +14201,28 @@
       <c r="AD141" s="8" t="n"/>
       <c r="AE141" s="9" t="n"/>
       <c r="AF141" s="8" t="n"/>
-      <c r="AG141" s="8" t="n">
-        <v>2300</v>
-      </c>
-      <c r="AH141" s="8" t="n">
-        <v>69</v>
-      </c>
-      <c r="AI141" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ141" s="9" t="n">
-        <v>2392</v>
-      </c>
-      <c r="AK141" s="8" t="inlineStr">
-        <is>
-          <t>F73977</t>
-        </is>
-      </c>
-      <c r="AL141" s="8" t="n"/>
-      <c r="AM141" s="8" t="n"/>
-      <c r="AN141" s="8" t="n"/>
-      <c r="AO141" s="9" t="n"/>
-      <c r="AP141" s="8" t="n"/>
+      <c r="AG141" s="8" t="n"/>
+      <c r="AH141" s="8" t="n"/>
+      <c r="AI141" s="8" t="n"/>
+      <c r="AJ141" s="9" t="n"/>
+      <c r="AK141" s="8" t="n"/>
+      <c r="AL141" s="8" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AM141" s="8" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="AN141" s="8" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AO141" s="9" t="n">
+        <v>2111.2</v>
+      </c>
+      <c r="AP141" s="8" t="inlineStr">
+        <is>
+          <t>F73990</t>
+        </is>
+      </c>
       <c r="AQ141" s="8" t="n"/>
       <c r="AR141" s="8" t="n"/>
       <c r="AS141" s="8" t="n"/>
@@ -14181,90 +14250,99 @@
       <c r="BO141" s="8" t="n"/>
     </row>
     <row r="142">
-      <c r="E142" s="11" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="F142" s="11" t="n"/>
-      <c r="G142" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H142" s="11" t="n"/>
-      <c r="I142" s="11" t="n"/>
-      <c r="J142" s="11" t="n"/>
-      <c r="K142" s="11" t="n"/>
-      <c r="L142" s="11" t="n"/>
-      <c r="M142" s="11" t="n"/>
-      <c r="N142" s="11" t="n"/>
-      <c r="O142" s="11" t="n"/>
-      <c r="P142" s="11" t="n"/>
-      <c r="Q142" s="11" t="n"/>
-      <c r="R142" s="11" t="n"/>
-      <c r="S142" s="11" t="n"/>
-      <c r="T142" s="11" t="n"/>
-      <c r="U142" s="11" t="n"/>
-      <c r="V142" s="11" t="n"/>
-      <c r="W142" s="11" t="n"/>
-      <c r="X142" s="11" t="n"/>
-      <c r="Y142" s="11" t="n"/>
-      <c r="Z142" s="11" t="n"/>
-      <c r="AA142" s="11" t="n"/>
-      <c r="AB142" s="11" t="n"/>
-      <c r="AC142" s="11" t="n"/>
-      <c r="AD142" s="11" t="n"/>
-      <c r="AE142" s="11" t="n"/>
-      <c r="AF142" s="11" t="n"/>
-      <c r="AG142" s="11" t="n"/>
-      <c r="AH142" s="11" t="n"/>
-      <c r="AI142" s="11" t="n"/>
-      <c r="AJ142" s="11" t="n"/>
-      <c r="AK142" s="11" t="n"/>
-      <c r="AL142" s="11" t="n">
-        <v>15350</v>
-      </c>
-      <c r="AM142" s="11" t="n">
-        <v>460.5</v>
-      </c>
-      <c r="AN142" s="11" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="AO142" s="11" t="n">
-        <v>15964</v>
-      </c>
-      <c r="AP142" s="11" t="n"/>
-      <c r="AQ142" s="11" t="n"/>
-      <c r="AR142" s="11" t="n"/>
-      <c r="AS142" s="11" t="n"/>
-      <c r="AT142" s="11" t="n"/>
-      <c r="AU142" s="11" t="n"/>
-      <c r="AV142" s="11" t="n"/>
-      <c r="AW142" s="11" t="n"/>
-      <c r="AX142" s="11" t="n"/>
-      <c r="AY142" s="11" t="n"/>
-      <c r="AZ142" s="11" t="n"/>
-      <c r="BA142" s="11" t="n"/>
-      <c r="BB142" s="11" t="n"/>
-      <c r="BC142" s="11" t="n"/>
-      <c r="BD142" s="11" t="n"/>
-      <c r="BE142" s="11" t="n"/>
-      <c r="BF142" s="11" t="n"/>
-      <c r="BG142" s="11" t="n"/>
-      <c r="BH142" s="11" t="n"/>
-      <c r="BI142" s="11" t="n"/>
-      <c r="BJ142" s="11" t="n"/>
-      <c r="BK142" s="11" t="n"/>
-      <c r="BL142" s="11" t="n"/>
-      <c r="BM142" s="11" t="n"/>
-      <c r="BN142" s="11" t="n"/>
-      <c r="BO142" s="11" t="n"/>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>REGIONALOPSAPRDEC24</t>
+        </is>
+      </c>
+      <c r="H142" s="8" t="n"/>
+      <c r="I142" s="8" t="n"/>
+      <c r="J142" s="8" t="n"/>
+      <c r="K142" s="9" t="n"/>
+      <c r="L142" s="8" t="n"/>
+      <c r="M142" s="8" t="n"/>
+      <c r="N142" s="8" t="n"/>
+      <c r="O142" s="8" t="n"/>
+      <c r="P142" s="9" t="n"/>
+      <c r="Q142" s="8" t="n"/>
+      <c r="R142" s="8" t="n"/>
+      <c r="S142" s="8" t="n"/>
+      <c r="T142" s="8" t="n"/>
+      <c r="U142" s="9" t="n"/>
+      <c r="V142" s="8" t="n"/>
+      <c r="W142" s="8" t="n"/>
+      <c r="X142" s="8" t="n"/>
+      <c r="Y142" s="8" t="n"/>
+      <c r="Z142" s="9" t="n"/>
+      <c r="AA142" s="8" t="n"/>
+      <c r="AB142" s="8" t="n"/>
+      <c r="AC142" s="8" t="n"/>
+      <c r="AD142" s="8" t="n"/>
+      <c r="AE142" s="9" t="n"/>
+      <c r="AF142" s="8" t="n"/>
+      <c r="AG142" s="8" t="n"/>
+      <c r="AH142" s="8" t="n"/>
+      <c r="AI142" s="8" t="n"/>
+      <c r="AJ142" s="9" t="n"/>
+      <c r="AK142" s="8" t="n"/>
+      <c r="AL142" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM142" s="8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN142" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO142" s="9" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="AP142" s="8" t="inlineStr">
+        <is>
+          <t>F73940</t>
+        </is>
+      </c>
+      <c r="AQ142" s="8" t="n"/>
+      <c r="AR142" s="8" t="n"/>
+      <c r="AS142" s="8" t="n"/>
+      <c r="AT142" s="9" t="n"/>
+      <c r="AU142" s="8" t="n"/>
+      <c r="AV142" s="8" t="n"/>
+      <c r="AW142" s="8" t="n"/>
+      <c r="AX142" s="8" t="n"/>
+      <c r="AY142" s="9" t="n"/>
+      <c r="AZ142" s="8" t="n"/>
+      <c r="BA142" s="8" t="n"/>
+      <c r="BB142" s="8" t="n"/>
+      <c r="BC142" s="8" t="n"/>
+      <c r="BD142" s="9" t="n"/>
+      <c r="BE142" s="8" t="n"/>
+      <c r="BF142" s="8" t="n"/>
+      <c r="BG142" s="8" t="n"/>
+      <c r="BH142" s="8" t="n"/>
+      <c r="BI142" s="9" t="n"/>
+      <c r="BJ142" s="8" t="n"/>
+      <c r="BK142" s="8" t="n"/>
+      <c r="BL142" s="8" t="n"/>
+      <c r="BM142" s="8" t="n"/>
+      <c r="BN142" s="9" t="n"/>
+      <c r="BO142" s="8" t="n"/>
     </row>
     <row r="143">
       <c r="E143" s="11" t="inlineStr">
         <is>
-          <t>IRE</t>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F143" s="11" t="n"/>
+      <c r="G143" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
       <c r="H143" s="11" t="n"/>
@@ -14292,23 +14370,23 @@
       <c r="AD143" s="11" t="n"/>
       <c r="AE143" s="11" t="n"/>
       <c r="AF143" s="11" t="n"/>
-      <c r="AG143" s="11" t="n">
-        <v>4630</v>
-      </c>
-      <c r="AH143" s="11" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="AI143" s="11" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="AJ143" s="11" t="n">
-        <v>4815.200000000001</v>
-      </c>
+      <c r="AG143" s="11" t="n"/>
+      <c r="AH143" s="11" t="n"/>
+      <c r="AI143" s="11" t="n"/>
+      <c r="AJ143" s="11" t="n"/>
       <c r="AK143" s="11" t="n"/>
-      <c r="AL143" s="11" t="n"/>
-      <c r="AM143" s="11" t="n"/>
-      <c r="AN143" s="11" t="n"/>
-      <c r="AO143" s="11" t="n"/>
+      <c r="AL143" s="11" t="n">
+        <v>4550</v>
+      </c>
+      <c r="AM143" s="11" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="AN143" s="11" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AO143" s="11" t="n">
+        <v>4732.6</v>
+      </c>
       <c r="AP143" s="11" t="n"/>
       <c r="AQ143" s="11" t="n"/>
       <c r="AR143" s="11" t="n"/>
@@ -14336,424 +14414,74 @@
       <c r="BN143" s="11" t="n"/>
       <c r="BO143" s="11" t="n"/>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>PO00060496</t>
-        </is>
-      </c>
-      <c r="B144" s="5" t="n"/>
-      <c r="C144" s="5" t="n"/>
-      <c r="D144" s="6" t="n"/>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>F&amp;BAPRDEC24FEE</t>
-        </is>
-      </c>
-      <c r="G144" s="7" t="inlineStr">
-        <is>
-          <t>Retainer Fee</t>
-        </is>
-      </c>
-      <c r="H144" s="8" t="n"/>
-      <c r="I144" s="8" t="n"/>
-      <c r="J144" s="8" t="n"/>
-      <c r="K144" s="9" t="n"/>
-      <c r="L144" s="8" t="n"/>
-      <c r="M144" s="8" t="n"/>
-      <c r="N144" s="8" t="n"/>
-      <c r="O144" s="8" t="n"/>
-      <c r="P144" s="9" t="n"/>
-      <c r="Q144" s="8" t="n"/>
-      <c r="R144" s="8" t="n"/>
-      <c r="S144" s="8" t="n"/>
-      <c r="T144" s="8" t="n"/>
-      <c r="U144" s="9" t="n"/>
-      <c r="V144" s="8" t="n"/>
-      <c r="W144" s="8" t="n"/>
-      <c r="X144" s="8" t="n"/>
-      <c r="Y144" s="8" t="n"/>
-      <c r="Z144" s="9" t="n"/>
-      <c r="AA144" s="8" t="n"/>
-      <c r="AB144" s="8" t="n"/>
-      <c r="AC144" s="8" t="n"/>
-      <c r="AD144" s="8" t="n"/>
-      <c r="AE144" s="9" t="n"/>
-      <c r="AF144" s="8" t="n"/>
-      <c r="AG144" s="8" t="n"/>
-      <c r="AH144" s="8" t="n"/>
-      <c r="AI144" s="8" t="n"/>
-      <c r="AJ144" s="9" t="n"/>
-      <c r="AK144" s="8" t="n"/>
-      <c r="AL144" s="8" t="n">
-        <v>2400</v>
-      </c>
-      <c r="AM144" s="8" t="n">
-        <v>72</v>
-      </c>
-      <c r="AN144" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO144" s="9" t="n">
-        <v>2496</v>
-      </c>
-      <c r="AP144" s="8" t="inlineStr">
-        <is>
-          <t>F73974</t>
-        </is>
-      </c>
-      <c r="AQ144" s="8" t="n"/>
-      <c r="AR144" s="8" t="n"/>
-      <c r="AS144" s="8" t="n"/>
-      <c r="AT144" s="9" t="n"/>
-      <c r="AU144" s="8" t="n"/>
-      <c r="AV144" s="8" t="n"/>
-      <c r="AW144" s="8" t="n"/>
-      <c r="AX144" s="8" t="n"/>
-      <c r="AY144" s="9" t="n"/>
-      <c r="AZ144" s="8" t="n"/>
-      <c r="BA144" s="8" t="n"/>
-      <c r="BB144" s="8" t="n"/>
-      <c r="BC144" s="8" t="n"/>
-      <c r="BD144" s="9" t="n"/>
-      <c r="BE144" s="8" t="n"/>
-      <c r="BF144" s="8" t="n"/>
-      <c r="BG144" s="8" t="n"/>
-      <c r="BH144" s="8" t="n"/>
-      <c r="BI144" s="9" t="n"/>
-      <c r="BJ144" s="8" t="n"/>
-      <c r="BK144" s="8" t="n"/>
-      <c r="BL144" s="8" t="n"/>
-      <c r="BM144" s="8" t="n"/>
-      <c r="BN144" s="9" t="n"/>
-      <c r="BO144" s="8" t="n"/>
-    </row>
-    <row r="145">
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>REGIONALI&amp;AFEEAPRDEC</t>
-        </is>
-      </c>
-      <c r="H145" s="8" t="n"/>
-      <c r="I145" s="8" t="n"/>
-      <c r="J145" s="8" t="n"/>
-      <c r="K145" s="9" t="n"/>
-      <c r="L145" s="8" t="n"/>
-      <c r="M145" s="8" t="n"/>
-      <c r="N145" s="8" t="n"/>
-      <c r="O145" s="8" t="n"/>
-      <c r="P145" s="9" t="n"/>
-      <c r="Q145" s="8" t="n"/>
-      <c r="R145" s="8" t="n"/>
-      <c r="S145" s="8" t="n"/>
-      <c r="T145" s="8" t="n"/>
-      <c r="U145" s="9" t="n"/>
-      <c r="V145" s="8" t="n"/>
-      <c r="W145" s="8" t="n"/>
-      <c r="X145" s="8" t="n"/>
-      <c r="Y145" s="8" t="n"/>
-      <c r="Z145" s="9" t="n"/>
-      <c r="AA145" s="8" t="n"/>
-      <c r="AB145" s="8" t="n"/>
-      <c r="AC145" s="8" t="n"/>
-      <c r="AD145" s="8" t="n"/>
-      <c r="AE145" s="9" t="n"/>
-      <c r="AF145" s="8" t="n"/>
-      <c r="AG145" s="8" t="n"/>
-      <c r="AH145" s="8" t="n"/>
-      <c r="AI145" s="8" t="n"/>
-      <c r="AJ145" s="9" t="n"/>
-      <c r="AK145" s="8" t="n"/>
-      <c r="AL145" s="8" t="n">
-        <v>2030</v>
-      </c>
-      <c r="AM145" s="8" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="AN145" s="8" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AO145" s="9" t="n">
-        <v>2111.2</v>
-      </c>
-      <c r="AP145" s="8" t="inlineStr">
-        <is>
-          <t>F73990</t>
-        </is>
-      </c>
-      <c r="AQ145" s="8" t="n"/>
-      <c r="AR145" s="8" t="n"/>
-      <c r="AS145" s="8" t="n"/>
-      <c r="AT145" s="9" t="n"/>
-      <c r="AU145" s="8" t="n"/>
-      <c r="AV145" s="8" t="n"/>
-      <c r="AW145" s="8" t="n"/>
-      <c r="AX145" s="8" t="n"/>
-      <c r="AY145" s="9" t="n"/>
-      <c r="AZ145" s="8" t="n"/>
-      <c r="BA145" s="8" t="n"/>
-      <c r="BB145" s="8" t="n"/>
-      <c r="BC145" s="8" t="n"/>
-      <c r="BD145" s="9" t="n"/>
-      <c r="BE145" s="8" t="n"/>
-      <c r="BF145" s="8" t="n"/>
-      <c r="BG145" s="8" t="n"/>
-      <c r="BH145" s="8" t="n"/>
-      <c r="BI145" s="9" t="n"/>
-      <c r="BJ145" s="8" t="n"/>
-      <c r="BK145" s="8" t="n"/>
-      <c r="BL145" s="8" t="n"/>
-      <c r="BM145" s="8" t="n"/>
-      <c r="BN145" s="9" t="n"/>
-      <c r="BO145" s="8" t="n"/>
-    </row>
-    <row r="146">
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>REGIONALOPSAPRDEC24</t>
-        </is>
-      </c>
-      <c r="H146" s="8" t="n"/>
-      <c r="I146" s="8" t="n"/>
-      <c r="J146" s="8" t="n"/>
-      <c r="K146" s="9" t="n"/>
-      <c r="L146" s="8" t="n"/>
-      <c r="M146" s="8" t="n"/>
-      <c r="N146" s="8" t="n"/>
-      <c r="O146" s="8" t="n"/>
-      <c r="P146" s="9" t="n"/>
-      <c r="Q146" s="8" t="n"/>
-      <c r="R146" s="8" t="n"/>
-      <c r="S146" s="8" t="n"/>
-      <c r="T146" s="8" t="n"/>
-      <c r="U146" s="9" t="n"/>
-      <c r="V146" s="8" t="n"/>
-      <c r="W146" s="8" t="n"/>
-      <c r="X146" s="8" t="n"/>
-      <c r="Y146" s="8" t="n"/>
-      <c r="Z146" s="9" t="n"/>
-      <c r="AA146" s="8" t="n"/>
-      <c r="AB146" s="8" t="n"/>
-      <c r="AC146" s="8" t="n"/>
-      <c r="AD146" s="8" t="n"/>
-      <c r="AE146" s="9" t="n"/>
-      <c r="AF146" s="8" t="n"/>
-      <c r="AG146" s="8" t="n"/>
-      <c r="AH146" s="8" t="n"/>
-      <c r="AI146" s="8" t="n"/>
-      <c r="AJ146" s="9" t="n"/>
-      <c r="AK146" s="8" t="n"/>
-      <c r="AL146" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM146" s="8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AN146" s="8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO146" s="9" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="AP146" s="8" t="inlineStr">
-        <is>
-          <t>F73940</t>
-        </is>
-      </c>
-      <c r="AQ146" s="8" t="n"/>
-      <c r="AR146" s="8" t="n"/>
-      <c r="AS146" s="8" t="n"/>
-      <c r="AT146" s="9" t="n"/>
-      <c r="AU146" s="8" t="n"/>
-      <c r="AV146" s="8" t="n"/>
-      <c r="AW146" s="8" t="n"/>
-      <c r="AX146" s="8" t="n"/>
-      <c r="AY146" s="9" t="n"/>
-      <c r="AZ146" s="8" t="n"/>
-      <c r="BA146" s="8" t="n"/>
-      <c r="BB146" s="8" t="n"/>
-      <c r="BC146" s="8" t="n"/>
-      <c r="BD146" s="9" t="n"/>
-      <c r="BE146" s="8" t="n"/>
-      <c r="BF146" s="8" t="n"/>
-      <c r="BG146" s="8" t="n"/>
-      <c r="BH146" s="8" t="n"/>
-      <c r="BI146" s="9" t="n"/>
-      <c r="BJ146" s="8" t="n"/>
-      <c r="BK146" s="8" t="n"/>
-      <c r="BL146" s="8" t="n"/>
-      <c r="BM146" s="8" t="n"/>
-      <c r="BN146" s="9" t="n"/>
-      <c r="BO146" s="8" t="n"/>
-    </row>
-    <row r="147">
-      <c r="E147" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F147" s="11" t="n"/>
-      <c r="G147" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H147" s="11" t="n"/>
-      <c r="I147" s="11" t="n"/>
-      <c r="J147" s="11" t="n"/>
-      <c r="K147" s="11" t="n"/>
-      <c r="L147" s="11" t="n"/>
-      <c r="M147" s="11" t="n"/>
-      <c r="N147" s="11" t="n"/>
-      <c r="O147" s="11" t="n"/>
-      <c r="P147" s="11" t="n"/>
-      <c r="Q147" s="11" t="n"/>
-      <c r="R147" s="11" t="n"/>
-      <c r="S147" s="11" t="n"/>
-      <c r="T147" s="11" t="n"/>
-      <c r="U147" s="11" t="n"/>
-      <c r="V147" s="11" t="n"/>
-      <c r="W147" s="11" t="n"/>
-      <c r="X147" s="11" t="n"/>
-      <c r="Y147" s="11" t="n"/>
-      <c r="Z147" s="11" t="n"/>
-      <c r="AA147" s="11" t="n"/>
-      <c r="AB147" s="11" t="n"/>
-      <c r="AC147" s="11" t="n"/>
-      <c r="AD147" s="11" t="n"/>
-      <c r="AE147" s="11" t="n"/>
-      <c r="AF147" s="11" t="n"/>
-      <c r="AG147" s="11" t="n"/>
-      <c r="AH147" s="11" t="n"/>
-      <c r="AI147" s="11" t="n"/>
-      <c r="AJ147" s="11" t="n"/>
-      <c r="AK147" s="11" t="n"/>
-      <c r="AL147" s="11" t="n">
-        <v>4550</v>
-      </c>
-      <c r="AM147" s="11" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="AN147" s="11" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="AO147" s="11" t="n">
-        <v>4732.6</v>
-      </c>
-      <c r="AP147" s="11" t="n"/>
-      <c r="AQ147" s="11" t="n"/>
-      <c r="AR147" s="11" t="n"/>
-      <c r="AS147" s="11" t="n"/>
-      <c r="AT147" s="11" t="n"/>
-      <c r="AU147" s="11" t="n"/>
-      <c r="AV147" s="11" t="n"/>
-      <c r="AW147" s="11" t="n"/>
-      <c r="AX147" s="11" t="n"/>
-      <c r="AY147" s="11" t="n"/>
-      <c r="AZ147" s="11" t="n"/>
-      <c r="BA147" s="11" t="n"/>
-      <c r="BB147" s="11" t="n"/>
-      <c r="BC147" s="11" t="n"/>
-      <c r="BD147" s="11" t="n"/>
-      <c r="BE147" s="11" t="n"/>
-      <c r="BF147" s="11" t="n"/>
-      <c r="BG147" s="11" t="n"/>
-      <c r="BH147" s="11" t="n"/>
-      <c r="BI147" s="11" t="n"/>
-      <c r="BJ147" s="11" t="n"/>
-      <c r="BK147" s="11" t="n"/>
-      <c r="BL147" s="11" t="n"/>
-      <c r="BM147" s="11" t="n"/>
-      <c r="BN147" s="11" t="n"/>
-      <c r="BO147" s="11" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="66">
     <mergeCell ref="R1:V1"/>
-    <mergeCell ref="D131:D143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="A84:A107"/>
+    <mergeCell ref="G111:G125"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A39:A75"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="A82:A105"/>
+    <mergeCell ref="D140:D143"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G77:G80"/>
     <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="G108:G112"/>
-    <mergeCell ref="B108:B130"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="F82:F104"/>
+    <mergeCell ref="G143"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="G44:G66"/>
-    <mergeCell ref="G84:G106"/>
+    <mergeCell ref="G128:G138"/>
+    <mergeCell ref="F106:F125"/>
     <mergeCell ref="F31:F37"/>
-    <mergeCell ref="C39:C76"/>
+    <mergeCell ref="D106:D127"/>
+    <mergeCell ref="D128:D139"/>
     <mergeCell ref="G67:G74"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="F131:F141"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="B39:B75"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="F75:F76"/>
     <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="B82:B105"/>
     <mergeCell ref="F3:F30"/>
-    <mergeCell ref="F147"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="D39:D76"/>
-    <mergeCell ref="B84:B107"/>
+    <mergeCell ref="C3:C38"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="C3:C38"/>
-    <mergeCell ref="C84:C107"/>
+    <mergeCell ref="F76:F79"/>
     <mergeCell ref="B3:B38"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C108:C130"/>
-    <mergeCell ref="F84:F106"/>
-    <mergeCell ref="G128:G130"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G140:G142"/>
+    <mergeCell ref="G106:G110"/>
+    <mergeCell ref="A106:A127"/>
+    <mergeCell ref="A128:A139"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="C106:C127"/>
     <mergeCell ref="G31:G37"/>
-    <mergeCell ref="A39:A76"/>
+    <mergeCell ref="C128:C139"/>
+    <mergeCell ref="F143"/>
     <mergeCell ref="G17:G30"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="C144:C147"/>
-    <mergeCell ref="D108:D130"/>
-    <mergeCell ref="G147"/>
-    <mergeCell ref="G113:G127"/>
-    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="C39:C75"/>
+    <mergeCell ref="G82:G104"/>
+    <mergeCell ref="C82:C105"/>
+    <mergeCell ref="A76:A81"/>
     <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="A131:A143"/>
-    <mergeCell ref="G131:G141"/>
-    <mergeCell ref="C131:C143"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="C76:C81"/>
     <mergeCell ref="G39:G43"/>
+    <mergeCell ref="B128:B139"/>
+    <mergeCell ref="A140:A143"/>
     <mergeCell ref="F44:F74"/>
-    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="D39:D75"/>
     <mergeCell ref="G3:G16"/>
-    <mergeCell ref="A108:A130"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="B106:B127"/>
+    <mergeCell ref="D82:D105"/>
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="B39:B76"/>
-    <mergeCell ref="D77:D83"/>
     <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="B77:B83"/>
     <mergeCell ref="D3:D38"/>
-    <mergeCell ref="F108:F127"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BF1:BJ1"/>
-    <mergeCell ref="D84:D107"/>
-    <mergeCell ref="B131:B143"/>
+    <mergeCell ref="F128:F138"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14765,7 +14493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO70"/>
+  <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20248,10 +19976,18 @@
         <v>99034.64999999999</v>
       </c>
       <c r="AK65" s="11" t="n"/>
-      <c r="AL65" s="11" t="n"/>
-      <c r="AM65" s="11" t="n"/>
-      <c r="AN65" s="11" t="n"/>
-      <c r="AO65" s="11" t="n"/>
+      <c r="AL65" s="11" t="n">
+        <v>130774</v>
+      </c>
+      <c r="AM65" s="11" t="n">
+        <v>4577.09</v>
+      </c>
+      <c r="AN65" s="11" t="n">
+        <v>1307.74</v>
+      </c>
+      <c r="AO65" s="11" t="n">
+        <v>136658.83</v>
+      </c>
       <c r="AP65" s="11" t="n"/>
       <c r="AQ65" s="11" t="n"/>
       <c r="AR65" s="11" t="n"/>
@@ -20282,7 +20018,7 @@
     <row r="66">
       <c r="E66" s="11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>IRE</t>
         </is>
       </c>
       <c r="H66" s="11" t="n"/>
@@ -20316,16 +20052,16 @@
       <c r="AJ66" s="11" t="n"/>
       <c r="AK66" s="11" t="n"/>
       <c r="AL66" s="11" t="n">
-        <v>130774</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="11" t="n">
-        <v>4577.09</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="11" t="n">
-        <v>1307.74</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="11" t="n">
-        <v>136658.83</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="11" t="n"/>
       <c r="AQ66" s="11" t="n"/>
@@ -20355,89 +20091,103 @@
       <c r="BO66" s="11" t="n"/>
     </row>
     <row r="67">
-      <c r="E67" s="11" t="inlineStr">
-        <is>
-          <t>IRE</t>
-        </is>
-      </c>
-      <c r="H67" s="11" t="n"/>
-      <c r="I67" s="11" t="n"/>
-      <c r="J67" s="11" t="n"/>
-      <c r="K67" s="11" t="n"/>
-      <c r="L67" s="11" t="n"/>
-      <c r="M67" s="11" t="n"/>
-      <c r="N67" s="11" t="n"/>
-      <c r="O67" s="11" t="n"/>
-      <c r="P67" s="11" t="n"/>
-      <c r="Q67" s="11" t="n"/>
-      <c r="R67" s="11" t="n"/>
-      <c r="S67" s="11" t="n"/>
-      <c r="T67" s="11" t="n"/>
-      <c r="U67" s="11" t="n"/>
-      <c r="V67" s="11" t="n"/>
-      <c r="W67" s="11" t="n"/>
-      <c r="X67" s="11" t="n"/>
-      <c r="Y67" s="11" t="n"/>
-      <c r="Z67" s="11" t="n"/>
-      <c r="AA67" s="11" t="n"/>
-      <c r="AB67" s="11" t="n"/>
-      <c r="AC67" s="11" t="n"/>
-      <c r="AD67" s="11" t="n"/>
-      <c r="AE67" s="11" t="n"/>
-      <c r="AF67" s="11" t="n"/>
-      <c r="AG67" s="11" t="n"/>
-      <c r="AH67" s="11" t="n"/>
-      <c r="AI67" s="11" t="n"/>
-      <c r="AJ67" s="11" t="n"/>
-      <c r="AK67" s="11" t="n"/>
-      <c r="AL67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" s="11" t="n"/>
-      <c r="AQ67" s="11" t="n"/>
-      <c r="AR67" s="11" t="n"/>
-      <c r="AS67" s="11" t="n"/>
-      <c r="AT67" s="11" t="n"/>
-      <c r="AU67" s="11" t="n"/>
-      <c r="AV67" s="11" t="n"/>
-      <c r="AW67" s="11" t="n"/>
-      <c r="AX67" s="11" t="n"/>
-      <c r="AY67" s="11" t="n"/>
-      <c r="AZ67" s="11" t="n"/>
-      <c r="BA67" s="11" t="n"/>
-      <c r="BB67" s="11" t="n"/>
-      <c r="BC67" s="11" t="n"/>
-      <c r="BD67" s="11" t="n"/>
-      <c r="BE67" s="11" t="n"/>
-      <c r="BF67" s="11" t="n"/>
-      <c r="BG67" s="11" t="n"/>
-      <c r="BH67" s="11" t="n"/>
-      <c r="BI67" s="11" t="n"/>
-      <c r="BJ67" s="11" t="n"/>
-      <c r="BK67" s="11" t="n"/>
-      <c r="BL67" s="11" t="n"/>
-      <c r="BM67" s="11" t="n"/>
-      <c r="BN67" s="11" t="n"/>
-      <c r="BO67" s="11" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>PO00060496</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="n"/>
+      <c r="C67" s="5" t="n"/>
+      <c r="D67" s="6" t="n"/>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Eyewear</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>Retainer Fee</t>
+        </is>
+      </c>
+      <c r="H67" s="8" t="n"/>
+      <c r="I67" s="8" t="n"/>
+      <c r="J67" s="8" t="n"/>
+      <c r="K67" s="9" t="n"/>
+      <c r="L67" s="8" t="n"/>
+      <c r="M67" s="8" t="n"/>
+      <c r="N67" s="8" t="n"/>
+      <c r="O67" s="8" t="n"/>
+      <c r="P67" s="9" t="n"/>
+      <c r="Q67" s="8" t="n"/>
+      <c r="R67" s="8" t="n"/>
+      <c r="S67" s="8" t="n"/>
+      <c r="T67" s="8" t="n"/>
+      <c r="U67" s="9" t="n"/>
+      <c r="V67" s="8" t="n"/>
+      <c r="W67" s="8" t="n"/>
+      <c r="X67" s="8" t="n"/>
+      <c r="Y67" s="8" t="n"/>
+      <c r="Z67" s="9" t="n"/>
+      <c r="AA67" s="8" t="n"/>
+      <c r="AB67" s="8" t="n"/>
+      <c r="AC67" s="8" t="n"/>
+      <c r="AD67" s="8" t="n"/>
+      <c r="AE67" s="9" t="n"/>
+      <c r="AF67" s="8" t="n"/>
+      <c r="AG67" s="8" t="n"/>
+      <c r="AH67" s="8" t="n"/>
+      <c r="AI67" s="8" t="n"/>
+      <c r="AJ67" s="9" t="n"/>
+      <c r="AK67" s="8" t="n"/>
+      <c r="AL67" s="8" t="n">
+        <v>820</v>
+      </c>
+      <c r="AM67" s="8" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="AN67" s="8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO67" s="9" t="n">
+        <v>852.8000000000001</v>
+      </c>
+      <c r="AP67" s="8" t="inlineStr">
+        <is>
+          <t>F73989</t>
+        </is>
+      </c>
+      <c r="AQ67" s="8" t="n"/>
+      <c r="AR67" s="8" t="n"/>
+      <c r="AS67" s="8" t="n"/>
+      <c r="AT67" s="9" t="n"/>
+      <c r="AU67" s="8" t="n"/>
+      <c r="AV67" s="8" t="n"/>
+      <c r="AW67" s="8" t="n"/>
+      <c r="AX67" s="8" t="n"/>
+      <c r="AY67" s="9" t="n"/>
+      <c r="AZ67" s="8" t="n"/>
+      <c r="BA67" s="8" t="n"/>
+      <c r="BB67" s="8" t="n"/>
+      <c r="BC67" s="8" t="n"/>
+      <c r="BD67" s="9" t="n"/>
+      <c r="BE67" s="8" t="n"/>
+      <c r="BF67" s="8" t="n"/>
+      <c r="BG67" s="8" t="n"/>
+      <c r="BH67" s="8" t="n"/>
+      <c r="BI67" s="9" t="n"/>
+      <c r="BJ67" s="8" t="n"/>
+      <c r="BK67" s="8" t="n"/>
+      <c r="BL67" s="8" t="n"/>
+      <c r="BM67" s="8" t="n"/>
+      <c r="BN67" s="9" t="n"/>
+      <c r="BO67" s="8" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>PO00060496</t>
-        </is>
-      </c>
-      <c r="B68" s="5" t="n"/>
-      <c r="C68" s="5" t="n"/>
-      <c r="D68" s="6" t="n"/>
       <c r="E68" s="2" t="inlineStr">
         <is>
           <t>UK</t>
@@ -20445,12 +20195,7 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Eyewear</t>
-        </is>
-      </c>
-      <c r="G68" s="7" t="inlineStr">
-        <is>
-          <t>Retainer Fee</t>
+          <t>FASHIONAPRDEC24FEE</t>
         </is>
       </c>
       <c r="H68" s="8" t="n"/>
@@ -20484,20 +20229,20 @@
       <c r="AJ68" s="9" t="n"/>
       <c r="AK68" s="8" t="n"/>
       <c r="AL68" s="8" t="n">
-        <v>820</v>
+        <v>540</v>
       </c>
       <c r="AM68" s="8" t="n">
-        <v>24.6</v>
+        <v>16.2</v>
       </c>
       <c r="AN68" s="8" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AO68" s="9" t="n">
-        <v>852.8000000000001</v>
+        <v>561.6</v>
       </c>
       <c r="AP68" s="8" t="inlineStr">
         <is>
-          <t>F73989</t>
+          <t>F73978</t>
         </is>
       </c>
       <c r="AQ68" s="8" t="n"/>
@@ -20527,209 +20272,125 @@
       <c r="BO68" s="8" t="n"/>
     </row>
     <row r="69">
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>FASHIONAPRDEC24FEE</t>
-        </is>
-      </c>
-      <c r="H69" s="8" t="n"/>
-      <c r="I69" s="8" t="n"/>
-      <c r="J69" s="8" t="n"/>
-      <c r="K69" s="9" t="n"/>
-      <c r="L69" s="8" t="n"/>
-      <c r="M69" s="8" t="n"/>
-      <c r="N69" s="8" t="n"/>
-      <c r="O69" s="8" t="n"/>
-      <c r="P69" s="9" t="n"/>
-      <c r="Q69" s="8" t="n"/>
-      <c r="R69" s="8" t="n"/>
-      <c r="S69" s="8" t="n"/>
-      <c r="T69" s="8" t="n"/>
-      <c r="U69" s="9" t="n"/>
-      <c r="V69" s="8" t="n"/>
-      <c r="W69" s="8" t="n"/>
-      <c r="X69" s="8" t="n"/>
-      <c r="Y69" s="8" t="n"/>
-      <c r="Z69" s="9" t="n"/>
-      <c r="AA69" s="8" t="n"/>
-      <c r="AB69" s="8" t="n"/>
-      <c r="AC69" s="8" t="n"/>
-      <c r="AD69" s="8" t="n"/>
-      <c r="AE69" s="9" t="n"/>
-      <c r="AF69" s="8" t="n"/>
-      <c r="AG69" s="8" t="n"/>
-      <c r="AH69" s="8" t="n"/>
-      <c r="AI69" s="8" t="n"/>
-      <c r="AJ69" s="9" t="n"/>
-      <c r="AK69" s="8" t="n"/>
-      <c r="AL69" s="8" t="n">
-        <v>540</v>
-      </c>
-      <c r="AM69" s="8" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="AN69" s="8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO69" s="9" t="n">
-        <v>561.6</v>
-      </c>
-      <c r="AP69" s="8" t="inlineStr">
-        <is>
-          <t>F73978</t>
-        </is>
-      </c>
-      <c r="AQ69" s="8" t="n"/>
-      <c r="AR69" s="8" t="n"/>
-      <c r="AS69" s="8" t="n"/>
-      <c r="AT69" s="9" t="n"/>
-      <c r="AU69" s="8" t="n"/>
-      <c r="AV69" s="8" t="n"/>
-      <c r="AW69" s="8" t="n"/>
-      <c r="AX69" s="8" t="n"/>
-      <c r="AY69" s="9" t="n"/>
-      <c r="AZ69" s="8" t="n"/>
-      <c r="BA69" s="8" t="n"/>
-      <c r="BB69" s="8" t="n"/>
-      <c r="BC69" s="8" t="n"/>
-      <c r="BD69" s="9" t="n"/>
-      <c r="BE69" s="8" t="n"/>
-      <c r="BF69" s="8" t="n"/>
-      <c r="BG69" s="8" t="n"/>
-      <c r="BH69" s="8" t="n"/>
-      <c r="BI69" s="9" t="n"/>
-      <c r="BJ69" s="8" t="n"/>
-      <c r="BK69" s="8" t="n"/>
-      <c r="BL69" s="8" t="n"/>
-      <c r="BM69" s="8" t="n"/>
-      <c r="BN69" s="9" t="n"/>
-      <c r="BO69" s="8" t="n"/>
-    </row>
-    <row r="70">
-      <c r="E70" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F70" s="11" t="n"/>
-      <c r="G70" s="11" t="inlineStr">
+      <c r="E69" s="11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F69" s="11" t="n"/>
+      <c r="G69" s="11" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H70" s="11" t="n"/>
-      <c r="I70" s="11" t="n"/>
-      <c r="J70" s="11" t="n"/>
-      <c r="K70" s="11" t="n"/>
-      <c r="L70" s="11" t="n"/>
-      <c r="M70" s="11" t="n"/>
-      <c r="N70" s="11" t="n"/>
-      <c r="O70" s="11" t="n"/>
-      <c r="P70" s="11" t="n"/>
-      <c r="Q70" s="11" t="n"/>
-      <c r="R70" s="11" t="n"/>
-      <c r="S70" s="11" t="n"/>
-      <c r="T70" s="11" t="n"/>
-      <c r="U70" s="11" t="n"/>
-      <c r="V70" s="11" t="n"/>
-      <c r="W70" s="11" t="n"/>
-      <c r="X70" s="11" t="n"/>
-      <c r="Y70" s="11" t="n"/>
-      <c r="Z70" s="11" t="n"/>
-      <c r="AA70" s="11" t="n"/>
-      <c r="AB70" s="11" t="n"/>
-      <c r="AC70" s="11" t="n"/>
-      <c r="AD70" s="11" t="n"/>
-      <c r="AE70" s="11" t="n"/>
-      <c r="AF70" s="11" t="n"/>
-      <c r="AG70" s="11" t="n"/>
-      <c r="AH70" s="11" t="n"/>
-      <c r="AI70" s="11" t="n"/>
-      <c r="AJ70" s="11" t="n"/>
-      <c r="AK70" s="11" t="n"/>
-      <c r="AL70" s="11" t="n">
+      <c r="H69" s="11" t="n"/>
+      <c r="I69" s="11" t="n"/>
+      <c r="J69" s="11" t="n"/>
+      <c r="K69" s="11" t="n"/>
+      <c r="L69" s="11" t="n"/>
+      <c r="M69" s="11" t="n"/>
+      <c r="N69" s="11" t="n"/>
+      <c r="O69" s="11" t="n"/>
+      <c r="P69" s="11" t="n"/>
+      <c r="Q69" s="11" t="n"/>
+      <c r="R69" s="11" t="n"/>
+      <c r="S69" s="11" t="n"/>
+      <c r="T69" s="11" t="n"/>
+      <c r="U69" s="11" t="n"/>
+      <c r="V69" s="11" t="n"/>
+      <c r="W69" s="11" t="n"/>
+      <c r="X69" s="11" t="n"/>
+      <c r="Y69" s="11" t="n"/>
+      <c r="Z69" s="11" t="n"/>
+      <c r="AA69" s="11" t="n"/>
+      <c r="AB69" s="11" t="n"/>
+      <c r="AC69" s="11" t="n"/>
+      <c r="AD69" s="11" t="n"/>
+      <c r="AE69" s="11" t="n"/>
+      <c r="AF69" s="11" t="n"/>
+      <c r="AG69" s="11" t="n"/>
+      <c r="AH69" s="11" t="n"/>
+      <c r="AI69" s="11" t="n"/>
+      <c r="AJ69" s="11" t="n"/>
+      <c r="AK69" s="11" t="n"/>
+      <c r="AL69" s="11" t="n">
         <v>1360</v>
       </c>
-      <c r="AM70" s="11" t="n">
+      <c r="AM69" s="11" t="n">
         <v>40.8</v>
       </c>
-      <c r="AN70" s="11" t="n">
+      <c r="AN69" s="11" t="n">
         <v>13.6</v>
       </c>
-      <c r="AO70" s="11" t="n">
+      <c r="AO69" s="11" t="n">
         <v>1414.4</v>
       </c>
-      <c r="AP70" s="11" t="n"/>
-      <c r="AQ70" s="11" t="n"/>
-      <c r="AR70" s="11" t="n"/>
-      <c r="AS70" s="11" t="n"/>
-      <c r="AT70" s="11" t="n"/>
-      <c r="AU70" s="11" t="n"/>
-      <c r="AV70" s="11" t="n"/>
-      <c r="AW70" s="11" t="n"/>
-      <c r="AX70" s="11" t="n"/>
-      <c r="AY70" s="11" t="n"/>
-      <c r="AZ70" s="11" t="n"/>
-      <c r="BA70" s="11" t="n"/>
-      <c r="BB70" s="11" t="n"/>
-      <c r="BC70" s="11" t="n"/>
-      <c r="BD70" s="11" t="n"/>
-      <c r="BE70" s="11" t="n"/>
-      <c r="BF70" s="11" t="n"/>
-      <c r="BG70" s="11" t="n"/>
-      <c r="BH70" s="11" t="n"/>
-      <c r="BI70" s="11" t="n"/>
-      <c r="BJ70" s="11" t="n"/>
-      <c r="BK70" s="11" t="n"/>
-      <c r="BL70" s="11" t="n"/>
-      <c r="BM70" s="11" t="n"/>
-      <c r="BN70" s="11" t="n"/>
-      <c r="BO70" s="11" t="n"/>
+      <c r="AP69" s="11" t="n"/>
+      <c r="AQ69" s="11" t="n"/>
+      <c r="AR69" s="11" t="n"/>
+      <c r="AS69" s="11" t="n"/>
+      <c r="AT69" s="11" t="n"/>
+      <c r="AU69" s="11" t="n"/>
+      <c r="AV69" s="11" t="n"/>
+      <c r="AW69" s="11" t="n"/>
+      <c r="AX69" s="11" t="n"/>
+      <c r="AY69" s="11" t="n"/>
+      <c r="AZ69" s="11" t="n"/>
+      <c r="BA69" s="11" t="n"/>
+      <c r="BB69" s="11" t="n"/>
+      <c r="BC69" s="11" t="n"/>
+      <c r="BD69" s="11" t="n"/>
+      <c r="BE69" s="11" t="n"/>
+      <c r="BF69" s="11" t="n"/>
+      <c r="BG69" s="11" t="n"/>
+      <c r="BH69" s="11" t="n"/>
+      <c r="BI69" s="11" t="n"/>
+      <c r="BJ69" s="11" t="n"/>
+      <c r="BK69" s="11" t="n"/>
+      <c r="BL69" s="11" t="n"/>
+      <c r="BM69" s="11" t="n"/>
+      <c r="BN69" s="11" t="n"/>
+      <c r="BO69" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="R1:V1"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D7:D66"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="B7:B67"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B68:B70"/>
     <mergeCell ref="F15:F62"/>
     <mergeCell ref="G15:G45"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="D67:D69"/>
     <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="A7:A67"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="C7:C66"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="F69"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D7:D67"/>
-    <mergeCell ref="G70"/>
+    <mergeCell ref="B7:B66"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="G51:G59"/>
-    <mergeCell ref="F65:F67"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="G46:G50"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="F70"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="G10:G14"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G69"/>
+    <mergeCell ref="A7:A66"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="C7:C67"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="F63:F64"/>
     <mergeCell ref="BK1:BO1"/>
@@ -20745,7 +20406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO43"/>
+  <dimension ref="A1:BO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24073,15 +23734,31 @@
       <c r="Y38" s="11" t="n"/>
       <c r="Z38" s="11" t="n"/>
       <c r="AA38" s="11" t="n"/>
-      <c r="AB38" s="11" t="n"/>
-      <c r="AC38" s="11" t="n"/>
-      <c r="AD38" s="11" t="n"/>
-      <c r="AE38" s="11" t="n"/>
+      <c r="AB38" s="11" t="n">
+        <v>4505</v>
+      </c>
+      <c r="AC38" s="11" t="n">
+        <v>157.675</v>
+      </c>
+      <c r="AD38" s="11" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="AE38" s="11" t="n">
+        <v>4707.725</v>
+      </c>
       <c r="AF38" s="11" t="n"/>
-      <c r="AG38" s="11" t="n"/>
-      <c r="AH38" s="11" t="n"/>
-      <c r="AI38" s="11" t="n"/>
-      <c r="AJ38" s="11" t="n"/>
+      <c r="AG38" s="11" t="n">
+        <v>43580</v>
+      </c>
+      <c r="AH38" s="11" t="n">
+        <v>1525.3</v>
+      </c>
+      <c r="AI38" s="11" t="n">
+        <v>435.8</v>
+      </c>
+      <c r="AJ38" s="11" t="n">
+        <v>45541.1</v>
+      </c>
       <c r="AK38" s="11" t="n"/>
       <c r="AL38" s="11" t="n">
         <v>24270</v>
@@ -24123,452 +23800,300 @@
       <c r="BO38" s="11" t="n"/>
     </row>
     <row r="39">
-      <c r="E39" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="n"/>
-      <c r="I39" s="11" t="n"/>
-      <c r="J39" s="11" t="n"/>
-      <c r="K39" s="11" t="n"/>
-      <c r="L39" s="11" t="n"/>
-      <c r="M39" s="11" t="n"/>
-      <c r="N39" s="11" t="n"/>
-      <c r="O39" s="11" t="n"/>
-      <c r="P39" s="11" t="n"/>
-      <c r="Q39" s="11" t="n"/>
-      <c r="R39" s="11" t="n"/>
-      <c r="S39" s="11" t="n"/>
-      <c r="T39" s="11" t="n"/>
-      <c r="U39" s="11" t="n"/>
-      <c r="V39" s="11" t="n"/>
-      <c r="W39" s="11" t="n"/>
-      <c r="X39" s="11" t="n"/>
-      <c r="Y39" s="11" t="n"/>
-      <c r="Z39" s="11" t="n"/>
-      <c r="AA39" s="11" t="n"/>
-      <c r="AB39" s="11" t="n"/>
-      <c r="AC39" s="11" t="n"/>
-      <c r="AD39" s="11" t="n"/>
-      <c r="AE39" s="11" t="n"/>
-      <c r="AF39" s="11" t="n"/>
-      <c r="AG39" s="11" t="n">
-        <v>43580</v>
-      </c>
-      <c r="AH39" s="11" t="n">
-        <v>1525.3</v>
-      </c>
-      <c r="AI39" s="11" t="n">
-        <v>435.8</v>
-      </c>
-      <c r="AJ39" s="11" t="n">
-        <v>45541.1</v>
-      </c>
-      <c r="AK39" s="11" t="n"/>
-      <c r="AL39" s="11" t="n"/>
-      <c r="AM39" s="11" t="n"/>
-      <c r="AN39" s="11" t="n"/>
-      <c r="AO39" s="11" t="n"/>
-      <c r="AP39" s="11" t="n"/>
-      <c r="AQ39" s="11" t="n"/>
-      <c r="AR39" s="11" t="n"/>
-      <c r="AS39" s="11" t="n"/>
-      <c r="AT39" s="11" t="n"/>
-      <c r="AU39" s="11" t="n"/>
-      <c r="AV39" s="11" t="n"/>
-      <c r="AW39" s="11" t="n"/>
-      <c r="AX39" s="11" t="n"/>
-      <c r="AY39" s="11" t="n"/>
-      <c r="AZ39" s="11" t="n"/>
-      <c r="BA39" s="11" t="n"/>
-      <c r="BB39" s="11" t="n"/>
-      <c r="BC39" s="11" t="n"/>
-      <c r="BD39" s="11" t="n"/>
-      <c r="BE39" s="11" t="n"/>
-      <c r="BF39" s="11" t="n"/>
-      <c r="BG39" s="11" t="n"/>
-      <c r="BH39" s="11" t="n"/>
-      <c r="BI39" s="11" t="n"/>
-      <c r="BJ39" s="11" t="n"/>
-      <c r="BK39" s="11" t="n"/>
-      <c r="BL39" s="11" t="n"/>
-      <c r="BM39" s="11" t="n"/>
-      <c r="BN39" s="11" t="n"/>
-      <c r="BO39" s="11" t="n"/>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>PO00060496</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="5" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>JEWELLERYAPRDEC24FEE</t>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
+        <is>
+          <t>Retainer Fee</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="n"/>
+      <c r="I39" s="8" t="n"/>
+      <c r="J39" s="8" t="n"/>
+      <c r="K39" s="9" t="n"/>
+      <c r="L39" s="8" t="n"/>
+      <c r="M39" s="8" t="n"/>
+      <c r="N39" s="8" t="n"/>
+      <c r="O39" s="8" t="n"/>
+      <c r="P39" s="9" t="n"/>
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="n"/>
+      <c r="S39" s="8" t="n"/>
+      <c r="T39" s="8" t="n"/>
+      <c r="U39" s="9" t="n"/>
+      <c r="V39" s="8" t="n"/>
+      <c r="W39" s="8" t="n"/>
+      <c r="X39" s="8" t="n"/>
+      <c r="Y39" s="8" t="n"/>
+      <c r="Z39" s="9" t="n"/>
+      <c r="AA39" s="8" t="n"/>
+      <c r="AB39" s="8" t="n"/>
+      <c r="AC39" s="8" t="n"/>
+      <c r="AD39" s="8" t="n"/>
+      <c r="AE39" s="9" t="n"/>
+      <c r="AF39" s="8" t="n"/>
+      <c r="AG39" s="8" t="n"/>
+      <c r="AH39" s="8" t="n"/>
+      <c r="AI39" s="8" t="n"/>
+      <c r="AJ39" s="9" t="n"/>
+      <c r="AK39" s="8" t="n"/>
+      <c r="AL39" s="8" t="n">
+        <v>340</v>
+      </c>
+      <c r="AM39" s="8" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AN39" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO39" s="9" t="n">
+        <v>353.6</v>
+      </c>
+      <c r="AP39" s="8" t="inlineStr">
+        <is>
+          <t>F73988</t>
+        </is>
+      </c>
+      <c r="AQ39" s="8" t="n"/>
+      <c r="AR39" s="8" t="n"/>
+      <c r="AS39" s="8" t="n"/>
+      <c r="AT39" s="9" t="n"/>
+      <c r="AU39" s="8" t="n"/>
+      <c r="AV39" s="8" t="n"/>
+      <c r="AW39" s="8" t="n"/>
+      <c r="AX39" s="8" t="n"/>
+      <c r="AY39" s="9" t="n"/>
+      <c r="AZ39" s="8" t="n"/>
+      <c r="BA39" s="8" t="n"/>
+      <c r="BB39" s="8" t="n"/>
+      <c r="BC39" s="8" t="n"/>
+      <c r="BD39" s="9" t="n"/>
+      <c r="BE39" s="8" t="n"/>
+      <c r="BF39" s="8" t="n"/>
+      <c r="BG39" s="8" t="n"/>
+      <c r="BH39" s="8" t="n"/>
+      <c r="BI39" s="9" t="n"/>
+      <c r="BJ39" s="8" t="n"/>
+      <c r="BK39" s="8" t="n"/>
+      <c r="BL39" s="8" t="n"/>
+      <c r="BM39" s="8" t="n"/>
+      <c r="BN39" s="9" t="n"/>
+      <c r="BO39" s="8" t="n"/>
     </row>
     <row r="40">
-      <c r="E40" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="11" t="n"/>
-      <c r="J40" s="11" t="n"/>
-      <c r="K40" s="11" t="n"/>
-      <c r="L40" s="11" t="n"/>
-      <c r="M40" s="11" t="n"/>
-      <c r="N40" s="11" t="n"/>
-      <c r="O40" s="11" t="n"/>
-      <c r="P40" s="11" t="n"/>
-      <c r="Q40" s="11" t="n"/>
-      <c r="R40" s="11" t="n"/>
-      <c r="S40" s="11" t="n"/>
-      <c r="T40" s="11" t="n"/>
-      <c r="U40" s="11" t="n"/>
-      <c r="V40" s="11" t="n"/>
-      <c r="W40" s="11" t="n"/>
-      <c r="X40" s="11" t="n"/>
-      <c r="Y40" s="11" t="n"/>
-      <c r="Z40" s="11" t="n"/>
-      <c r="AA40" s="11" t="n"/>
-      <c r="AB40" s="11" t="n">
-        <v>4505</v>
-      </c>
-      <c r="AC40" s="11" t="n">
-        <v>157.675</v>
-      </c>
-      <c r="AD40" s="11" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="AE40" s="11" t="n">
-        <v>4707.725</v>
-      </c>
-      <c r="AF40" s="11" t="n"/>
-      <c r="AG40" s="11" t="n"/>
-      <c r="AH40" s="11" t="n"/>
-      <c r="AI40" s="11" t="n"/>
-      <c r="AJ40" s="11" t="n"/>
-      <c r="AK40" s="11" t="n"/>
-      <c r="AL40" s="11" t="n"/>
-      <c r="AM40" s="11" t="n"/>
-      <c r="AN40" s="11" t="n"/>
-      <c r="AO40" s="11" t="n"/>
-      <c r="AP40" s="11" t="n"/>
-      <c r="AQ40" s="11" t="n"/>
-      <c r="AR40" s="11" t="n"/>
-      <c r="AS40" s="11" t="n"/>
-      <c r="AT40" s="11" t="n"/>
-      <c r="AU40" s="11" t="n"/>
-      <c r="AV40" s="11" t="n"/>
-      <c r="AW40" s="11" t="n"/>
-      <c r="AX40" s="11" t="n"/>
-      <c r="AY40" s="11" t="n"/>
-      <c r="AZ40" s="11" t="n"/>
-      <c r="BA40" s="11" t="n"/>
-      <c r="BB40" s="11" t="n"/>
-      <c r="BC40" s="11" t="n"/>
-      <c r="BD40" s="11" t="n"/>
-      <c r="BE40" s="11" t="n"/>
-      <c r="BF40" s="11" t="n"/>
-      <c r="BG40" s="11" t="n"/>
-      <c r="BH40" s="11" t="n"/>
-      <c r="BI40" s="11" t="n"/>
-      <c r="BJ40" s="11" t="n"/>
-      <c r="BK40" s="11" t="n"/>
-      <c r="BL40" s="11" t="n"/>
-      <c r="BM40" s="11" t="n"/>
-      <c r="BN40" s="11" t="n"/>
-      <c r="BO40" s="11" t="n"/>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>WATCHESAPRDEC24FEE</t>
+        </is>
+      </c>
+      <c r="H40" s="8" t="n"/>
+      <c r="I40" s="8" t="n"/>
+      <c r="J40" s="8" t="n"/>
+      <c r="K40" s="9" t="n"/>
+      <c r="L40" s="8" t="n"/>
+      <c r="M40" s="8" t="n"/>
+      <c r="N40" s="8" t="n"/>
+      <c r="O40" s="8" t="n"/>
+      <c r="P40" s="9" t="n"/>
+      <c r="Q40" s="8" t="n"/>
+      <c r="R40" s="8" t="n"/>
+      <c r="S40" s="8" t="n"/>
+      <c r="T40" s="8" t="n"/>
+      <c r="U40" s="9" t="n"/>
+      <c r="V40" s="8" t="n"/>
+      <c r="W40" s="8" t="n"/>
+      <c r="X40" s="8" t="n"/>
+      <c r="Y40" s="8" t="n"/>
+      <c r="Z40" s="9" t="n"/>
+      <c r="AA40" s="8" t="n"/>
+      <c r="AB40" s="8" t="n"/>
+      <c r="AC40" s="8" t="n"/>
+      <c r="AD40" s="8" t="n"/>
+      <c r="AE40" s="9" t="n"/>
+      <c r="AF40" s="8" t="n"/>
+      <c r="AG40" s="8" t="n"/>
+      <c r="AH40" s="8" t="n"/>
+      <c r="AI40" s="8" t="n"/>
+      <c r="AJ40" s="9" t="n"/>
+      <c r="AK40" s="8" t="n"/>
+      <c r="AL40" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN40" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO40" s="9" t="n">
+        <v>208</v>
+      </c>
+      <c r="AP40" s="8" t="inlineStr">
+        <is>
+          <t>F73987</t>
+        </is>
+      </c>
+      <c r="AQ40" s="8" t="n"/>
+      <c r="AR40" s="8" t="n"/>
+      <c r="AS40" s="8" t="n"/>
+      <c r="AT40" s="9" t="n"/>
+      <c r="AU40" s="8" t="n"/>
+      <c r="AV40" s="8" t="n"/>
+      <c r="AW40" s="8" t="n"/>
+      <c r="AX40" s="8" t="n"/>
+      <c r="AY40" s="9" t="n"/>
+      <c r="AZ40" s="8" t="n"/>
+      <c r="BA40" s="8" t="n"/>
+      <c r="BB40" s="8" t="n"/>
+      <c r="BC40" s="8" t="n"/>
+      <c r="BD40" s="9" t="n"/>
+      <c r="BE40" s="8" t="n"/>
+      <c r="BF40" s="8" t="n"/>
+      <c r="BG40" s="8" t="n"/>
+      <c r="BH40" s="8" t="n"/>
+      <c r="BI40" s="9" t="n"/>
+      <c r="BJ40" s="8" t="n"/>
+      <c r="BK40" s="8" t="n"/>
+      <c r="BL40" s="8" t="n"/>
+      <c r="BM40" s="8" t="n"/>
+      <c r="BN40" s="9" t="n"/>
+      <c r="BO40" s="8" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>PO00060496</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="n"/>
-      <c r="C41" s="5" t="n"/>
-      <c r="D41" s="6" t="n"/>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>JEWELLERYAPRDEC24FEE</t>
-        </is>
-      </c>
-      <c r="G41" s="7" t="inlineStr">
-        <is>
-          <t>Retainer Fee</t>
-        </is>
-      </c>
-      <c r="H41" s="8" t="n"/>
-      <c r="I41" s="8" t="n"/>
-      <c r="J41" s="8" t="n"/>
-      <c r="K41" s="9" t="n"/>
-      <c r="L41" s="8" t="n"/>
-      <c r="M41" s="8" t="n"/>
-      <c r="N41" s="8" t="n"/>
-      <c r="O41" s="8" t="n"/>
-      <c r="P41" s="9" t="n"/>
-      <c r="Q41" s="8" t="n"/>
-      <c r="R41" s="8" t="n"/>
-      <c r="S41" s="8" t="n"/>
-      <c r="T41" s="8" t="n"/>
-      <c r="U41" s="9" t="n"/>
-      <c r="V41" s="8" t="n"/>
-      <c r="W41" s="8" t="n"/>
-      <c r="X41" s="8" t="n"/>
-      <c r="Y41" s="8" t="n"/>
-      <c r="Z41" s="9" t="n"/>
-      <c r="AA41" s="8" t="n"/>
-      <c r="AB41" s="8" t="n"/>
-      <c r="AC41" s="8" t="n"/>
-      <c r="AD41" s="8" t="n"/>
-      <c r="AE41" s="9" t="n"/>
-      <c r="AF41" s="8" t="n"/>
-      <c r="AG41" s="8" t="n"/>
-      <c r="AH41" s="8" t="n"/>
-      <c r="AI41" s="8" t="n"/>
-      <c r="AJ41" s="9" t="n"/>
-      <c r="AK41" s="8" t="n"/>
-      <c r="AL41" s="8" t="n">
-        <v>340</v>
-      </c>
-      <c r="AM41" s="8" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AN41" s="8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO41" s="9" t="n">
-        <v>353.6</v>
-      </c>
-      <c r="AP41" s="8" t="inlineStr">
-        <is>
-          <t>F73988</t>
-        </is>
-      </c>
-      <c r="AQ41" s="8" t="n"/>
-      <c r="AR41" s="8" t="n"/>
-      <c r="AS41" s="8" t="n"/>
-      <c r="AT41" s="9" t="n"/>
-      <c r="AU41" s="8" t="n"/>
-      <c r="AV41" s="8" t="n"/>
-      <c r="AW41" s="8" t="n"/>
-      <c r="AX41" s="8" t="n"/>
-      <c r="AY41" s="9" t="n"/>
-      <c r="AZ41" s="8" t="n"/>
-      <c r="BA41" s="8" t="n"/>
-      <c r="BB41" s="8" t="n"/>
-      <c r="BC41" s="8" t="n"/>
-      <c r="BD41" s="9" t="n"/>
-      <c r="BE41" s="8" t="n"/>
-      <c r="BF41" s="8" t="n"/>
-      <c r="BG41" s="8" t="n"/>
-      <c r="BH41" s="8" t="n"/>
-      <c r="BI41" s="9" t="n"/>
-      <c r="BJ41" s="8" t="n"/>
-      <c r="BK41" s="8" t="n"/>
-      <c r="BL41" s="8" t="n"/>
-      <c r="BM41" s="8" t="n"/>
-      <c r="BN41" s="9" t="n"/>
-      <c r="BO41" s="8" t="n"/>
-    </row>
-    <row r="42">
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>WATCHESAPRDEC24FEE</t>
-        </is>
-      </c>
-      <c r="H42" s="8" t="n"/>
-      <c r="I42" s="8" t="n"/>
-      <c r="J42" s="8" t="n"/>
-      <c r="K42" s="9" t="n"/>
-      <c r="L42" s="8" t="n"/>
-      <c r="M42" s="8" t="n"/>
-      <c r="N42" s="8" t="n"/>
-      <c r="O42" s="8" t="n"/>
-      <c r="P42" s="9" t="n"/>
-      <c r="Q42" s="8" t="n"/>
-      <c r="R42" s="8" t="n"/>
-      <c r="S42" s="8" t="n"/>
-      <c r="T42" s="8" t="n"/>
-      <c r="U42" s="9" t="n"/>
-      <c r="V42" s="8" t="n"/>
-      <c r="W42" s="8" t="n"/>
-      <c r="X42" s="8" t="n"/>
-      <c r="Y42" s="8" t="n"/>
-      <c r="Z42" s="9" t="n"/>
-      <c r="AA42" s="8" t="n"/>
-      <c r="AB42" s="8" t="n"/>
-      <c r="AC42" s="8" t="n"/>
-      <c r="AD42" s="8" t="n"/>
-      <c r="AE42" s="9" t="n"/>
-      <c r="AF42" s="8" t="n"/>
-      <c r="AG42" s="8" t="n"/>
-      <c r="AH42" s="8" t="n"/>
-      <c r="AI42" s="8" t="n"/>
-      <c r="AJ42" s="9" t="n"/>
-      <c r="AK42" s="8" t="n"/>
-      <c r="AL42" s="8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM42" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN42" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO42" s="9" t="n">
-        <v>208</v>
-      </c>
-      <c r="AP42" s="8" t="inlineStr">
-        <is>
-          <t>F73987</t>
-        </is>
-      </c>
-      <c r="AQ42" s="8" t="n"/>
-      <c r="AR42" s="8" t="n"/>
-      <c r="AS42" s="8" t="n"/>
-      <c r="AT42" s="9" t="n"/>
-      <c r="AU42" s="8" t="n"/>
-      <c r="AV42" s="8" t="n"/>
-      <c r="AW42" s="8" t="n"/>
-      <c r="AX42" s="8" t="n"/>
-      <c r="AY42" s="9" t="n"/>
-      <c r="AZ42" s="8" t="n"/>
-      <c r="BA42" s="8" t="n"/>
-      <c r="BB42" s="8" t="n"/>
-      <c r="BC42" s="8" t="n"/>
-      <c r="BD42" s="9" t="n"/>
-      <c r="BE42" s="8" t="n"/>
-      <c r="BF42" s="8" t="n"/>
-      <c r="BG42" s="8" t="n"/>
-      <c r="BH42" s="8" t="n"/>
-      <c r="BI42" s="9" t="n"/>
-      <c r="BJ42" s="8" t="n"/>
-      <c r="BK42" s="8" t="n"/>
-      <c r="BL42" s="8" t="n"/>
-      <c r="BM42" s="8" t="n"/>
-      <c r="BN42" s="9" t="n"/>
-      <c r="BO42" s="8" t="n"/>
-    </row>
-    <row r="43">
-      <c r="E43" s="11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F43" s="11" t="n"/>
-      <c r="G43" s="11" t="inlineStr">
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F41" s="11" t="n"/>
+      <c r="G41" s="11" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H43" s="11" t="n"/>
-      <c r="I43" s="11" t="n"/>
-      <c r="J43" s="11" t="n"/>
-      <c r="K43" s="11" t="n"/>
-      <c r="L43" s="11" t="n"/>
-      <c r="M43" s="11" t="n"/>
-      <c r="N43" s="11" t="n"/>
-      <c r="O43" s="11" t="n"/>
-      <c r="P43" s="11" t="n"/>
-      <c r="Q43" s="11" t="n"/>
-      <c r="R43" s="11" t="n"/>
-      <c r="S43" s="11" t="n"/>
-      <c r="T43" s="11" t="n"/>
-      <c r="U43" s="11" t="n"/>
-      <c r="V43" s="11" t="n"/>
-      <c r="W43" s="11" t="n"/>
-      <c r="X43" s="11" t="n"/>
-      <c r="Y43" s="11" t="n"/>
-      <c r="Z43" s="11" t="n"/>
-      <c r="AA43" s="11" t="n"/>
-      <c r="AB43" s="11" t="n"/>
-      <c r="AC43" s="11" t="n"/>
-      <c r="AD43" s="11" t="n"/>
-      <c r="AE43" s="11" t="n"/>
-      <c r="AF43" s="11" t="n"/>
-      <c r="AG43" s="11" t="n"/>
-      <c r="AH43" s="11" t="n"/>
-      <c r="AI43" s="11" t="n"/>
-      <c r="AJ43" s="11" t="n"/>
-      <c r="AK43" s="11" t="n"/>
-      <c r="AL43" s="11" t="n">
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="11" t="n"/>
+      <c r="J41" s="11" t="n"/>
+      <c r="K41" s="11" t="n"/>
+      <c r="L41" s="11" t="n"/>
+      <c r="M41" s="11" t="n"/>
+      <c r="N41" s="11" t="n"/>
+      <c r="O41" s="11" t="n"/>
+      <c r="P41" s="11" t="n"/>
+      <c r="Q41" s="11" t="n"/>
+      <c r="R41" s="11" t="n"/>
+      <c r="S41" s="11" t="n"/>
+      <c r="T41" s="11" t="n"/>
+      <c r="U41" s="11" t="n"/>
+      <c r="V41" s="11" t="n"/>
+      <c r="W41" s="11" t="n"/>
+      <c r="X41" s="11" t="n"/>
+      <c r="Y41" s="11" t="n"/>
+      <c r="Z41" s="11" t="n"/>
+      <c r="AA41" s="11" t="n"/>
+      <c r="AB41" s="11" t="n"/>
+      <c r="AC41" s="11" t="n"/>
+      <c r="AD41" s="11" t="n"/>
+      <c r="AE41" s="11" t="n"/>
+      <c r="AF41" s="11" t="n"/>
+      <c r="AG41" s="11" t="n"/>
+      <c r="AH41" s="11" t="n"/>
+      <c r="AI41" s="11" t="n"/>
+      <c r="AJ41" s="11" t="n"/>
+      <c r="AK41" s="11" t="n"/>
+      <c r="AL41" s="11" t="n">
         <v>540</v>
       </c>
-      <c r="AM43" s="11" t="n">
+      <c r="AM41" s="11" t="n">
         <v>16.2</v>
       </c>
-      <c r="AN43" s="11" t="n">
+      <c r="AN41" s="11" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO43" s="11" t="n">
+      <c r="AO41" s="11" t="n">
         <v>561.5999999999999</v>
       </c>
-      <c r="AP43" s="11" t="n"/>
-      <c r="AQ43" s="11" t="n"/>
-      <c r="AR43" s="11" t="n"/>
-      <c r="AS43" s="11" t="n"/>
-      <c r="AT43" s="11" t="n"/>
-      <c r="AU43" s="11" t="n"/>
-      <c r="AV43" s="11" t="n"/>
-      <c r="AW43" s="11" t="n"/>
-      <c r="AX43" s="11" t="n"/>
-      <c r="AY43" s="11" t="n"/>
-      <c r="AZ43" s="11" t="n"/>
-      <c r="BA43" s="11" t="n"/>
-      <c r="BB43" s="11" t="n"/>
-      <c r="BC43" s="11" t="n"/>
-      <c r="BD43" s="11" t="n"/>
-      <c r="BE43" s="11" t="n"/>
-      <c r="BF43" s="11" t="n"/>
-      <c r="BG43" s="11" t="n"/>
-      <c r="BH43" s="11" t="n"/>
-      <c r="BI43" s="11" t="n"/>
-      <c r="BJ43" s="11" t="n"/>
-      <c r="BK43" s="11" t="n"/>
-      <c r="BL43" s="11" t="n"/>
-      <c r="BM43" s="11" t="n"/>
-      <c r="BN43" s="11" t="n"/>
-      <c r="BO43" s="11" t="n"/>
+      <c r="AP41" s="11" t="n"/>
+      <c r="AQ41" s="11" t="n"/>
+      <c r="AR41" s="11" t="n"/>
+      <c r="AS41" s="11" t="n"/>
+      <c r="AT41" s="11" t="n"/>
+      <c r="AU41" s="11" t="n"/>
+      <c r="AV41" s="11" t="n"/>
+      <c r="AW41" s="11" t="n"/>
+      <c r="AX41" s="11" t="n"/>
+      <c r="AY41" s="11" t="n"/>
+      <c r="AZ41" s="11" t="n"/>
+      <c r="BA41" s="11" t="n"/>
+      <c r="BB41" s="11" t="n"/>
+      <c r="BC41" s="11" t="n"/>
+      <c r="BD41" s="11" t="n"/>
+      <c r="BE41" s="11" t="n"/>
+      <c r="BF41" s="11" t="n"/>
+      <c r="BG41" s="11" t="n"/>
+      <c r="BH41" s="11" t="n"/>
+      <c r="BI41" s="11" t="n"/>
+      <c r="BJ41" s="11" t="n"/>
+      <c r="BK41" s="11" t="n"/>
+      <c r="BL41" s="11" t="n"/>
+      <c r="BM41" s="11" t="n"/>
+      <c r="BN41" s="11" t="n"/>
+      <c r="BO41" s="11" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="31">
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="F13:F37"/>
-    <mergeCell ref="F43"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="F38:F40"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A5:A40"/>
-    <mergeCell ref="B5:B40"/>
+    <mergeCell ref="G41"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B5:B38"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="D5:D40"/>
+    <mergeCell ref="D5:D38"/>
+    <mergeCell ref="D39:D41"/>
     <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="G43"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="B41:B43"/>
     <mergeCell ref="F5:F12"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="C5:C40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C5:C38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="C41:C43"/>
     <mergeCell ref="G5:G12"/>
+    <mergeCell ref="F41"/>
     <mergeCell ref="G13:G37"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="BA1:BE1"/>
     <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="D41:D43"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="A5:A38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data_engineering/FormattedAnnualBudget.xlsx
+++ b/backend/data_engineering/FormattedAnnualBudget.xlsx
@@ -1719,8 +1719,8 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D2:D5"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="A6:A9"/>
@@ -2480,11 +2480,11 @@
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C4:C12"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="E15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2991,8 +2991,8 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C4:C6"/>
   </mergeCells>
@@ -3006,7 +3006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN287"/>
+  <dimension ref="A1:BN256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3037,15 +3037,15 @@
     <col width="11" customWidth="1" min="21" max="21"/>
     <col width="13" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="11" customWidth="1" min="24" max="24"/>
     <col width="17" customWidth="1" min="25" max="25"/>
     <col width="11" customWidth="1" min="26" max="26"/>
     <col width="13" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="11" customWidth="1" min="29" max="29"/>
     <col width="17" customWidth="1" min="30" max="30"/>
     <col width="11" customWidth="1" min="31" max="31"/>
-    <col width="19" customWidth="1" min="32" max="32"/>
+    <col width="13" customWidth="1" min="32" max="32"/>
     <col width="19" customWidth="1" min="33" max="33"/>
     <col width="19" customWidth="1" min="34" max="34"/>
     <col width="19" customWidth="1" min="35" max="35"/>
@@ -26780,2562 +26780,6 @@
       <c r="BM256" s="11" t="n"/>
       <c r="BN256" s="11" t="n"/>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n"/>
-      <c r="B257" s="5" t="n"/>
-      <c r="C257" s="5" t="n"/>
-      <c r="D257" s="6" t="n"/>
-      <c r="E257" s="2" t="n"/>
-      <c r="F257" s="7" t="n"/>
-      <c r="G257" s="8" t="n"/>
-      <c r="H257" s="8" t="n"/>
-      <c r="I257" s="8" t="n"/>
-      <c r="J257" s="2" t="n"/>
-      <c r="K257" s="2" t="n"/>
-      <c r="L257" s="8" t="n"/>
-      <c r="M257" s="8" t="n"/>
-      <c r="N257" s="8" t="n"/>
-      <c r="O257" s="2" t="n"/>
-      <c r="P257" s="2" t="n"/>
-      <c r="Q257" s="8" t="n"/>
-      <c r="R257" s="8" t="n"/>
-      <c r="S257" s="8" t="n"/>
-      <c r="T257" s="2" t="n"/>
-      <c r="U257" s="2" t="n"/>
-      <c r="V257" s="8" t="n"/>
-      <c r="W257" s="8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="X257" s="8" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y257" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z257" s="2" t="n">
-        <v>2090</v>
-      </c>
-      <c r="AA257" s="8" t="n">
-        <v>3450</v>
-      </c>
-      <c r="AB257" s="8" t="n">
-        <v>120.75</v>
-      </c>
-      <c r="AC257" s="8" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="AD257" s="2" t="n">
-        <v>3605.25</v>
-      </c>
-      <c r="AE257" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF257" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG257" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH257" s="8" t="n">
-        <v>208</v>
-      </c>
-      <c r="AI257" s="2" t="n"/>
-      <c r="AJ257" s="2" t="n"/>
-      <c r="AK257" s="8" t="n"/>
-      <c r="AL257" s="8" t="n"/>
-      <c r="AM257" s="8" t="n"/>
-      <c r="AN257" s="2" t="n"/>
-      <c r="AO257" s="2" t="n"/>
-      <c r="AP257" s="8" t="n"/>
-      <c r="AQ257" s="8" t="n"/>
-      <c r="AR257" s="8" t="n"/>
-      <c r="AS257" s="2" t="n"/>
-      <c r="AT257" s="2" t="n"/>
-      <c r="AU257" s="8" t="n"/>
-      <c r="AV257" s="8" t="n"/>
-      <c r="AW257" s="8" t="n"/>
-      <c r="AX257" s="2" t="n"/>
-      <c r="AY257" s="2" t="n"/>
-      <c r="AZ257" s="8" t="n"/>
-      <c r="BA257" s="8" t="n"/>
-      <c r="BB257" s="8" t="n"/>
-      <c r="BC257" s="2" t="n"/>
-      <c r="BD257" s="2" t="n"/>
-      <c r="BE257" s="8" t="n"/>
-      <c r="BF257" s="8" t="n"/>
-      <c r="BG257" s="8" t="n"/>
-      <c r="BH257" s="2" t="n"/>
-      <c r="BI257" s="2" t="n"/>
-      <c r="BJ257" s="8" t="n"/>
-      <c r="BK257" s="8" t="n"/>
-      <c r="BL257" s="8" t="n"/>
-      <c r="BM257" s="2" t="n"/>
-      <c r="BN257" s="2" t="n"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n"/>
-      <c r="B258" s="5" t="n"/>
-      <c r="C258" s="5" t="n"/>
-      <c r="D258" s="6" t="n"/>
-      <c r="E258" s="2" t="n"/>
-      <c r="F258" s="7" t="n"/>
-      <c r="G258" s="8" t="n"/>
-      <c r="H258" s="8" t="n"/>
-      <c r="I258" s="8" t="n"/>
-      <c r="J258" s="2" t="n"/>
-      <c r="K258" s="2" t="n"/>
-      <c r="L258" s="8" t="n"/>
-      <c r="M258" s="8" t="n"/>
-      <c r="N258" s="8" t="n"/>
-      <c r="O258" s="2" t="n"/>
-      <c r="P258" s="2" t="n"/>
-      <c r="Q258" s="8" t="n"/>
-      <c r="R258" s="8" t="n"/>
-      <c r="S258" s="8" t="n"/>
-      <c r="T258" s="2" t="n"/>
-      <c r="U258" s="2" t="n"/>
-      <c r="V258" s="8" t="n"/>
-      <c r="W258" s="8" t="n">
-        <v>2300</v>
-      </c>
-      <c r="X258" s="8" t="n">
-        <v>80.50000000000001</v>
-      </c>
-      <c r="Y258" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z258" s="2" t="n">
-        <v>2403.5</v>
-      </c>
-      <c r="AA258" s="8" t="n">
-        <v>3445</v>
-      </c>
-      <c r="AB258" s="8" t="n">
-        <v>120.575</v>
-      </c>
-      <c r="AC258" s="8" t="n">
-        <v>34.45</v>
-      </c>
-      <c r="AD258" s="2" t="n">
-        <v>3600.025</v>
-      </c>
-      <c r="AE258" s="2" t="n">
-        <v>15350</v>
-      </c>
-      <c r="AF258" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG258" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH258" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI258" s="2" t="n"/>
-      <c r="AJ258" s="2" t="n"/>
-      <c r="AK258" s="8" t="n"/>
-      <c r="AL258" s="8" t="n"/>
-      <c r="AM258" s="8" t="n"/>
-      <c r="AN258" s="2" t="n"/>
-      <c r="AO258" s="2" t="n"/>
-      <c r="AP258" s="8" t="n"/>
-      <c r="AQ258" s="8" t="n"/>
-      <c r="AR258" s="8" t="n"/>
-      <c r="AS258" s="2" t="n"/>
-      <c r="AT258" s="2" t="n"/>
-      <c r="AU258" s="8" t="n"/>
-      <c r="AV258" s="8" t="n"/>
-      <c r="AW258" s="8" t="n"/>
-      <c r="AX258" s="2" t="n"/>
-      <c r="AY258" s="2" t="n"/>
-      <c r="AZ258" s="8" t="n"/>
-      <c r="BA258" s="8" t="n"/>
-      <c r="BB258" s="8" t="n"/>
-      <c r="BC258" s="2" t="n"/>
-      <c r="BD258" s="2" t="n"/>
-      <c r="BE258" s="8" t="n"/>
-      <c r="BF258" s="8" t="n"/>
-      <c r="BG258" s="8" t="n"/>
-      <c r="BH258" s="2" t="n"/>
-      <c r="BI258" s="2" t="n"/>
-      <c r="BJ258" s="8" t="n"/>
-      <c r="BK258" s="8" t="n"/>
-      <c r="BL258" s="8" t="n"/>
-      <c r="BM258" s="2" t="n"/>
-      <c r="BN258" s="2" t="n"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n"/>
-      <c r="B259" s="5" t="n"/>
-      <c r="C259" s="5" t="n"/>
-      <c r="D259" s="6" t="n"/>
-      <c r="E259" s="2" t="n"/>
-      <c r="F259" s="7" t="n"/>
-      <c r="G259" s="8" t="n"/>
-      <c r="H259" s="8" t="n"/>
-      <c r="I259" s="8" t="n"/>
-      <c r="J259" s="2" t="n"/>
-      <c r="K259" s="2" t="n"/>
-      <c r="L259" s="8" t="n"/>
-      <c r="M259" s="8" t="n"/>
-      <c r="N259" s="8" t="n"/>
-      <c r="O259" s="2" t="n"/>
-      <c r="P259" s="2" t="n"/>
-      <c r="Q259" s="8" t="n"/>
-      <c r="R259" s="8" t="n"/>
-      <c r="S259" s="8" t="n"/>
-      <c r="T259" s="2" t="n"/>
-      <c r="U259" s="2" t="n"/>
-      <c r="V259" s="8" t="n"/>
-      <c r="W259" s="8" t="n"/>
-      <c r="X259" s="8" t="n"/>
-      <c r="Y259" s="2" t="n"/>
-      <c r="Z259" s="2" t="n"/>
-      <c r="AA259" s="8" t="n">
-        <v>2650</v>
-      </c>
-      <c r="AB259" s="8" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="AC259" s="8" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="AD259" s="2" t="n">
-        <v>2769.25</v>
-      </c>
-      <c r="AE259" s="2" t="n">
-        <v>12930</v>
-      </c>
-      <c r="AF259" s="8" t="n">
-        <v>452.5500000000001</v>
-      </c>
-      <c r="AG259" s="8" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="AH259" s="8" t="n">
-        <v>13511.85</v>
-      </c>
-      <c r="AI259" s="2" t="n"/>
-      <c r="AJ259" s="2" t="n"/>
-      <c r="AK259" s="8" t="n"/>
-      <c r="AL259" s="8" t="n"/>
-      <c r="AM259" s="8" t="n"/>
-      <c r="AN259" s="2" t="n"/>
-      <c r="AO259" s="2" t="n"/>
-      <c r="AP259" s="8" t="n"/>
-      <c r="AQ259" s="8" t="n"/>
-      <c r="AR259" s="8" t="n"/>
-      <c r="AS259" s="2" t="n"/>
-      <c r="AT259" s="2" t="n"/>
-      <c r="AU259" s="8" t="n"/>
-      <c r="AV259" s="8" t="n"/>
-      <c r="AW259" s="8" t="n"/>
-      <c r="AX259" s="2" t="n"/>
-      <c r="AY259" s="2" t="n"/>
-      <c r="AZ259" s="8" t="n"/>
-      <c r="BA259" s="8" t="n"/>
-      <c r="BB259" s="8" t="n"/>
-      <c r="BC259" s="2" t="n"/>
-      <c r="BD259" s="2" t="n"/>
-      <c r="BE259" s="8" t="n"/>
-      <c r="BF259" s="8" t="n"/>
-      <c r="BG259" s="8" t="n"/>
-      <c r="BH259" s="2" t="n"/>
-      <c r="BI259" s="2" t="n"/>
-      <c r="BJ259" s="8" t="n"/>
-      <c r="BK259" s="8" t="n"/>
-      <c r="BL259" s="8" t="n"/>
-      <c r="BM259" s="2" t="n"/>
-      <c r="BN259" s="2" t="n"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n"/>
-      <c r="B260" s="5" t="n"/>
-      <c r="C260" s="5" t="n"/>
-      <c r="D260" s="6" t="n"/>
-      <c r="E260" s="2" t="n"/>
-      <c r="F260" s="7" t="n"/>
-      <c r="G260" s="8" t="n"/>
-      <c r="H260" s="8" t="n"/>
-      <c r="I260" s="8" t="n"/>
-      <c r="J260" s="2" t="n"/>
-      <c r="K260" s="2" t="n"/>
-      <c r="L260" s="8" t="n"/>
-      <c r="M260" s="8" t="n"/>
-      <c r="N260" s="8" t="n"/>
-      <c r="O260" s="2" t="n"/>
-      <c r="P260" s="2" t="n"/>
-      <c r="Q260" s="8" t="n"/>
-      <c r="R260" s="8" t="n"/>
-      <c r="S260" s="8" t="n"/>
-      <c r="T260" s="2" t="n"/>
-      <c r="U260" s="2" t="n"/>
-      <c r="V260" s="8" t="n"/>
-      <c r="W260" s="8" t="n"/>
-      <c r="X260" s="8" t="n"/>
-      <c r="Y260" s="2" t="n"/>
-      <c r="Z260" s="2" t="n"/>
-      <c r="AA260" s="8" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AB260" s="8" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="AC260" s="8" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AD260" s="2" t="n">
-        <v>1285.35</v>
-      </c>
-      <c r="AE260" s="2" t="n">
-        <v>2200</v>
-      </c>
-      <c r="AF260" s="8" t="n">
-        <v>66</v>
-      </c>
-      <c r="AG260" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH260" s="8" t="n">
-        <v>2288</v>
-      </c>
-      <c r="AI260" s="2" t="n"/>
-      <c r="AJ260" s="2" t="n"/>
-      <c r="AK260" s="8" t="n"/>
-      <c r="AL260" s="8" t="n"/>
-      <c r="AM260" s="8" t="n"/>
-      <c r="AN260" s="2" t="n"/>
-      <c r="AO260" s="2" t="n"/>
-      <c r="AP260" s="8" t="n"/>
-      <c r="AQ260" s="8" t="n"/>
-      <c r="AR260" s="8" t="n"/>
-      <c r="AS260" s="2" t="n"/>
-      <c r="AT260" s="2" t="n"/>
-      <c r="AU260" s="8" t="n"/>
-      <c r="AV260" s="8" t="n"/>
-      <c r="AW260" s="8" t="n"/>
-      <c r="AX260" s="2" t="n"/>
-      <c r="AY260" s="2" t="n"/>
-      <c r="AZ260" s="8" t="n"/>
-      <c r="BA260" s="8" t="n"/>
-      <c r="BB260" s="8" t="n"/>
-      <c r="BC260" s="2" t="n"/>
-      <c r="BD260" s="2" t="n"/>
-      <c r="BE260" s="8" t="n"/>
-      <c r="BF260" s="8" t="n"/>
-      <c r="BG260" s="8" t="n"/>
-      <c r="BH260" s="2" t="n"/>
-      <c r="BI260" s="2" t="n"/>
-      <c r="BJ260" s="8" t="n"/>
-      <c r="BK260" s="8" t="n"/>
-      <c r="BL260" s="8" t="n"/>
-      <c r="BM260" s="2" t="n"/>
-      <c r="BN260" s="2" t="n"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n"/>
-      <c r="B261" s="5" t="n"/>
-      <c r="C261" s="5" t="n"/>
-      <c r="D261" s="6" t="n"/>
-      <c r="E261" s="2" t="n"/>
-      <c r="F261" s="7" t="n"/>
-      <c r="G261" s="8" t="n"/>
-      <c r="H261" s="8" t="n"/>
-      <c r="I261" s="8" t="n"/>
-      <c r="J261" s="2" t="n"/>
-      <c r="K261" s="2" t="n"/>
-      <c r="L261" s="8" t="n"/>
-      <c r="M261" s="8" t="n"/>
-      <c r="N261" s="8" t="n"/>
-      <c r="O261" s="2" t="n"/>
-      <c r="P261" s="2" t="n"/>
-      <c r="Q261" s="8" t="n"/>
-      <c r="R261" s="8" t="n"/>
-      <c r="S261" s="8" t="n"/>
-      <c r="T261" s="2" t="n"/>
-      <c r="U261" s="2" t="n"/>
-      <c r="V261" s="8" t="n"/>
-      <c r="W261" s="8" t="n"/>
-      <c r="X261" s="8" t="n"/>
-      <c r="Y261" s="2" t="n"/>
-      <c r="Z261" s="2" t="n"/>
-      <c r="AA261" s="8" t="n">
-        <v>1305</v>
-      </c>
-      <c r="AB261" s="8" t="n">
-        <v>45.675</v>
-      </c>
-      <c r="AC261" s="8" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="AD261" s="2" t="n">
-        <v>1363.725</v>
-      </c>
-      <c r="AE261" s="2" t="n">
-        <v>1020</v>
-      </c>
-      <c r="AF261" s="8" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="AG261" s="8" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AH261" s="8" t="n">
-        <v>1060.8</v>
-      </c>
-      <c r="AI261" s="2" t="n"/>
-      <c r="AJ261" s="2" t="n"/>
-      <c r="AK261" s="8" t="n"/>
-      <c r="AL261" s="8" t="n"/>
-      <c r="AM261" s="8" t="n"/>
-      <c r="AN261" s="2" t="n"/>
-      <c r="AO261" s="2" t="n"/>
-      <c r="AP261" s="8" t="n"/>
-      <c r="AQ261" s="8" t="n"/>
-      <c r="AR261" s="8" t="n"/>
-      <c r="AS261" s="2" t="n"/>
-      <c r="AT261" s="2" t="n"/>
-      <c r="AU261" s="8" t="n"/>
-      <c r="AV261" s="8" t="n"/>
-      <c r="AW261" s="8" t="n"/>
-      <c r="AX261" s="2" t="n"/>
-      <c r="AY261" s="2" t="n"/>
-      <c r="AZ261" s="8" t="n"/>
-      <c r="BA261" s="8" t="n"/>
-      <c r="BB261" s="8" t="n"/>
-      <c r="BC261" s="2" t="n"/>
-      <c r="BD261" s="2" t="n"/>
-      <c r="BE261" s="8" t="n"/>
-      <c r="BF261" s="8" t="n"/>
-      <c r="BG261" s="8" t="n"/>
-      <c r="BH261" s="2" t="n"/>
-      <c r="BI261" s="2" t="n"/>
-      <c r="BJ261" s="8" t="n"/>
-      <c r="BK261" s="8" t="n"/>
-      <c r="BL261" s="8" t="n"/>
-      <c r="BM261" s="2" t="n"/>
-      <c r="BN261" s="2" t="n"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n"/>
-      <c r="B262" s="5" t="n"/>
-      <c r="C262" s="5" t="n"/>
-      <c r="D262" s="6" t="n"/>
-      <c r="E262" s="2" t="n"/>
-      <c r="F262" s="7" t="n"/>
-      <c r="G262" s="8" t="n"/>
-      <c r="H262" s="8" t="n"/>
-      <c r="I262" s="8" t="n"/>
-      <c r="J262" s="2" t="n"/>
-      <c r="K262" s="2" t="n"/>
-      <c r="L262" s="8" t="n"/>
-      <c r="M262" s="8" t="n"/>
-      <c r="N262" s="8" t="n"/>
-      <c r="O262" s="2" t="n"/>
-      <c r="P262" s="2" t="n"/>
-      <c r="Q262" s="8" t="n"/>
-      <c r="R262" s="8" t="n"/>
-      <c r="S262" s="8" t="n"/>
-      <c r="T262" s="2" t="n"/>
-      <c r="U262" s="2" t="n"/>
-      <c r="V262" s="8" t="n"/>
-      <c r="W262" s="8" t="n"/>
-      <c r="X262" s="8" t="n"/>
-      <c r="Y262" s="2" t="n"/>
-      <c r="Z262" s="2" t="n"/>
-      <c r="AA262" s="8" t="n">
-        <v>3750</v>
-      </c>
-      <c r="AB262" s="8" t="n">
-        <v>131.25</v>
-      </c>
-      <c r="AC262" s="8" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="AD262" s="2" t="n">
-        <v>3918.75</v>
-      </c>
-      <c r="AE262" s="2" t="n">
-        <v>670</v>
-      </c>
-      <c r="AF262" s="8" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AG262" s="8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AH262" s="8" t="n">
-        <v>696.8000000000001</v>
-      </c>
-      <c r="AI262" s="2" t="n"/>
-      <c r="AJ262" s="2" t="n"/>
-      <c r="AK262" s="8" t="n"/>
-      <c r="AL262" s="8" t="n"/>
-      <c r="AM262" s="8" t="n"/>
-      <c r="AN262" s="2" t="n"/>
-      <c r="AO262" s="2" t="n"/>
-      <c r="AP262" s="8" t="n"/>
-      <c r="AQ262" s="8" t="n"/>
-      <c r="AR262" s="8" t="n"/>
-      <c r="AS262" s="2" t="n"/>
-      <c r="AT262" s="2" t="n"/>
-      <c r="AU262" s="8" t="n"/>
-      <c r="AV262" s="8" t="n"/>
-      <c r="AW262" s="8" t="n"/>
-      <c r="AX262" s="2" t="n"/>
-      <c r="AY262" s="2" t="n"/>
-      <c r="AZ262" s="8" t="n"/>
-      <c r="BA262" s="8" t="n"/>
-      <c r="BB262" s="8" t="n"/>
-      <c r="BC262" s="2" t="n"/>
-      <c r="BD262" s="2" t="n"/>
-      <c r="BE262" s="8" t="n"/>
-      <c r="BF262" s="8" t="n"/>
-      <c r="BG262" s="8" t="n"/>
-      <c r="BH262" s="2" t="n"/>
-      <c r="BI262" s="2" t="n"/>
-      <c r="BJ262" s="8" t="n"/>
-      <c r="BK262" s="8" t="n"/>
-      <c r="BL262" s="8" t="n"/>
-      <c r="BM262" s="2" t="n"/>
-      <c r="BN262" s="2" t="n"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n"/>
-      <c r="B263" s="5" t="n"/>
-      <c r="C263" s="5" t="n"/>
-      <c r="D263" s="6" t="n"/>
-      <c r="E263" s="2" t="n"/>
-      <c r="F263" s="7" t="n"/>
-      <c r="G263" s="8" t="n"/>
-      <c r="H263" s="8" t="n"/>
-      <c r="I263" s="8" t="n"/>
-      <c r="J263" s="2" t="n"/>
-      <c r="K263" s="2" t="n"/>
-      <c r="L263" s="8" t="n"/>
-      <c r="M263" s="8" t="n"/>
-      <c r="N263" s="8" t="n"/>
-      <c r="O263" s="2" t="n"/>
-      <c r="P263" s="2" t="n"/>
-      <c r="Q263" s="8" t="n"/>
-      <c r="R263" s="8" t="n"/>
-      <c r="S263" s="8" t="n"/>
-      <c r="T263" s="2" t="n"/>
-      <c r="U263" s="2" t="n"/>
-      <c r="V263" s="8" t="n"/>
-      <c r="W263" s="8" t="n"/>
-      <c r="X263" s="8" t="n"/>
-      <c r="Y263" s="2" t="n"/>
-      <c r="Z263" s="2" t="n"/>
-      <c r="AA263" s="8" t="n">
-        <v>3090</v>
-      </c>
-      <c r="AB263" s="8" t="n">
-        <v>108.15</v>
-      </c>
-      <c r="AC263" s="8" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="AD263" s="2" t="n">
-        <v>3229.05</v>
-      </c>
-      <c r="AE263" s="2" t="n">
-        <v>870</v>
-      </c>
-      <c r="AF263" s="8" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="AG263" s="8" t="n">
-        <v>8.700000000000001</v>
-      </c>
-      <c r="AH263" s="8" t="n">
-        <v>904.8</v>
-      </c>
-      <c r="AI263" s="2" t="n"/>
-      <c r="AJ263" s="2" t="n"/>
-      <c r="AK263" s="8" t="n"/>
-      <c r="AL263" s="8" t="n"/>
-      <c r="AM263" s="8" t="n"/>
-      <c r="AN263" s="2" t="n"/>
-      <c r="AO263" s="2" t="n"/>
-      <c r="AP263" s="8" t="n"/>
-      <c r="AQ263" s="8" t="n"/>
-      <c r="AR263" s="8" t="n"/>
-      <c r="AS263" s="2" t="n"/>
-      <c r="AT263" s="2" t="n"/>
-      <c r="AU263" s="8" t="n"/>
-      <c r="AV263" s="8" t="n"/>
-      <c r="AW263" s="8" t="n"/>
-      <c r="AX263" s="2" t="n"/>
-      <c r="AY263" s="2" t="n"/>
-      <c r="AZ263" s="8" t="n"/>
-      <c r="BA263" s="8" t="n"/>
-      <c r="BB263" s="8" t="n"/>
-      <c r="BC263" s="2" t="n"/>
-      <c r="BD263" s="2" t="n"/>
-      <c r="BE263" s="8" t="n"/>
-      <c r="BF263" s="8" t="n"/>
-      <c r="BG263" s="8" t="n"/>
-      <c r="BH263" s="2" t="n"/>
-      <c r="BI263" s="2" t="n"/>
-      <c r="BJ263" s="8" t="n"/>
-      <c r="BK263" s="8" t="n"/>
-      <c r="BL263" s="8" t="n"/>
-      <c r="BM263" s="2" t="n"/>
-      <c r="BN263" s="2" t="n"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n"/>
-      <c r="B264" s="5" t="n"/>
-      <c r="C264" s="5" t="n"/>
-      <c r="D264" s="6" t="n"/>
-      <c r="E264" s="2" t="n"/>
-      <c r="F264" s="7" t="n"/>
-      <c r="G264" s="8" t="n"/>
-      <c r="H264" s="8" t="n"/>
-      <c r="I264" s="8" t="n"/>
-      <c r="J264" s="2" t="n"/>
-      <c r="K264" s="2" t="n"/>
-      <c r="L264" s="8" t="n"/>
-      <c r="M264" s="8" t="n"/>
-      <c r="N264" s="8" t="n"/>
-      <c r="O264" s="2" t="n"/>
-      <c r="P264" s="2" t="n"/>
-      <c r="Q264" s="8" t="n"/>
-      <c r="R264" s="8" t="n"/>
-      <c r="S264" s="8" t="n"/>
-      <c r="T264" s="2" t="n"/>
-      <c r="U264" s="2" t="n"/>
-      <c r="V264" s="8" t="n"/>
-      <c r="W264" s="8" t="n"/>
-      <c r="X264" s="8" t="n"/>
-      <c r="Y264" s="2" t="n"/>
-      <c r="Z264" s="2" t="n"/>
-      <c r="AA264" s="8" t="n">
-        <v>1050</v>
-      </c>
-      <c r="AB264" s="8" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="AC264" s="8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD264" s="2" t="n">
-        <v>1097.25</v>
-      </c>
-      <c r="AE264" s="2" t="n">
-        <v>3340</v>
-      </c>
-      <c r="AF264" s="8" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AG264" s="8" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="AH264" s="8" t="n">
-        <v>3473.6</v>
-      </c>
-      <c r="AI264" s="2" t="n"/>
-      <c r="AJ264" s="2" t="n"/>
-      <c r="AK264" s="8" t="n"/>
-      <c r="AL264" s="8" t="n"/>
-      <c r="AM264" s="8" t="n"/>
-      <c r="AN264" s="2" t="n"/>
-      <c r="AO264" s="2" t="n"/>
-      <c r="AP264" s="8" t="n"/>
-      <c r="AQ264" s="8" t="n"/>
-      <c r="AR264" s="8" t="n"/>
-      <c r="AS264" s="2" t="n"/>
-      <c r="AT264" s="2" t="n"/>
-      <c r="AU264" s="8" t="n"/>
-      <c r="AV264" s="8" t="n"/>
-      <c r="AW264" s="8" t="n"/>
-      <c r="AX264" s="2" t="n"/>
-      <c r="AY264" s="2" t="n"/>
-      <c r="AZ264" s="8" t="n"/>
-      <c r="BA264" s="8" t="n"/>
-      <c r="BB264" s="8" t="n"/>
-      <c r="BC264" s="2" t="n"/>
-      <c r="BD264" s="2" t="n"/>
-      <c r="BE264" s="8" t="n"/>
-      <c r="BF264" s="8" t="n"/>
-      <c r="BG264" s="8" t="n"/>
-      <c r="BH264" s="2" t="n"/>
-      <c r="BI264" s="2" t="n"/>
-      <c r="BJ264" s="8" t="n"/>
-      <c r="BK264" s="8" t="n"/>
-      <c r="BL264" s="8" t="n"/>
-      <c r="BM264" s="2" t="n"/>
-      <c r="BN264" s="2" t="n"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n"/>
-      <c r="B265" s="5" t="n"/>
-      <c r="C265" s="5" t="n"/>
-      <c r="D265" s="6" t="n"/>
-      <c r="E265" s="2" t="n"/>
-      <c r="F265" s="7" t="n"/>
-      <c r="G265" s="8" t="n"/>
-      <c r="H265" s="8" t="n"/>
-      <c r="I265" s="8" t="n"/>
-      <c r="J265" s="2" t="n"/>
-      <c r="K265" s="2" t="n"/>
-      <c r="L265" s="8" t="n"/>
-      <c r="M265" s="8" t="n"/>
-      <c r="N265" s="8" t="n"/>
-      <c r="O265" s="2" t="n"/>
-      <c r="P265" s="2" t="n"/>
-      <c r="Q265" s="8" t="n"/>
-      <c r="R265" s="8" t="n"/>
-      <c r="S265" s="8" t="n"/>
-      <c r="T265" s="2" t="n"/>
-      <c r="U265" s="2" t="n"/>
-      <c r="V265" s="8" t="n"/>
-      <c r="W265" s="8" t="n"/>
-      <c r="X265" s="8" t="n"/>
-      <c r="Y265" s="2" t="n"/>
-      <c r="Z265" s="2" t="n"/>
-      <c r="AA265" s="8" t="n">
-        <v>1650</v>
-      </c>
-      <c r="AB265" s="8" t="n">
-        <v>57.75000000000001</v>
-      </c>
-      <c r="AC265" s="8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD265" s="2" t="n">
-        <v>1724.25</v>
-      </c>
-      <c r="AE265" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF265" s="8" t="n">
-        <v>6.899999999999999</v>
-      </c>
-      <c r="AG265" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH265" s="8" t="n">
-        <v>239.2</v>
-      </c>
-      <c r="AI265" s="2" t="n"/>
-      <c r="AJ265" s="2" t="n"/>
-      <c r="AK265" s="8" t="n"/>
-      <c r="AL265" s="8" t="n"/>
-      <c r="AM265" s="8" t="n"/>
-      <c r="AN265" s="2" t="n"/>
-      <c r="AO265" s="2" t="n"/>
-      <c r="AP265" s="8" t="n"/>
-      <c r="AQ265" s="8" t="n"/>
-      <c r="AR265" s="8" t="n"/>
-      <c r="AS265" s="2" t="n"/>
-      <c r="AT265" s="2" t="n"/>
-      <c r="AU265" s="8" t="n"/>
-      <c r="AV265" s="8" t="n"/>
-      <c r="AW265" s="8" t="n"/>
-      <c r="AX265" s="2" t="n"/>
-      <c r="AY265" s="2" t="n"/>
-      <c r="AZ265" s="8" t="n"/>
-      <c r="BA265" s="8" t="n"/>
-      <c r="BB265" s="8" t="n"/>
-      <c r="BC265" s="2" t="n"/>
-      <c r="BD265" s="2" t="n"/>
-      <c r="BE265" s="8" t="n"/>
-      <c r="BF265" s="8" t="n"/>
-      <c r="BG265" s="8" t="n"/>
-      <c r="BH265" s="2" t="n"/>
-      <c r="BI265" s="2" t="n"/>
-      <c r="BJ265" s="8" t="n"/>
-      <c r="BK265" s="8" t="n"/>
-      <c r="BL265" s="8" t="n"/>
-      <c r="BM265" s="2" t="n"/>
-      <c r="BN265" s="2" t="n"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n"/>
-      <c r="B266" s="5" t="n"/>
-      <c r="C266" s="5" t="n"/>
-      <c r="D266" s="6" t="n"/>
-      <c r="E266" s="2" t="n"/>
-      <c r="F266" s="7" t="n"/>
-      <c r="G266" s="8" t="n"/>
-      <c r="H266" s="8" t="n"/>
-      <c r="I266" s="8" t="n"/>
-      <c r="J266" s="2" t="n"/>
-      <c r="K266" s="2" t="n"/>
-      <c r="L266" s="8" t="n"/>
-      <c r="M266" s="8" t="n"/>
-      <c r="N266" s="8" t="n"/>
-      <c r="O266" s="2" t="n"/>
-      <c r="P266" s="2" t="n"/>
-      <c r="Q266" s="8" t="n"/>
-      <c r="R266" s="8" t="n"/>
-      <c r="S266" s="8" t="n"/>
-      <c r="T266" s="2" t="n"/>
-      <c r="U266" s="2" t="n"/>
-      <c r="V266" s="8" t="n"/>
-      <c r="W266" s="8" t="n"/>
-      <c r="X266" s="8" t="n"/>
-      <c r="Y266" s="2" t="n"/>
-      <c r="Z266" s="2" t="n"/>
-      <c r="AA266" s="8" t="n">
-        <v>1870</v>
-      </c>
-      <c r="AB266" s="8" t="n">
-        <v>65.45</v>
-      </c>
-      <c r="AC266" s="8" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="AD266" s="2" t="n">
-        <v>1954.15</v>
-      </c>
-      <c r="AE266" s="2" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AF266" s="8" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="AG266" s="8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AH266" s="8" t="n">
-        <v>1268.8</v>
-      </c>
-      <c r="AI266" s="2" t="n"/>
-      <c r="AJ266" s="2" t="n"/>
-      <c r="AK266" s="8" t="n"/>
-      <c r="AL266" s="8" t="n"/>
-      <c r="AM266" s="8" t="n"/>
-      <c r="AN266" s="2" t="n"/>
-      <c r="AO266" s="2" t="n"/>
-      <c r="AP266" s="8" t="n"/>
-      <c r="AQ266" s="8" t="n"/>
-      <c r="AR266" s="8" t="n"/>
-      <c r="AS266" s="2" t="n"/>
-      <c r="AT266" s="2" t="n"/>
-      <c r="AU266" s="8" t="n"/>
-      <c r="AV266" s="8" t="n"/>
-      <c r="AW266" s="8" t="n"/>
-      <c r="AX266" s="2" t="n"/>
-      <c r="AY266" s="2" t="n"/>
-      <c r="AZ266" s="8" t="n"/>
-      <c r="BA266" s="8" t="n"/>
-      <c r="BB266" s="8" t="n"/>
-      <c r="BC266" s="2" t="n"/>
-      <c r="BD266" s="2" t="n"/>
-      <c r="BE266" s="8" t="n"/>
-      <c r="BF266" s="8" t="n"/>
-      <c r="BG266" s="8" t="n"/>
-      <c r="BH266" s="2" t="n"/>
-      <c r="BI266" s="2" t="n"/>
-      <c r="BJ266" s="8" t="n"/>
-      <c r="BK266" s="8" t="n"/>
-      <c r="BL266" s="8" t="n"/>
-      <c r="BM266" s="2" t="n"/>
-      <c r="BN266" s="2" t="n"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n"/>
-      <c r="B267" s="5" t="n"/>
-      <c r="C267" s="5" t="n"/>
-      <c r="D267" s="6" t="n"/>
-      <c r="E267" s="2" t="n"/>
-      <c r="F267" s="7" t="n"/>
-      <c r="G267" s="8" t="n"/>
-      <c r="H267" s="8" t="n"/>
-      <c r="I267" s="8" t="n"/>
-      <c r="J267" s="2" t="n"/>
-      <c r="K267" s="2" t="n"/>
-      <c r="L267" s="8" t="n"/>
-      <c r="M267" s="8" t="n"/>
-      <c r="N267" s="8" t="n"/>
-      <c r="O267" s="2" t="n"/>
-      <c r="P267" s="2" t="n"/>
-      <c r="Q267" s="8" t="n"/>
-      <c r="R267" s="8" t="n"/>
-      <c r="S267" s="8" t="n"/>
-      <c r="T267" s="2" t="n"/>
-      <c r="U267" s="2" t="n"/>
-      <c r="V267" s="8" t="n"/>
-      <c r="W267" s="8" t="n"/>
-      <c r="X267" s="8" t="n"/>
-      <c r="Y267" s="2" t="n"/>
-      <c r="Z267" s="2" t="n"/>
-      <c r="AA267" s="8" t="n">
-        <v>1540</v>
-      </c>
-      <c r="AB267" s="8" t="n">
-        <v>53.90000000000001</v>
-      </c>
-      <c r="AC267" s="8" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AD267" s="2" t="n">
-        <v>1609.3</v>
-      </c>
-      <c r="AE267" s="2" t="n">
-        <v>5800</v>
-      </c>
-      <c r="AF267" s="8" t="n">
-        <v>174</v>
-      </c>
-      <c r="AG267" s="8" t="n">
-        <v>58</v>
-      </c>
-      <c r="AH267" s="8" t="n">
-        <v>6032</v>
-      </c>
-      <c r="AI267" s="2" t="n"/>
-      <c r="AJ267" s="2" t="n"/>
-      <c r="AK267" s="8" t="n"/>
-      <c r="AL267" s="8" t="n"/>
-      <c r="AM267" s="8" t="n"/>
-      <c r="AN267" s="2" t="n"/>
-      <c r="AO267" s="2" t="n"/>
-      <c r="AP267" s="8" t="n"/>
-      <c r="AQ267" s="8" t="n"/>
-      <c r="AR267" s="8" t="n"/>
-      <c r="AS267" s="2" t="n"/>
-      <c r="AT267" s="2" t="n"/>
-      <c r="AU267" s="8" t="n"/>
-      <c r="AV267" s="8" t="n"/>
-      <c r="AW267" s="8" t="n"/>
-      <c r="AX267" s="2" t="n"/>
-      <c r="AY267" s="2" t="n"/>
-      <c r="AZ267" s="8" t="n"/>
-      <c r="BA267" s="8" t="n"/>
-      <c r="BB267" s="8" t="n"/>
-      <c r="BC267" s="2" t="n"/>
-      <c r="BD267" s="2" t="n"/>
-      <c r="BE267" s="8" t="n"/>
-      <c r="BF267" s="8" t="n"/>
-      <c r="BG267" s="8" t="n"/>
-      <c r="BH267" s="2" t="n"/>
-      <c r="BI267" s="2" t="n"/>
-      <c r="BJ267" s="8" t="n"/>
-      <c r="BK267" s="8" t="n"/>
-      <c r="BL267" s="8" t="n"/>
-      <c r="BM267" s="2" t="n"/>
-      <c r="BN267" s="2" t="n"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n"/>
-      <c r="B268" s="5" t="n"/>
-      <c r="C268" s="5" t="n"/>
-      <c r="D268" s="6" t="n"/>
-      <c r="E268" s="2" t="n"/>
-      <c r="F268" s="7" t="n"/>
-      <c r="G268" s="8" t="n"/>
-      <c r="H268" s="8" t="n"/>
-      <c r="I268" s="8" t="n"/>
-      <c r="J268" s="2" t="n"/>
-      <c r="K268" s="2" t="n"/>
-      <c r="L268" s="8" t="n"/>
-      <c r="M268" s="8" t="n"/>
-      <c r="N268" s="8" t="n"/>
-      <c r="O268" s="2" t="n"/>
-      <c r="P268" s="2" t="n"/>
-      <c r="Q268" s="8" t="n"/>
-      <c r="R268" s="8" t="n"/>
-      <c r="S268" s="8" t="n"/>
-      <c r="T268" s="2" t="n"/>
-      <c r="U268" s="2" t="n"/>
-      <c r="V268" s="8" t="n"/>
-      <c r="W268" s="8" t="n"/>
-      <c r="X268" s="8" t="n"/>
-      <c r="Y268" s="2" t="n"/>
-      <c r="Z268" s="2" t="n"/>
-      <c r="AA268" s="8" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AB268" s="8" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="AC268" s="8" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AD268" s="2" t="n">
-        <v>1118.15</v>
-      </c>
-      <c r="AE268" s="2" t="n">
-        <v>1225</v>
-      </c>
-      <c r="AF268" s="8" t="n">
-        <v>42.87500000000001</v>
-      </c>
-      <c r="AG268" s="8" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AH268" s="8" t="n">
-        <v>1280.125</v>
-      </c>
-      <c r="AI268" s="2" t="n"/>
-      <c r="AJ268" s="2" t="n"/>
-      <c r="AK268" s="8" t="n"/>
-      <c r="AL268" s="8" t="n"/>
-      <c r="AM268" s="8" t="n"/>
-      <c r="AN268" s="2" t="n"/>
-      <c r="AO268" s="2" t="n"/>
-      <c r="AP268" s="8" t="n"/>
-      <c r="AQ268" s="8" t="n"/>
-      <c r="AR268" s="8" t="n"/>
-      <c r="AS268" s="2" t="n"/>
-      <c r="AT268" s="2" t="n"/>
-      <c r="AU268" s="8" t="n"/>
-      <c r="AV268" s="8" t="n"/>
-      <c r="AW268" s="8" t="n"/>
-      <c r="AX268" s="2" t="n"/>
-      <c r="AY268" s="2" t="n"/>
-      <c r="AZ268" s="8" t="n"/>
-      <c r="BA268" s="8" t="n"/>
-      <c r="BB268" s="8" t="n"/>
-      <c r="BC268" s="2" t="n"/>
-      <c r="BD268" s="2" t="n"/>
-      <c r="BE268" s="8" t="n"/>
-      <c r="BF268" s="8" t="n"/>
-      <c r="BG268" s="8" t="n"/>
-      <c r="BH268" s="2" t="n"/>
-      <c r="BI268" s="2" t="n"/>
-      <c r="BJ268" s="8" t="n"/>
-      <c r="BK268" s="8" t="n"/>
-      <c r="BL268" s="8" t="n"/>
-      <c r="BM268" s="2" t="n"/>
-      <c r="BN268" s="2" t="n"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n"/>
-      <c r="B269" s="5" t="n"/>
-      <c r="C269" s="5" t="n"/>
-      <c r="D269" s="6" t="n"/>
-      <c r="E269" s="2" t="n"/>
-      <c r="F269" s="7" t="n"/>
-      <c r="G269" s="8" t="n"/>
-      <c r="H269" s="8" t="n"/>
-      <c r="I269" s="8" t="n"/>
-      <c r="J269" s="2" t="n"/>
-      <c r="K269" s="2" t="n"/>
-      <c r="L269" s="8" t="n"/>
-      <c r="M269" s="8" t="n"/>
-      <c r="N269" s="8" t="n"/>
-      <c r="O269" s="2" t="n"/>
-      <c r="P269" s="2" t="n"/>
-      <c r="Q269" s="8" t="n"/>
-      <c r="R269" s="8" t="n"/>
-      <c r="S269" s="8" t="n"/>
-      <c r="T269" s="2" t="n"/>
-      <c r="U269" s="2" t="n"/>
-      <c r="V269" s="8" t="n"/>
-      <c r="W269" s="8" t="n"/>
-      <c r="X269" s="8" t="n"/>
-      <c r="Y269" s="2" t="n"/>
-      <c r="Z269" s="2" t="n"/>
-      <c r="AA269" s="8" t="n">
-        <v>5430</v>
-      </c>
-      <c r="AB269" s="8" t="n">
-        <v>190.05</v>
-      </c>
-      <c r="AC269" s="8" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="AD269" s="2" t="n">
-        <v>5674.35</v>
-      </c>
-      <c r="AE269" s="2" t="n">
-        <v>1580</v>
-      </c>
-      <c r="AF269" s="8" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="AG269" s="8" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="AH269" s="8" t="n">
-        <v>1651.1</v>
-      </c>
-      <c r="AI269" s="2" t="n"/>
-      <c r="AJ269" s="2" t="n"/>
-      <c r="AK269" s="8" t="n"/>
-      <c r="AL269" s="8" t="n"/>
-      <c r="AM269" s="8" t="n"/>
-      <c r="AN269" s="2" t="n"/>
-      <c r="AO269" s="2" t="n"/>
-      <c r="AP269" s="8" t="n"/>
-      <c r="AQ269" s="8" t="n"/>
-      <c r="AR269" s="8" t="n"/>
-      <c r="AS269" s="2" t="n"/>
-      <c r="AT269" s="2" t="n"/>
-      <c r="AU269" s="8" t="n"/>
-      <c r="AV269" s="8" t="n"/>
-      <c r="AW269" s="8" t="n"/>
-      <c r="AX269" s="2" t="n"/>
-      <c r="AY269" s="2" t="n"/>
-      <c r="AZ269" s="8" t="n"/>
-      <c r="BA269" s="8" t="n"/>
-      <c r="BB269" s="8" t="n"/>
-      <c r="BC269" s="2" t="n"/>
-      <c r="BD269" s="2" t="n"/>
-      <c r="BE269" s="8" t="n"/>
-      <c r="BF269" s="8" t="n"/>
-      <c r="BG269" s="8" t="n"/>
-      <c r="BH269" s="2" t="n"/>
-      <c r="BI269" s="2" t="n"/>
-      <c r="BJ269" s="8" t="n"/>
-      <c r="BK269" s="8" t="n"/>
-      <c r="BL269" s="8" t="n"/>
-      <c r="BM269" s="2" t="n"/>
-      <c r="BN269" s="2" t="n"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n"/>
-      <c r="B270" s="5" t="n"/>
-      <c r="C270" s="5" t="n"/>
-      <c r="D270" s="6" t="n"/>
-      <c r="E270" s="2" t="n"/>
-      <c r="F270" s="7" t="n"/>
-      <c r="G270" s="8" t="n"/>
-      <c r="H270" s="8" t="n"/>
-      <c r="I270" s="8" t="n"/>
-      <c r="J270" s="2" t="n"/>
-      <c r="K270" s="2" t="n"/>
-      <c r="L270" s="8" t="n"/>
-      <c r="M270" s="8" t="n"/>
-      <c r="N270" s="8" t="n"/>
-      <c r="O270" s="2" t="n"/>
-      <c r="P270" s="2" t="n"/>
-      <c r="Q270" s="8" t="n"/>
-      <c r="R270" s="8" t="n"/>
-      <c r="S270" s="8" t="n"/>
-      <c r="T270" s="2" t="n"/>
-      <c r="U270" s="2" t="n"/>
-      <c r="V270" s="8" t="n"/>
-      <c r="W270" s="8" t="n"/>
-      <c r="X270" s="8" t="n"/>
-      <c r="Y270" s="2" t="n"/>
-      <c r="Z270" s="2" t="n"/>
-      <c r="AA270" s="8" t="n">
-        <v>2390</v>
-      </c>
-      <c r="AB270" s="8" t="n">
-        <v>83.65000000000001</v>
-      </c>
-      <c r="AC270" s="8" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="AD270" s="2" t="n">
-        <v>2497.55</v>
-      </c>
-      <c r="AE270" s="2" t="n">
-        <v>1120</v>
-      </c>
-      <c r="AF270" s="8" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="AG270" s="8" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AH270" s="8" t="n">
-        <v>1170.4</v>
-      </c>
-      <c r="AI270" s="2" t="n"/>
-      <c r="AJ270" s="2" t="n"/>
-      <c r="AK270" s="8" t="n"/>
-      <c r="AL270" s="8" t="n"/>
-      <c r="AM270" s="8" t="n"/>
-      <c r="AN270" s="2" t="n"/>
-      <c r="AO270" s="2" t="n"/>
-      <c r="AP270" s="8" t="n"/>
-      <c r="AQ270" s="8" t="n"/>
-      <c r="AR270" s="8" t="n"/>
-      <c r="AS270" s="2" t="n"/>
-      <c r="AT270" s="2" t="n"/>
-      <c r="AU270" s="8" t="n"/>
-      <c r="AV270" s="8" t="n"/>
-      <c r="AW270" s="8" t="n"/>
-      <c r="AX270" s="2" t="n"/>
-      <c r="AY270" s="2" t="n"/>
-      <c r="AZ270" s="8" t="n"/>
-      <c r="BA270" s="8" t="n"/>
-      <c r="BB270" s="8" t="n"/>
-      <c r="BC270" s="2" t="n"/>
-      <c r="BD270" s="2" t="n"/>
-      <c r="BE270" s="8" t="n"/>
-      <c r="BF270" s="8" t="n"/>
-      <c r="BG270" s="8" t="n"/>
-      <c r="BH270" s="2" t="n"/>
-      <c r="BI270" s="2" t="n"/>
-      <c r="BJ270" s="8" t="n"/>
-      <c r="BK270" s="8" t="n"/>
-      <c r="BL270" s="8" t="n"/>
-      <c r="BM270" s="2" t="n"/>
-      <c r="BN270" s="2" t="n"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n"/>
-      <c r="B271" s="5" t="n"/>
-      <c r="C271" s="5" t="n"/>
-      <c r="D271" s="6" t="n"/>
-      <c r="E271" s="2" t="n"/>
-      <c r="F271" s="7" t="n"/>
-      <c r="G271" s="8" t="n"/>
-      <c r="H271" s="8" t="n"/>
-      <c r="I271" s="8" t="n"/>
-      <c r="J271" s="2" t="n"/>
-      <c r="K271" s="2" t="n"/>
-      <c r="L271" s="8" t="n"/>
-      <c r="M271" s="8" t="n"/>
-      <c r="N271" s="8" t="n"/>
-      <c r="O271" s="2" t="n"/>
-      <c r="P271" s="2" t="n"/>
-      <c r="Q271" s="8" t="n"/>
-      <c r="R271" s="8" t="n"/>
-      <c r="S271" s="8" t="n"/>
-      <c r="T271" s="2" t="n"/>
-      <c r="U271" s="2" t="n"/>
-      <c r="V271" s="8" t="n"/>
-      <c r="W271" s="8" t="n"/>
-      <c r="X271" s="8" t="n"/>
-      <c r="Y271" s="2" t="n"/>
-      <c r="Z271" s="2" t="n"/>
-      <c r="AA271" s="8" t="n">
-        <v>1050</v>
-      </c>
-      <c r="AB271" s="8" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="AC271" s="8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD271" s="2" t="n">
-        <v>1097.25</v>
-      </c>
-      <c r="AE271" s="2" t="n">
-        <v>1950</v>
-      </c>
-      <c r="AF271" s="8" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="AG271" s="8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH271" s="8" t="n">
-        <v>2037.75</v>
-      </c>
-      <c r="AI271" s="2" t="n"/>
-      <c r="AJ271" s="2" t="n"/>
-      <c r="AK271" s="8" t="n"/>
-      <c r="AL271" s="8" t="n"/>
-      <c r="AM271" s="8" t="n"/>
-      <c r="AN271" s="2" t="n"/>
-      <c r="AO271" s="2" t="n"/>
-      <c r="AP271" s="8" t="n"/>
-      <c r="AQ271" s="8" t="n"/>
-      <c r="AR271" s="8" t="n"/>
-      <c r="AS271" s="2" t="n"/>
-      <c r="AT271" s="2" t="n"/>
-      <c r="AU271" s="8" t="n"/>
-      <c r="AV271" s="8" t="n"/>
-      <c r="AW271" s="8" t="n"/>
-      <c r="AX271" s="2" t="n"/>
-      <c r="AY271" s="2" t="n"/>
-      <c r="AZ271" s="8" t="n"/>
-      <c r="BA271" s="8" t="n"/>
-      <c r="BB271" s="8" t="n"/>
-      <c r="BC271" s="2" t="n"/>
-      <c r="BD271" s="2" t="n"/>
-      <c r="BE271" s="8" t="n"/>
-      <c r="BF271" s="8" t="n"/>
-      <c r="BG271" s="8" t="n"/>
-      <c r="BH271" s="2" t="n"/>
-      <c r="BI271" s="2" t="n"/>
-      <c r="BJ271" s="8" t="n"/>
-      <c r="BK271" s="8" t="n"/>
-      <c r="BL271" s="8" t="n"/>
-      <c r="BM271" s="2" t="n"/>
-      <c r="BN271" s="2" t="n"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="n"/>
-      <c r="B272" s="5" t="n"/>
-      <c r="C272" s="5" t="n"/>
-      <c r="D272" s="6" t="n"/>
-      <c r="E272" s="2" t="n"/>
-      <c r="F272" s="7" t="n"/>
-      <c r="G272" s="8" t="n"/>
-      <c r="H272" s="8" t="n"/>
-      <c r="I272" s="8" t="n"/>
-      <c r="J272" s="2" t="n"/>
-      <c r="K272" s="2" t="n"/>
-      <c r="L272" s="8" t="n"/>
-      <c r="M272" s="8" t="n"/>
-      <c r="N272" s="8" t="n"/>
-      <c r="O272" s="2" t="n"/>
-      <c r="P272" s="2" t="n"/>
-      <c r="Q272" s="8" t="n"/>
-      <c r="R272" s="8" t="n"/>
-      <c r="S272" s="8" t="n"/>
-      <c r="T272" s="2" t="n"/>
-      <c r="U272" s="2" t="n"/>
-      <c r="V272" s="8" t="n"/>
-      <c r="W272" s="8" t="n"/>
-      <c r="X272" s="8" t="n"/>
-      <c r="Y272" s="2" t="n"/>
-      <c r="Z272" s="2" t="n"/>
-      <c r="AA272" s="8" t="n">
-        <v>3270</v>
-      </c>
-      <c r="AB272" s="8" t="n">
-        <v>114.45</v>
-      </c>
-      <c r="AC272" s="8" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="AD272" s="2" t="n">
-        <v>3417.15</v>
-      </c>
-      <c r="AE272" s="2" t="n">
-        <v>1830</v>
-      </c>
-      <c r="AF272" s="8" t="n">
-        <v>64.05000000000001</v>
-      </c>
-      <c r="AG272" s="8" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="AH272" s="8" t="n">
-        <v>1912.35</v>
-      </c>
-      <c r="AI272" s="2" t="n"/>
-      <c r="AJ272" s="2" t="n"/>
-      <c r="AK272" s="8" t="n"/>
-      <c r="AL272" s="8" t="n"/>
-      <c r="AM272" s="8" t="n"/>
-      <c r="AN272" s="2" t="n"/>
-      <c r="AO272" s="2" t="n"/>
-      <c r="AP272" s="8" t="n"/>
-      <c r="AQ272" s="8" t="n"/>
-      <c r="AR272" s="8" t="n"/>
-      <c r="AS272" s="2" t="n"/>
-      <c r="AT272" s="2" t="n"/>
-      <c r="AU272" s="8" t="n"/>
-      <c r="AV272" s="8" t="n"/>
-      <c r="AW272" s="8" t="n"/>
-      <c r="AX272" s="2" t="n"/>
-      <c r="AY272" s="2" t="n"/>
-      <c r="AZ272" s="8" t="n"/>
-      <c r="BA272" s="8" t="n"/>
-      <c r="BB272" s="8" t="n"/>
-      <c r="BC272" s="2" t="n"/>
-      <c r="BD272" s="2" t="n"/>
-      <c r="BE272" s="8" t="n"/>
-      <c r="BF272" s="8" t="n"/>
-      <c r="BG272" s="8" t="n"/>
-      <c r="BH272" s="2" t="n"/>
-      <c r="BI272" s="2" t="n"/>
-      <c r="BJ272" s="8" t="n"/>
-      <c r="BK272" s="8" t="n"/>
-      <c r="BL272" s="8" t="n"/>
-      <c r="BM272" s="2" t="n"/>
-      <c r="BN272" s="2" t="n"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="n"/>
-      <c r="B273" s="5" t="n"/>
-      <c r="C273" s="5" t="n"/>
-      <c r="D273" s="6" t="n"/>
-      <c r="E273" s="2" t="n"/>
-      <c r="F273" s="7" t="n"/>
-      <c r="G273" s="8" t="n"/>
-      <c r="H273" s="8" t="n"/>
-      <c r="I273" s="8" t="n"/>
-      <c r="J273" s="2" t="n"/>
-      <c r="K273" s="2" t="n"/>
-      <c r="L273" s="8" t="n"/>
-      <c r="M273" s="8" t="n"/>
-      <c r="N273" s="8" t="n"/>
-      <c r="O273" s="2" t="n"/>
-      <c r="P273" s="2" t="n"/>
-      <c r="Q273" s="8" t="n"/>
-      <c r="R273" s="8" t="n"/>
-      <c r="S273" s="8" t="n"/>
-      <c r="T273" s="2" t="n"/>
-      <c r="U273" s="2" t="n"/>
-      <c r="V273" s="8" t="n"/>
-      <c r="W273" s="8" t="n"/>
-      <c r="X273" s="8" t="n"/>
-      <c r="Y273" s="2" t="n"/>
-      <c r="Z273" s="2" t="n"/>
-      <c r="AA273" s="8" t="n">
-        <v>5600</v>
-      </c>
-      <c r="AB273" s="8" t="n">
-        <v>196</v>
-      </c>
-      <c r="AC273" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="AD273" s="2" t="n">
-        <v>5852</v>
-      </c>
-      <c r="AE273" s="2" t="n">
-        <v>1275</v>
-      </c>
-      <c r="AF273" s="8" t="n">
-        <v>44.62500000000001</v>
-      </c>
-      <c r="AG273" s="8" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AH273" s="8" t="n">
-        <v>1332.375</v>
-      </c>
-      <c r="AI273" s="2" t="n"/>
-      <c r="AJ273" s="2" t="n"/>
-      <c r="AK273" s="8" t="n"/>
-      <c r="AL273" s="8" t="n"/>
-      <c r="AM273" s="8" t="n"/>
-      <c r="AN273" s="2" t="n"/>
-      <c r="AO273" s="2" t="n"/>
-      <c r="AP273" s="8" t="n"/>
-      <c r="AQ273" s="8" t="n"/>
-      <c r="AR273" s="8" t="n"/>
-      <c r="AS273" s="2" t="n"/>
-      <c r="AT273" s="2" t="n"/>
-      <c r="AU273" s="8" t="n"/>
-      <c r="AV273" s="8" t="n"/>
-      <c r="AW273" s="8" t="n"/>
-      <c r="AX273" s="2" t="n"/>
-      <c r="AY273" s="2" t="n"/>
-      <c r="AZ273" s="8" t="n"/>
-      <c r="BA273" s="8" t="n"/>
-      <c r="BB273" s="8" t="n"/>
-      <c r="BC273" s="2" t="n"/>
-      <c r="BD273" s="2" t="n"/>
-      <c r="BE273" s="8" t="n"/>
-      <c r="BF273" s="8" t="n"/>
-      <c r="BG273" s="8" t="n"/>
-      <c r="BH273" s="2" t="n"/>
-      <c r="BI273" s="2" t="n"/>
-      <c r="BJ273" s="8" t="n"/>
-      <c r="BK273" s="8" t="n"/>
-      <c r="BL273" s="8" t="n"/>
-      <c r="BM273" s="2" t="n"/>
-      <c r="BN273" s="2" t="n"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="n"/>
-      <c r="B274" s="5" t="n"/>
-      <c r="C274" s="5" t="n"/>
-      <c r="D274" s="6" t="n"/>
-      <c r="E274" s="2" t="n"/>
-      <c r="F274" s="7" t="n"/>
-      <c r="G274" s="8" t="n"/>
-      <c r="H274" s="8" t="n"/>
-      <c r="I274" s="8" t="n"/>
-      <c r="J274" s="2" t="n"/>
-      <c r="K274" s="2" t="n"/>
-      <c r="L274" s="8" t="n"/>
-      <c r="M274" s="8" t="n"/>
-      <c r="N274" s="8" t="n"/>
-      <c r="O274" s="2" t="n"/>
-      <c r="P274" s="2" t="n"/>
-      <c r="Q274" s="8" t="n"/>
-      <c r="R274" s="8" t="n"/>
-      <c r="S274" s="8" t="n"/>
-      <c r="T274" s="2" t="n"/>
-      <c r="U274" s="2" t="n"/>
-      <c r="V274" s="8" t="n"/>
-      <c r="W274" s="8" t="n"/>
-      <c r="X274" s="8" t="n"/>
-      <c r="Y274" s="2" t="n"/>
-      <c r="Z274" s="2" t="n"/>
-      <c r="AA274" s="8" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB274" s="8" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="AC274" s="8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD274" s="2" t="n">
-        <v>355.3</v>
-      </c>
-      <c r="AE274" s="2" t="n">
-        <v>1090</v>
-      </c>
-      <c r="AF274" s="8" t="n">
-        <v>38.15000000000001</v>
-      </c>
-      <c r="AG274" s="8" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="AH274" s="8" t="n">
-        <v>1139.05</v>
-      </c>
-      <c r="AI274" s="2" t="n"/>
-      <c r="AJ274" s="2" t="n"/>
-      <c r="AK274" s="8" t="n"/>
-      <c r="AL274" s="8" t="n"/>
-      <c r="AM274" s="8" t="n"/>
-      <c r="AN274" s="2" t="n"/>
-      <c r="AO274" s="2" t="n"/>
-      <c r="AP274" s="8" t="n"/>
-      <c r="AQ274" s="8" t="n"/>
-      <c r="AR274" s="8" t="n"/>
-      <c r="AS274" s="2" t="n"/>
-      <c r="AT274" s="2" t="n"/>
-      <c r="AU274" s="8" t="n"/>
-      <c r="AV274" s="8" t="n"/>
-      <c r="AW274" s="8" t="n"/>
-      <c r="AX274" s="2" t="n"/>
-      <c r="AY274" s="2" t="n"/>
-      <c r="AZ274" s="8" t="n"/>
-      <c r="BA274" s="8" t="n"/>
-      <c r="BB274" s="8" t="n"/>
-      <c r="BC274" s="2" t="n"/>
-      <c r="BD274" s="2" t="n"/>
-      <c r="BE274" s="8" t="n"/>
-      <c r="BF274" s="8" t="n"/>
-      <c r="BG274" s="8" t="n"/>
-      <c r="BH274" s="2" t="n"/>
-      <c r="BI274" s="2" t="n"/>
-      <c r="BJ274" s="8" t="n"/>
-      <c r="BK274" s="8" t="n"/>
-      <c r="BL274" s="8" t="n"/>
-      <c r="BM274" s="2" t="n"/>
-      <c r="BN274" s="2" t="n"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="n"/>
-      <c r="B275" s="5" t="n"/>
-      <c r="C275" s="5" t="n"/>
-      <c r="D275" s="6" t="n"/>
-      <c r="E275" s="2" t="n"/>
-      <c r="F275" s="7" t="n"/>
-      <c r="G275" s="8" t="n"/>
-      <c r="H275" s="8" t="n"/>
-      <c r="I275" s="8" t="n"/>
-      <c r="J275" s="2" t="n"/>
-      <c r="K275" s="2" t="n"/>
-      <c r="L275" s="8" t="n"/>
-      <c r="M275" s="8" t="n"/>
-      <c r="N275" s="8" t="n"/>
-      <c r="O275" s="2" t="n"/>
-      <c r="P275" s="2" t="n"/>
-      <c r="Q275" s="8" t="n"/>
-      <c r="R275" s="8" t="n"/>
-      <c r="S275" s="8" t="n"/>
-      <c r="T275" s="2" t="n"/>
-      <c r="U275" s="2" t="n"/>
-      <c r="V275" s="8" t="n"/>
-      <c r="W275" s="8" t="n"/>
-      <c r="X275" s="8" t="n"/>
-      <c r="Y275" s="2" t="n"/>
-      <c r="Z275" s="2" t="n"/>
-      <c r="AA275" s="8" t="n">
-        <v>4500</v>
-      </c>
-      <c r="AB275" s="8" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="AC275" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD275" s="2" t="n">
-        <v>4702.5</v>
-      </c>
-      <c r="AE275" s="2" t="n">
-        <v>2515</v>
-      </c>
-      <c r="AF275" s="8" t="n">
-        <v>88.02500000000001</v>
-      </c>
-      <c r="AG275" s="8" t="n">
-        <v>25.15</v>
-      </c>
-      <c r="AH275" s="8" t="n">
-        <v>2628.175</v>
-      </c>
-      <c r="AI275" s="2" t="n"/>
-      <c r="AJ275" s="2" t="n"/>
-      <c r="AK275" s="8" t="n"/>
-      <c r="AL275" s="8" t="n"/>
-      <c r="AM275" s="8" t="n"/>
-      <c r="AN275" s="2" t="n"/>
-      <c r="AO275" s="2" t="n"/>
-      <c r="AP275" s="8" t="n"/>
-      <c r="AQ275" s="8" t="n"/>
-      <c r="AR275" s="8" t="n"/>
-      <c r="AS275" s="2" t="n"/>
-      <c r="AT275" s="2" t="n"/>
-      <c r="AU275" s="8" t="n"/>
-      <c r="AV275" s="8" t="n"/>
-      <c r="AW275" s="8" t="n"/>
-      <c r="AX275" s="2" t="n"/>
-      <c r="AY275" s="2" t="n"/>
-      <c r="AZ275" s="8" t="n"/>
-      <c r="BA275" s="8" t="n"/>
-      <c r="BB275" s="8" t="n"/>
-      <c r="BC275" s="2" t="n"/>
-      <c r="BD275" s="2" t="n"/>
-      <c r="BE275" s="8" t="n"/>
-      <c r="BF275" s="8" t="n"/>
-      <c r="BG275" s="8" t="n"/>
-      <c r="BH275" s="2" t="n"/>
-      <c r="BI275" s="2" t="n"/>
-      <c r="BJ275" s="8" t="n"/>
-      <c r="BK275" s="8" t="n"/>
-      <c r="BL275" s="8" t="n"/>
-      <c r="BM275" s="2" t="n"/>
-      <c r="BN275" s="2" t="n"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="n"/>
-      <c r="B276" s="5" t="n"/>
-      <c r="C276" s="5" t="n"/>
-      <c r="D276" s="6" t="n"/>
-      <c r="E276" s="2" t="n"/>
-      <c r="F276" s="7" t="n"/>
-      <c r="G276" s="8" t="n"/>
-      <c r="H276" s="8" t="n"/>
-      <c r="I276" s="8" t="n"/>
-      <c r="J276" s="2" t="n"/>
-      <c r="K276" s="2" t="n"/>
-      <c r="L276" s="8" t="n"/>
-      <c r="M276" s="8" t="n"/>
-      <c r="N276" s="8" t="n"/>
-      <c r="O276" s="2" t="n"/>
-      <c r="P276" s="2" t="n"/>
-      <c r="Q276" s="8" t="n"/>
-      <c r="R276" s="8" t="n"/>
-      <c r="S276" s="8" t="n"/>
-      <c r="T276" s="2" t="n"/>
-      <c r="U276" s="2" t="n"/>
-      <c r="V276" s="8" t="n"/>
-      <c r="W276" s="8" t="n"/>
-      <c r="X276" s="8" t="n"/>
-      <c r="Y276" s="2" t="n"/>
-      <c r="Z276" s="2" t="n"/>
-      <c r="AA276" s="8" t="n">
-        <v>510</v>
-      </c>
-      <c r="AB276" s="8" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="AC276" s="8" t="n">
-        <v>5.100000000000001</v>
-      </c>
-      <c r="AD276" s="2" t="n">
-        <v>532.95</v>
-      </c>
-      <c r="AE276" s="2" t="n">
-        <v>1750</v>
-      </c>
-      <c r="AF276" s="8" t="n">
-        <v>61.25000000000001</v>
-      </c>
-      <c r="AG276" s="8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH276" s="8" t="n">
-        <v>1828.75</v>
-      </c>
-      <c r="AI276" s="2" t="n"/>
-      <c r="AJ276" s="2" t="n"/>
-      <c r="AK276" s="8" t="n"/>
-      <c r="AL276" s="8" t="n"/>
-      <c r="AM276" s="8" t="n"/>
-      <c r="AN276" s="2" t="n"/>
-      <c r="AO276" s="2" t="n"/>
-      <c r="AP276" s="8" t="n"/>
-      <c r="AQ276" s="8" t="n"/>
-      <c r="AR276" s="8" t="n"/>
-      <c r="AS276" s="2" t="n"/>
-      <c r="AT276" s="2" t="n"/>
-      <c r="AU276" s="8" t="n"/>
-      <c r="AV276" s="8" t="n"/>
-      <c r="AW276" s="8" t="n"/>
-      <c r="AX276" s="2" t="n"/>
-      <c r="AY276" s="2" t="n"/>
-      <c r="AZ276" s="8" t="n"/>
-      <c r="BA276" s="8" t="n"/>
-      <c r="BB276" s="8" t="n"/>
-      <c r="BC276" s="2" t="n"/>
-      <c r="BD276" s="2" t="n"/>
-      <c r="BE276" s="8" t="n"/>
-      <c r="BF276" s="8" t="n"/>
-      <c r="BG276" s="8" t="n"/>
-      <c r="BH276" s="2" t="n"/>
-      <c r="BI276" s="2" t="n"/>
-      <c r="BJ276" s="8" t="n"/>
-      <c r="BK276" s="8" t="n"/>
-      <c r="BL276" s="8" t="n"/>
-      <c r="BM276" s="2" t="n"/>
-      <c r="BN276" s="2" t="n"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="n"/>
-      <c r="B277" s="5" t="n"/>
-      <c r="C277" s="5" t="n"/>
-      <c r="D277" s="6" t="n"/>
-      <c r="E277" s="2" t="n"/>
-      <c r="F277" s="7" t="n"/>
-      <c r="G277" s="8" t="n"/>
-      <c r="H277" s="8" t="n"/>
-      <c r="I277" s="8" t="n"/>
-      <c r="J277" s="2" t="n"/>
-      <c r="K277" s="2" t="n"/>
-      <c r="L277" s="8" t="n"/>
-      <c r="M277" s="8" t="n"/>
-      <c r="N277" s="8" t="n"/>
-      <c r="O277" s="2" t="n"/>
-      <c r="P277" s="2" t="n"/>
-      <c r="Q277" s="8" t="n"/>
-      <c r="R277" s="8" t="n"/>
-      <c r="S277" s="8" t="n"/>
-      <c r="T277" s="2" t="n"/>
-      <c r="U277" s="2" t="n"/>
-      <c r="V277" s="8" t="n"/>
-      <c r="W277" s="8" t="n"/>
-      <c r="X277" s="8" t="n"/>
-      <c r="Y277" s="2" t="n"/>
-      <c r="Z277" s="2" t="n"/>
-      <c r="AA277" s="8" t="n">
-        <v>640</v>
-      </c>
-      <c r="AB277" s="8" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="AC277" s="8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD277" s="2" t="n">
-        <v>668.8</v>
-      </c>
-      <c r="AE277" s="2" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AF277" s="8" t="n">
-        <v>69.30000000000001</v>
-      </c>
-      <c r="AG277" s="8" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AH277" s="8" t="n">
-        <v>2069.1</v>
-      </c>
-      <c r="AI277" s="2" t="n"/>
-      <c r="AJ277" s="2" t="n"/>
-      <c r="AK277" s="8" t="n"/>
-      <c r="AL277" s="8" t="n"/>
-      <c r="AM277" s="8" t="n"/>
-      <c r="AN277" s="2" t="n"/>
-      <c r="AO277" s="2" t="n"/>
-      <c r="AP277" s="8" t="n"/>
-      <c r="AQ277" s="8" t="n"/>
-      <c r="AR277" s="8" t="n"/>
-      <c r="AS277" s="2" t="n"/>
-      <c r="AT277" s="2" t="n"/>
-      <c r="AU277" s="8" t="n"/>
-      <c r="AV277" s="8" t="n"/>
-      <c r="AW277" s="8" t="n"/>
-      <c r="AX277" s="2" t="n"/>
-      <c r="AY277" s="2" t="n"/>
-      <c r="AZ277" s="8" t="n"/>
-      <c r="BA277" s="8" t="n"/>
-      <c r="BB277" s="8" t="n"/>
-      <c r="BC277" s="2" t="n"/>
-      <c r="BD277" s="2" t="n"/>
-      <c r="BE277" s="8" t="n"/>
-      <c r="BF277" s="8" t="n"/>
-      <c r="BG277" s="8" t="n"/>
-      <c r="BH277" s="2" t="n"/>
-      <c r="BI277" s="2" t="n"/>
-      <c r="BJ277" s="8" t="n"/>
-      <c r="BK277" s="8" t="n"/>
-      <c r="BL277" s="8" t="n"/>
-      <c r="BM277" s="2" t="n"/>
-      <c r="BN277" s="2" t="n"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="n"/>
-      <c r="B278" s="5" t="n"/>
-      <c r="C278" s="5" t="n"/>
-      <c r="D278" s="6" t="n"/>
-      <c r="E278" s="2" t="n"/>
-      <c r="F278" s="7" t="n"/>
-      <c r="G278" s="8" t="n"/>
-      <c r="H278" s="8" t="n"/>
-      <c r="I278" s="8" t="n"/>
-      <c r="J278" s="2" t="n"/>
-      <c r="K278" s="2" t="n"/>
-      <c r="L278" s="8" t="n"/>
-      <c r="M278" s="8" t="n"/>
-      <c r="N278" s="8" t="n"/>
-      <c r="O278" s="2" t="n"/>
-      <c r="P278" s="2" t="n"/>
-      <c r="Q278" s="8" t="n"/>
-      <c r="R278" s="8" t="n"/>
-      <c r="S278" s="8" t="n"/>
-      <c r="T278" s="2" t="n"/>
-      <c r="U278" s="2" t="n"/>
-      <c r="V278" s="8" t="n"/>
-      <c r="W278" s="8" t="n"/>
-      <c r="X278" s="8" t="n"/>
-      <c r="Y278" s="2" t="n"/>
-      <c r="Z278" s="2" t="n"/>
-      <c r="AA278" s="8" t="n">
-        <v>650</v>
-      </c>
-      <c r="AB278" s="8" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="AC278" s="8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD278" s="2" t="n">
-        <v>679.25</v>
-      </c>
-      <c r="AE278" s="2" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AF278" s="8" t="n">
-        <v>69.30000000000001</v>
-      </c>
-      <c r="AG278" s="8" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AH278" s="8" t="n">
-        <v>2069.1</v>
-      </c>
-      <c r="AI278" s="2" t="n"/>
-      <c r="AJ278" s="2" t="n"/>
-      <c r="AK278" s="8" t="n"/>
-      <c r="AL278" s="8" t="n"/>
-      <c r="AM278" s="8" t="n"/>
-      <c r="AN278" s="2" t="n"/>
-      <c r="AO278" s="2" t="n"/>
-      <c r="AP278" s="8" t="n"/>
-      <c r="AQ278" s="8" t="n"/>
-      <c r="AR278" s="8" t="n"/>
-      <c r="AS278" s="2" t="n"/>
-      <c r="AT278" s="2" t="n"/>
-      <c r="AU278" s="8" t="n"/>
-      <c r="AV278" s="8" t="n"/>
-      <c r="AW278" s="8" t="n"/>
-      <c r="AX278" s="2" t="n"/>
-      <c r="AY278" s="2" t="n"/>
-      <c r="AZ278" s="8" t="n"/>
-      <c r="BA278" s="8" t="n"/>
-      <c r="BB278" s="8" t="n"/>
-      <c r="BC278" s="2" t="n"/>
-      <c r="BD278" s="2" t="n"/>
-      <c r="BE278" s="8" t="n"/>
-      <c r="BF278" s="8" t="n"/>
-      <c r="BG278" s="8" t="n"/>
-      <c r="BH278" s="2" t="n"/>
-      <c r="BI278" s="2" t="n"/>
-      <c r="BJ278" s="8" t="n"/>
-      <c r="BK278" s="8" t="n"/>
-      <c r="BL278" s="8" t="n"/>
-      <c r="BM278" s="2" t="n"/>
-      <c r="BN278" s="2" t="n"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="n"/>
-      <c r="B279" s="5" t="n"/>
-      <c r="C279" s="5" t="n"/>
-      <c r="D279" s="6" t="n"/>
-      <c r="E279" s="2" t="n"/>
-      <c r="F279" s="7" t="n"/>
-      <c r="G279" s="8" t="n"/>
-      <c r="H279" s="8" t="n"/>
-      <c r="I279" s="8" t="n"/>
-      <c r="J279" s="2" t="n"/>
-      <c r="K279" s="2" t="n"/>
-      <c r="L279" s="8" t="n"/>
-      <c r="M279" s="8" t="n"/>
-      <c r="N279" s="8" t="n"/>
-      <c r="O279" s="2" t="n"/>
-      <c r="P279" s="2" t="n"/>
-      <c r="Q279" s="8" t="n"/>
-      <c r="R279" s="8" t="n"/>
-      <c r="S279" s="8" t="n"/>
-      <c r="T279" s="2" t="n"/>
-      <c r="U279" s="2" t="n"/>
-      <c r="V279" s="8" t="n"/>
-      <c r="W279" s="8" t="n"/>
-      <c r="X279" s="8" t="n"/>
-      <c r="Y279" s="2" t="n"/>
-      <c r="Z279" s="2" t="n"/>
-      <c r="AA279" s="8" t="n">
-        <v>2200</v>
-      </c>
-      <c r="AB279" s="8" t="n">
-        <v>77.00000000000001</v>
-      </c>
-      <c r="AC279" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD279" s="2" t="n">
-        <v>2299</v>
-      </c>
-      <c r="AE279" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AF279" s="8" t="n">
-        <v>43.75000000000001</v>
-      </c>
-      <c r="AG279" s="8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH279" s="8" t="n">
-        <v>1306.25</v>
-      </c>
-      <c r="AI279" s="2" t="n"/>
-      <c r="AJ279" s="2" t="n"/>
-      <c r="AK279" s="8" t="n"/>
-      <c r="AL279" s="8" t="n"/>
-      <c r="AM279" s="8" t="n"/>
-      <c r="AN279" s="2" t="n"/>
-      <c r="AO279" s="2" t="n"/>
-      <c r="AP279" s="8" t="n"/>
-      <c r="AQ279" s="8" t="n"/>
-      <c r="AR279" s="8" t="n"/>
-      <c r="AS279" s="2" t="n"/>
-      <c r="AT279" s="2" t="n"/>
-      <c r="AU279" s="8" t="n"/>
-      <c r="AV279" s="8" t="n"/>
-      <c r="AW279" s="8" t="n"/>
-      <c r="AX279" s="2" t="n"/>
-      <c r="AY279" s="2" t="n"/>
-      <c r="AZ279" s="8" t="n"/>
-      <c r="BA279" s="8" t="n"/>
-      <c r="BB279" s="8" t="n"/>
-      <c r="BC279" s="2" t="n"/>
-      <c r="BD279" s="2" t="n"/>
-      <c r="BE279" s="8" t="n"/>
-      <c r="BF279" s="8" t="n"/>
-      <c r="BG279" s="8" t="n"/>
-      <c r="BH279" s="2" t="n"/>
-      <c r="BI279" s="2" t="n"/>
-      <c r="BJ279" s="8" t="n"/>
-      <c r="BK279" s="8" t="n"/>
-      <c r="BL279" s="8" t="n"/>
-      <c r="BM279" s="2" t="n"/>
-      <c r="BN279" s="2" t="n"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="n"/>
-      <c r="B280" s="5" t="n"/>
-      <c r="C280" s="5" t="n"/>
-      <c r="D280" s="6" t="n"/>
-      <c r="E280" s="2" t="n"/>
-      <c r="F280" s="7" t="n"/>
-      <c r="G280" s="8" t="n"/>
-      <c r="H280" s="8" t="n"/>
-      <c r="I280" s="8" t="n"/>
-      <c r="J280" s="2" t="n"/>
-      <c r="K280" s="2" t="n"/>
-      <c r="L280" s="8" t="n"/>
-      <c r="M280" s="8" t="n"/>
-      <c r="N280" s="8" t="n"/>
-      <c r="O280" s="2" t="n"/>
-      <c r="P280" s="2" t="n"/>
-      <c r="Q280" s="8" t="n"/>
-      <c r="R280" s="8" t="n"/>
-      <c r="S280" s="8" t="n"/>
-      <c r="T280" s="2" t="n"/>
-      <c r="U280" s="2" t="n"/>
-      <c r="V280" s="8" t="n"/>
-      <c r="W280" s="8" t="n"/>
-      <c r="X280" s="8" t="n"/>
-      <c r="Y280" s="2" t="n"/>
-      <c r="Z280" s="2" t="n"/>
-      <c r="AA280" s="8" t="n"/>
-      <c r="AB280" s="8" t="n"/>
-      <c r="AC280" s="8" t="n"/>
-      <c r="AD280" s="2" t="n"/>
-      <c r="AE280" s="2" t="n">
-        <v>1505</v>
-      </c>
-      <c r="AF280" s="8" t="n">
-        <v>52.675</v>
-      </c>
-      <c r="AG280" s="8" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="AH280" s="8" t="n">
-        <v>1572.725</v>
-      </c>
-      <c r="AI280" s="2" t="n"/>
-      <c r="AJ280" s="2" t="n"/>
-      <c r="AK280" s="8" t="n"/>
-      <c r="AL280" s="8" t="n"/>
-      <c r="AM280" s="8" t="n"/>
-      <c r="AN280" s="2" t="n"/>
-      <c r="AO280" s="2" t="n"/>
-      <c r="AP280" s="8" t="n"/>
-      <c r="AQ280" s="8" t="n"/>
-      <c r="AR280" s="8" t="n"/>
-      <c r="AS280" s="2" t="n"/>
-      <c r="AT280" s="2" t="n"/>
-      <c r="AU280" s="8" t="n"/>
-      <c r="AV280" s="8" t="n"/>
-      <c r="AW280" s="8" t="n"/>
-      <c r="AX280" s="2" t="n"/>
-      <c r="AY280" s="2" t="n"/>
-      <c r="AZ280" s="8" t="n"/>
-      <c r="BA280" s="8" t="n"/>
-      <c r="BB280" s="8" t="n"/>
-      <c r="BC280" s="2" t="n"/>
-      <c r="BD280" s="2" t="n"/>
-      <c r="BE280" s="8" t="n"/>
-      <c r="BF280" s="8" t="n"/>
-      <c r="BG280" s="8" t="n"/>
-      <c r="BH280" s="2" t="n"/>
-      <c r="BI280" s="2" t="n"/>
-      <c r="BJ280" s="8" t="n"/>
-      <c r="BK280" s="8" t="n"/>
-      <c r="BL280" s="8" t="n"/>
-      <c r="BM280" s="2" t="n"/>
-      <c r="BN280" s="2" t="n"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="n"/>
-      <c r="B281" s="5" t="n"/>
-      <c r="C281" s="5" t="n"/>
-      <c r="D281" s="6" t="n"/>
-      <c r="E281" s="2" t="n"/>
-      <c r="F281" s="7" t="n"/>
-      <c r="G281" s="8" t="n"/>
-      <c r="H281" s="8" t="n"/>
-      <c r="I281" s="8" t="n"/>
-      <c r="J281" s="2" t="n"/>
-      <c r="K281" s="2" t="n"/>
-      <c r="L281" s="8" t="n"/>
-      <c r="M281" s="8" t="n"/>
-      <c r="N281" s="8" t="n"/>
-      <c r="O281" s="2" t="n"/>
-      <c r="P281" s="2" t="n"/>
-      <c r="Q281" s="8" t="n"/>
-      <c r="R281" s="8" t="n"/>
-      <c r="S281" s="8" t="n"/>
-      <c r="T281" s="2" t="n"/>
-      <c r="U281" s="2" t="n"/>
-      <c r="V281" s="8" t="n"/>
-      <c r="W281" s="8" t="n"/>
-      <c r="X281" s="8" t="n"/>
-      <c r="Y281" s="2" t="n"/>
-      <c r="Z281" s="2" t="n"/>
-      <c r="AA281" s="8" t="n"/>
-      <c r="AB281" s="8" t="n"/>
-      <c r="AC281" s="8" t="n"/>
-      <c r="AD281" s="2" t="n"/>
-      <c r="AE281" s="2" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AF281" s="8" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="AG281" s="8" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AH281" s="8" t="n">
-        <v>1285.35</v>
-      </c>
-      <c r="AI281" s="2" t="n"/>
-      <c r="AJ281" s="2" t="n"/>
-      <c r="AK281" s="8" t="n"/>
-      <c r="AL281" s="8" t="n"/>
-      <c r="AM281" s="8" t="n"/>
-      <c r="AN281" s="2" t="n"/>
-      <c r="AO281" s="2" t="n"/>
-      <c r="AP281" s="8" t="n"/>
-      <c r="AQ281" s="8" t="n"/>
-      <c r="AR281" s="8" t="n"/>
-      <c r="AS281" s="2" t="n"/>
-      <c r="AT281" s="2" t="n"/>
-      <c r="AU281" s="8" t="n"/>
-      <c r="AV281" s="8" t="n"/>
-      <c r="AW281" s="8" t="n"/>
-      <c r="AX281" s="2" t="n"/>
-      <c r="AY281" s="2" t="n"/>
-      <c r="AZ281" s="8" t="n"/>
-      <c r="BA281" s="8" t="n"/>
-      <c r="BB281" s="8" t="n"/>
-      <c r="BC281" s="2" t="n"/>
-      <c r="BD281" s="2" t="n"/>
-      <c r="BE281" s="8" t="n"/>
-      <c r="BF281" s="8" t="n"/>
-      <c r="BG281" s="8" t="n"/>
-      <c r="BH281" s="2" t="n"/>
-      <c r="BI281" s="2" t="n"/>
-      <c r="BJ281" s="8" t="n"/>
-      <c r="BK281" s="8" t="n"/>
-      <c r="BL281" s="8" t="n"/>
-      <c r="BM281" s="2" t="n"/>
-      <c r="BN281" s="2" t="n"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="n"/>
-      <c r="B282" s="5" t="n"/>
-      <c r="C282" s="5" t="n"/>
-      <c r="D282" s="6" t="n"/>
-      <c r="E282" s="2" t="n"/>
-      <c r="F282" s="7" t="n"/>
-      <c r="G282" s="8" t="n"/>
-      <c r="H282" s="8" t="n"/>
-      <c r="I282" s="8" t="n"/>
-      <c r="J282" s="2" t="n"/>
-      <c r="K282" s="2" t="n"/>
-      <c r="L282" s="8" t="n"/>
-      <c r="M282" s="8" t="n"/>
-      <c r="N282" s="8" t="n"/>
-      <c r="O282" s="2" t="n"/>
-      <c r="P282" s="2" t="n"/>
-      <c r="Q282" s="8" t="n"/>
-      <c r="R282" s="8" t="n"/>
-      <c r="S282" s="8" t="n"/>
-      <c r="T282" s="2" t="n"/>
-      <c r="U282" s="2" t="n"/>
-      <c r="V282" s="8" t="n"/>
-      <c r="W282" s="8" t="n"/>
-      <c r="X282" s="8" t="n"/>
-      <c r="Y282" s="2" t="n"/>
-      <c r="Z282" s="2" t="n"/>
-      <c r="AA282" s="8" t="n"/>
-      <c r="AB282" s="8" t="n"/>
-      <c r="AC282" s="8" t="n"/>
-      <c r="AD282" s="2" t="n"/>
-      <c r="AE282" s="2" t="n">
-        <v>3755</v>
-      </c>
-      <c r="AF282" s="8" t="n">
-        <v>131.425</v>
-      </c>
-      <c r="AG282" s="8" t="n">
-        <v>37.55</v>
-      </c>
-      <c r="AH282" s="8" t="n">
-        <v>3923.975</v>
-      </c>
-      <c r="AI282" s="2" t="n"/>
-      <c r="AJ282" s="2" t="n"/>
-      <c r="AK282" s="8" t="n"/>
-      <c r="AL282" s="8" t="n"/>
-      <c r="AM282" s="8" t="n"/>
-      <c r="AN282" s="2" t="n"/>
-      <c r="AO282" s="2" t="n"/>
-      <c r="AP282" s="8" t="n"/>
-      <c r="AQ282" s="8" t="n"/>
-      <c r="AR282" s="8" t="n"/>
-      <c r="AS282" s="2" t="n"/>
-      <c r="AT282" s="2" t="n"/>
-      <c r="AU282" s="8" t="n"/>
-      <c r="AV282" s="8" t="n"/>
-      <c r="AW282" s="8" t="n"/>
-      <c r="AX282" s="2" t="n"/>
-      <c r="AY282" s="2" t="n"/>
-      <c r="AZ282" s="8" t="n"/>
-      <c r="BA282" s="8" t="n"/>
-      <c r="BB282" s="8" t="n"/>
-      <c r="BC282" s="2" t="n"/>
-      <c r="BD282" s="2" t="n"/>
-      <c r="BE282" s="8" t="n"/>
-      <c r="BF282" s="8" t="n"/>
-      <c r="BG282" s="8" t="n"/>
-      <c r="BH282" s="2" t="n"/>
-      <c r="BI282" s="2" t="n"/>
-      <c r="BJ282" s="8" t="n"/>
-      <c r="BK282" s="8" t="n"/>
-      <c r="BL282" s="8" t="n"/>
-      <c r="BM282" s="2" t="n"/>
-      <c r="BN282" s="2" t="n"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="n"/>
-      <c r="B283" s="5" t="n"/>
-      <c r="C283" s="5" t="n"/>
-      <c r="D283" s="6" t="n"/>
-      <c r="E283" s="2" t="n"/>
-      <c r="F283" s="7" t="n"/>
-      <c r="G283" s="8" t="n"/>
-      <c r="H283" s="8" t="n"/>
-      <c r="I283" s="8" t="n"/>
-      <c r="J283" s="2" t="n"/>
-      <c r="K283" s="2" t="n"/>
-      <c r="L283" s="8" t="n"/>
-      <c r="M283" s="8" t="n"/>
-      <c r="N283" s="8" t="n"/>
-      <c r="O283" s="2" t="n"/>
-      <c r="P283" s="2" t="n"/>
-      <c r="Q283" s="8" t="n"/>
-      <c r="R283" s="8" t="n"/>
-      <c r="S283" s="8" t="n"/>
-      <c r="T283" s="2" t="n"/>
-      <c r="U283" s="2" t="n"/>
-      <c r="V283" s="8" t="n"/>
-      <c r="W283" s="8" t="n"/>
-      <c r="X283" s="8" t="n"/>
-      <c r="Y283" s="2" t="n"/>
-      <c r="Z283" s="2" t="n"/>
-      <c r="AA283" s="8" t="n"/>
-      <c r="AB283" s="8" t="n"/>
-      <c r="AC283" s="8" t="n"/>
-      <c r="AD283" s="2" t="n"/>
-      <c r="AE283" s="2" t="n">
-        <v>8850</v>
-      </c>
-      <c r="AF283" s="8" t="n">
-        <v>309.7500000000001</v>
-      </c>
-      <c r="AG283" s="8" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="AH283" s="8" t="n">
-        <v>9248.25</v>
-      </c>
-      <c r="AI283" s="2" t="n"/>
-      <c r="AJ283" s="2" t="n"/>
-      <c r="AK283" s="8" t="n"/>
-      <c r="AL283" s="8" t="n"/>
-      <c r="AM283" s="8" t="n"/>
-      <c r="AN283" s="2" t="n"/>
-      <c r="AO283" s="2" t="n"/>
-      <c r="AP283" s="8" t="n"/>
-      <c r="AQ283" s="8" t="n"/>
-      <c r="AR283" s="8" t="n"/>
-      <c r="AS283" s="2" t="n"/>
-      <c r="AT283" s="2" t="n"/>
-      <c r="AU283" s="8" t="n"/>
-      <c r="AV283" s="8" t="n"/>
-      <c r="AW283" s="8" t="n"/>
-      <c r="AX283" s="2" t="n"/>
-      <c r="AY283" s="2" t="n"/>
-      <c r="AZ283" s="8" t="n"/>
-      <c r="BA283" s="8" t="n"/>
-      <c r="BB283" s="8" t="n"/>
-      <c r="BC283" s="2" t="n"/>
-      <c r="BD283" s="2" t="n"/>
-      <c r="BE283" s="8" t="n"/>
-      <c r="BF283" s="8" t="n"/>
-      <c r="BG283" s="8" t="n"/>
-      <c r="BH283" s="2" t="n"/>
-      <c r="BI283" s="2" t="n"/>
-      <c r="BJ283" s="8" t="n"/>
-      <c r="BK283" s="8" t="n"/>
-      <c r="BL283" s="8" t="n"/>
-      <c r="BM283" s="2" t="n"/>
-      <c r="BN283" s="2" t="n"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="n"/>
-      <c r="B284" s="5" t="n"/>
-      <c r="C284" s="5" t="n"/>
-      <c r="D284" s="6" t="n"/>
-      <c r="E284" s="2" t="n"/>
-      <c r="F284" s="7" t="n"/>
-      <c r="G284" s="8" t="n"/>
-      <c r="H284" s="8" t="n"/>
-      <c r="I284" s="8" t="n"/>
-      <c r="J284" s="2" t="n"/>
-      <c r="K284" s="2" t="n"/>
-      <c r="L284" s="8" t="n"/>
-      <c r="M284" s="8" t="n"/>
-      <c r="N284" s="8" t="n"/>
-      <c r="O284" s="2" t="n"/>
-      <c r="P284" s="2" t="n"/>
-      <c r="Q284" s="8" t="n"/>
-      <c r="R284" s="8" t="n"/>
-      <c r="S284" s="8" t="n"/>
-      <c r="T284" s="2" t="n"/>
-      <c r="U284" s="2" t="n"/>
-      <c r="V284" s="8" t="n"/>
-      <c r="W284" s="8" t="n"/>
-      <c r="X284" s="8" t="n"/>
-      <c r="Y284" s="2" t="n"/>
-      <c r="Z284" s="2" t="n"/>
-      <c r="AA284" s="8" t="n"/>
-      <c r="AB284" s="8" t="n"/>
-      <c r="AC284" s="8" t="n"/>
-      <c r="AD284" s="2" t="n"/>
-      <c r="AE284" s="2" t="n">
-        <v>1730</v>
-      </c>
-      <c r="AF284" s="8" t="n">
-        <v>60.55</v>
-      </c>
-      <c r="AG284" s="8" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="AH284" s="8" t="n">
-        <v>1807.85</v>
-      </c>
-      <c r="AI284" s="2" t="n"/>
-      <c r="AJ284" s="2" t="n"/>
-      <c r="AK284" s="8" t="n"/>
-      <c r="AL284" s="8" t="n"/>
-      <c r="AM284" s="8" t="n"/>
-      <c r="AN284" s="2" t="n"/>
-      <c r="AO284" s="2" t="n"/>
-      <c r="AP284" s="8" t="n"/>
-      <c r="AQ284" s="8" t="n"/>
-      <c r="AR284" s="8" t="n"/>
-      <c r="AS284" s="2" t="n"/>
-      <c r="AT284" s="2" t="n"/>
-      <c r="AU284" s="8" t="n"/>
-      <c r="AV284" s="8" t="n"/>
-      <c r="AW284" s="8" t="n"/>
-      <c r="AX284" s="2" t="n"/>
-      <c r="AY284" s="2" t="n"/>
-      <c r="AZ284" s="8" t="n"/>
-      <c r="BA284" s="8" t="n"/>
-      <c r="BB284" s="8" t="n"/>
-      <c r="BC284" s="2" t="n"/>
-      <c r="BD284" s="2" t="n"/>
-      <c r="BE284" s="8" t="n"/>
-      <c r="BF284" s="8" t="n"/>
-      <c r="BG284" s="8" t="n"/>
-      <c r="BH284" s="2" t="n"/>
-      <c r="BI284" s="2" t="n"/>
-      <c r="BJ284" s="8" t="n"/>
-      <c r="BK284" s="8" t="n"/>
-      <c r="BL284" s="8" t="n"/>
-      <c r="BM284" s="2" t="n"/>
-      <c r="BN284" s="2" t="n"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="n"/>
-      <c r="B285" s="5" t="n"/>
-      <c r="C285" s="5" t="n"/>
-      <c r="D285" s="6" t="n"/>
-      <c r="E285" s="2" t="n"/>
-      <c r="F285" s="7" t="n"/>
-      <c r="G285" s="8" t="n"/>
-      <c r="H285" s="8" t="n"/>
-      <c r="I285" s="8" t="n"/>
-      <c r="J285" s="2" t="n"/>
-      <c r="K285" s="2" t="n"/>
-      <c r="L285" s="8" t="n"/>
-      <c r="M285" s="8" t="n"/>
-      <c r="N285" s="8" t="n"/>
-      <c r="O285" s="2" t="n"/>
-      <c r="P285" s="2" t="n"/>
-      <c r="Q285" s="8" t="n"/>
-      <c r="R285" s="8" t="n"/>
-      <c r="S285" s="8" t="n"/>
-      <c r="T285" s="2" t="n"/>
-      <c r="U285" s="2" t="n"/>
-      <c r="V285" s="8" t="n"/>
-      <c r="W285" s="8" t="n"/>
-      <c r="X285" s="8" t="n"/>
-      <c r="Y285" s="2" t="n"/>
-      <c r="Z285" s="2" t="n"/>
-      <c r="AA285" s="8" t="n"/>
-      <c r="AB285" s="8" t="n"/>
-      <c r="AC285" s="8" t="n"/>
-      <c r="AD285" s="2" t="n"/>
-      <c r="AE285" s="2" t="n">
-        <v>5700</v>
-      </c>
-      <c r="AF285" s="8" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="AG285" s="8" t="n">
-        <v>57</v>
-      </c>
-      <c r="AH285" s="8" t="n">
-        <v>5956.5</v>
-      </c>
-      <c r="AI285" s="2" t="n"/>
-      <c r="AJ285" s="2" t="n"/>
-      <c r="AK285" s="8" t="n"/>
-      <c r="AL285" s="8" t="n"/>
-      <c r="AM285" s="8" t="n"/>
-      <c r="AN285" s="2" t="n"/>
-      <c r="AO285" s="2" t="n"/>
-      <c r="AP285" s="8" t="n"/>
-      <c r="AQ285" s="8" t="n"/>
-      <c r="AR285" s="8" t="n"/>
-      <c r="AS285" s="2" t="n"/>
-      <c r="AT285" s="2" t="n"/>
-      <c r="AU285" s="8" t="n"/>
-      <c r="AV285" s="8" t="n"/>
-      <c r="AW285" s="8" t="n"/>
-      <c r="AX285" s="2" t="n"/>
-      <c r="AY285" s="2" t="n"/>
-      <c r="AZ285" s="8" t="n"/>
-      <c r="BA285" s="8" t="n"/>
-      <c r="BB285" s="8" t="n"/>
-      <c r="BC285" s="2" t="n"/>
-      <c r="BD285" s="2" t="n"/>
-      <c r="BE285" s="8" t="n"/>
-      <c r="BF285" s="8" t="n"/>
-      <c r="BG285" s="8" t="n"/>
-      <c r="BH285" s="2" t="n"/>
-      <c r="BI285" s="2" t="n"/>
-      <c r="BJ285" s="8" t="n"/>
-      <c r="BK285" s="8" t="n"/>
-      <c r="BL285" s="8" t="n"/>
-      <c r="BM285" s="2" t="n"/>
-      <c r="BN285" s="2" t="n"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="n"/>
-      <c r="B286" s="5" t="n"/>
-      <c r="C286" s="5" t="n"/>
-      <c r="D286" s="6" t="n"/>
-      <c r="E286" s="2" t="n"/>
-      <c r="F286" s="7" t="n"/>
-      <c r="G286" s="8" t="n"/>
-      <c r="H286" s="8" t="n"/>
-      <c r="I286" s="8" t="n"/>
-      <c r="J286" s="2" t="n"/>
-      <c r="K286" s="2" t="n"/>
-      <c r="L286" s="8" t="n"/>
-      <c r="M286" s="8" t="n"/>
-      <c r="N286" s="8" t="n"/>
-      <c r="O286" s="2" t="n"/>
-      <c r="P286" s="2" t="n"/>
-      <c r="Q286" s="8" t="n"/>
-      <c r="R286" s="8" t="n"/>
-      <c r="S286" s="8" t="n"/>
-      <c r="T286" s="2" t="n"/>
-      <c r="U286" s="2" t="n"/>
-      <c r="V286" s="8" t="n"/>
-      <c r="W286" s="8" t="n"/>
-      <c r="X286" s="8" t="n"/>
-      <c r="Y286" s="2" t="n"/>
-      <c r="Z286" s="2" t="n"/>
-      <c r="AA286" s="8" t="n"/>
-      <c r="AB286" s="8" t="n"/>
-      <c r="AC286" s="8" t="n"/>
-      <c r="AD286" s="2" t="n"/>
-      <c r="AE286" s="2" t="n">
-        <v>3200</v>
-      </c>
-      <c r="AF286" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="AG286" s="8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH286" s="8" t="n">
-        <v>3344</v>
-      </c>
-      <c r="AI286" s="2" t="n"/>
-      <c r="AJ286" s="2" t="n"/>
-      <c r="AK286" s="8" t="n"/>
-      <c r="AL286" s="8" t="n"/>
-      <c r="AM286" s="8" t="n"/>
-      <c r="AN286" s="2" t="n"/>
-      <c r="AO286" s="2" t="n"/>
-      <c r="AP286" s="8" t="n"/>
-      <c r="AQ286" s="8" t="n"/>
-      <c r="AR286" s="8" t="n"/>
-      <c r="AS286" s="2" t="n"/>
-      <c r="AT286" s="2" t="n"/>
-      <c r="AU286" s="8" t="n"/>
-      <c r="AV286" s="8" t="n"/>
-      <c r="AW286" s="8" t="n"/>
-      <c r="AX286" s="2" t="n"/>
-      <c r="AY286" s="2" t="n"/>
-      <c r="AZ286" s="8" t="n"/>
-      <c r="BA286" s="8" t="n"/>
-      <c r="BB286" s="8" t="n"/>
-      <c r="BC286" s="2" t="n"/>
-      <c r="BD286" s="2" t="n"/>
-      <c r="BE286" s="8" t="n"/>
-      <c r="BF286" s="8" t="n"/>
-      <c r="BG286" s="8" t="n"/>
-      <c r="BH286" s="2" t="n"/>
-      <c r="BI286" s="2" t="n"/>
-      <c r="BJ286" s="8" t="n"/>
-      <c r="BK286" s="8" t="n"/>
-      <c r="BL286" s="8" t="n"/>
-      <c r="BM286" s="2" t="n"/>
-      <c r="BN286" s="2" t="n"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="n"/>
-      <c r="B287" s="5" t="n"/>
-      <c r="C287" s="5" t="n"/>
-      <c r="D287" s="6" t="n"/>
-      <c r="E287" s="2" t="n"/>
-      <c r="F287" s="7" t="n"/>
-      <c r="G287" s="8" t="n"/>
-      <c r="H287" s="8" t="n"/>
-      <c r="I287" s="8" t="n"/>
-      <c r="J287" s="2" t="n"/>
-      <c r="K287" s="2" t="n"/>
-      <c r="L287" s="8" t="n"/>
-      <c r="M287" s="8" t="n"/>
-      <c r="N287" s="8" t="n"/>
-      <c r="O287" s="2" t="n"/>
-      <c r="P287" s="2" t="n"/>
-      <c r="Q287" s="8" t="n"/>
-      <c r="R287" s="8" t="n"/>
-      <c r="S287" s="8" t="n"/>
-      <c r="T287" s="2" t="n"/>
-      <c r="U287" s="2" t="n"/>
-      <c r="V287" s="8" t="n"/>
-      <c r="W287" s="8" t="n"/>
-      <c r="X287" s="8" t="n"/>
-      <c r="Y287" s="2" t="n"/>
-      <c r="Z287" s="2" t="n"/>
-      <c r="AA287" s="8" t="n"/>
-      <c r="AB287" s="8" t="n"/>
-      <c r="AC287" s="8" t="n"/>
-      <c r="AD287" s="2" t="n"/>
-      <c r="AE287" s="2" t="n">
-        <v>1110</v>
-      </c>
-      <c r="AF287" s="8" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="AG287" s="8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AH287" s="8" t="n">
-        <v>1159.95</v>
-      </c>
-      <c r="AI287" s="2" t="n"/>
-      <c r="AJ287" s="2" t="n"/>
-      <c r="AK287" s="8" t="n"/>
-      <c r="AL287" s="8" t="n"/>
-      <c r="AM287" s="8" t="n"/>
-      <c r="AN287" s="2" t="n"/>
-      <c r="AO287" s="2" t="n"/>
-      <c r="AP287" s="8" t="n"/>
-      <c r="AQ287" s="8" t="n"/>
-      <c r="AR287" s="8" t="n"/>
-      <c r="AS287" s="2" t="n"/>
-      <c r="AT287" s="2" t="n"/>
-      <c r="AU287" s="8" t="n"/>
-      <c r="AV287" s="8" t="n"/>
-      <c r="AW287" s="8" t="n"/>
-      <c r="AX287" s="2" t="n"/>
-      <c r="AY287" s="2" t="n"/>
-      <c r="AZ287" s="8" t="n"/>
-      <c r="BA287" s="8" t="n"/>
-      <c r="BB287" s="8" t="n"/>
-      <c r="BC287" s="2" t="n"/>
-      <c r="BD287" s="2" t="n"/>
-      <c r="BE287" s="8" t="n"/>
-      <c r="BF287" s="8" t="n"/>
-      <c r="BG287" s="8" t="n"/>
-      <c r="BH287" s="2" t="n"/>
-      <c r="BI287" s="2" t="n"/>
-      <c r="BJ287" s="8" t="n"/>
-      <c r="BK287" s="8" t="n"/>
-      <c r="BL287" s="8" t="n"/>
-      <c r="BM287" s="2" t="n"/>
-      <c r="BN287" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="V1:Z1"/>
